--- a/Database/AAR_matrix_2.xlsx
+++ b/Database/AAR_matrix_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mod.nl\Users\C0011U05\u0106n2\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Specifications" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Specifications!$B$1:$B$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Specifications!$E$1:$E$289</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="176">
   <si>
     <t>C-17</t>
   </si>
@@ -773,6 +773,109 @@
   <si>
     <t>The Netherlands</t>
   </si>
+  <si>
+    <t>August 2025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C-5</t>
+  </si>
+  <si>
+    <t>C-32</t>
+  </si>
+  <si>
+    <t>C-130</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>EC-130</t>
+  </si>
+  <si>
+    <t>MC-130</t>
+  </si>
+  <si>
+    <t>AC-130</t>
+  </si>
+  <si>
+    <t>OB-135</t>
+  </si>
+  <si>
+    <t>RC-135</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>TC-135</t>
+  </si>
+  <si>
+    <t>WC-135</t>
+  </si>
+  <si>
+    <t>E-3</t>
+  </si>
+  <si>
+    <t>E-6</t>
+  </si>
+  <si>
+    <t>CT-49</t>
+  </si>
+  <si>
+    <t>E-8</t>
+  </si>
+  <si>
+    <t>E-4</t>
+  </si>
+  <si>
+    <t>VC-25</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>F-117</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>October 2025</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Lower speed limit reduces with lower F-16 Gross Weight
+Conformal Fuel tanks: FL150 - FL300, min speed = 300 KCAS, max F-16 GW = 48 klbs.</t>
+  </si>
+  <si>
+    <t>Auto Pilot Off. Auto Pilot On reduces the AAR flight envelope.</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
 </sst>
 </file>
 
@@ -862,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,11 +973,622 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="187">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1529,13 +2243,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1558,13 +2265,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3265,10 +3965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R222"/>
+  <dimension ref="A1:R284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3279,6 +3979,7 @@
     <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="18">
@@ -3333,7 +4034,7 @@
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3498,7 +4199,7 @@
         <f>1200 * 2.20462</f>
         <v>2645.5439999999999</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3555,7 +4256,7 @@
         <f>1200 * 2.20462</f>
         <v>2645.5439999999999</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3990,7 +4691,7 @@
         <f>1400*2.20462</f>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4047,7 +4748,7 @@
         <f>1400*2.20462</f>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7546,6 +8247,9 @@
       <c r="O79">
         <v>290</v>
       </c>
+      <c r="P79">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" t="s">
@@ -7593,7 +8297,7 @@
       <c r="O80">
         <v>270</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R80" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7643,7 +8347,7 @@
       <c r="O81">
         <v>270</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R81" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8260,14 +8964,14 @@
       <c r="F94" t="s">
         <v>39</v>
       </c>
-      <c r="G94" t="s">
-        <v>35</v>
+      <c r="G94">
+        <v>3</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>118</v>
@@ -8286,6 +8990,12 @@
       </c>
       <c r="O94">
         <v>290</v>
+      </c>
+      <c r="P94">
+        <v>0.72</v>
+      </c>
+      <c r="Q94">
+        <v>3000</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -8307,8 +9017,8 @@
       <c r="F95" t="s">
         <v>39</v>
       </c>
-      <c r="G95" t="s">
-        <v>35</v>
+      <c r="G95">
+        <v>3</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8333,6 +9043,12 @@
       </c>
       <c r="O95">
         <v>290</v>
+      </c>
+      <c r="P95">
+        <v>0.72</v>
+      </c>
+      <c r="Q95">
+        <v>3000</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -8354,14 +9070,14 @@
       <c r="F96" t="s">
         <v>39</v>
       </c>
-      <c r="G96" t="s">
-        <v>35</v>
+      <c r="G96">
+        <v>3</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>118</v>
@@ -8380,6 +9096,12 @@
       </c>
       <c r="O96">
         <v>290</v>
+      </c>
+      <c r="P96">
+        <v>0.72</v>
+      </c>
+      <c r="Q96">
+        <v>3000</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -8401,8 +9123,8 @@
       <c r="F97" t="s">
         <v>39</v>
       </c>
-      <c r="G97" t="s">
-        <v>35</v>
+      <c r="G97">
+        <v>3</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -8427,6 +9149,12 @@
       </c>
       <c r="O97">
         <v>290</v>
+      </c>
+      <c r="P97">
+        <v>0.72</v>
+      </c>
+      <c r="Q97">
+        <v>3000</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -8448,8 +9176,8 @@
       <c r="F98" t="s">
         <v>39</v>
       </c>
-      <c r="G98" t="s">
-        <v>35</v>
+      <c r="G98">
+        <v>3</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -8474,6 +9202,12 @@
       </c>
       <c r="O98">
         <v>290</v>
+      </c>
+      <c r="P98">
+        <v>0.72</v>
+      </c>
+      <c r="Q98">
+        <v>3000</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -8901,7 +9635,7 @@
       <c r="P107">
         <v>0.8</v>
       </c>
-      <c r="R107" t="s">
+      <c r="R107" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8954,7 +9688,7 @@
       <c r="P108">
         <v>0.8</v>
       </c>
-      <c r="R108" t="s">
+      <c r="R108" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9007,7 +9741,7 @@
       <c r="P109">
         <v>0.8</v>
       </c>
-      <c r="R109" t="s">
+      <c r="R109" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9113,7 +9847,7 @@
       <c r="P111">
         <v>0.8</v>
       </c>
-      <c r="R111" t="s">
+      <c r="R111" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9166,7 +9900,7 @@
       <c r="P112">
         <v>0.8</v>
       </c>
-      <c r="R112" t="s">
+      <c r="R112" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9219,7 +9953,7 @@
       <c r="P113">
         <v>0.8</v>
       </c>
-      <c r="R113" t="s">
+      <c r="R113" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9272,7 +10006,7 @@
       <c r="P114">
         <v>0.8</v>
       </c>
-      <c r="R114" t="s">
+      <c r="R114" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9378,7 +10112,7 @@
       <c r="P116">
         <v>0.8</v>
       </c>
-      <c r="R116" t="s">
+      <c r="R116" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -10462,7 +11196,7 @@
       <c r="O139">
         <v>325</v>
       </c>
-      <c r="R139" t="s">
+      <c r="R139" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10512,7 +11246,7 @@
       <c r="O140">
         <v>325</v>
       </c>
-      <c r="R140" t="s">
+      <c r="R140" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12046,7 +12780,7 @@
         <v>0.8</v>
       </c>
       <c r="Q171">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -12154,7 +12888,7 @@
       <c r="Q173">
         <v>3000</v>
       </c>
-      <c r="R173" t="s">
+      <c r="R173" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12210,7 +12944,7 @@
       <c r="Q174">
         <v>3000</v>
       </c>
-      <c r="R174" t="s">
+      <c r="R174" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12266,7 +13000,7 @@
       <c r="Q175">
         <v>3000</v>
       </c>
-      <c r="R175" t="s">
+      <c r="R175" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12322,7 +13056,7 @@
       <c r="Q176">
         <v>3000</v>
       </c>
-      <c r="R176" t="s">
+      <c r="R176" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12378,7 +13112,7 @@
       <c r="Q177">
         <v>3000</v>
       </c>
-      <c r="R177" t="s">
+      <c r="R177" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12434,7 +13168,7 @@
       <c r="Q178">
         <v>3000</v>
       </c>
-      <c r="R178" t="s">
+      <c r="R178" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12490,7 +13224,7 @@
       <c r="Q179">
         <v>3000</v>
       </c>
-      <c r="R179" t="s">
+      <c r="R179" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12546,7 +13280,7 @@
       <c r="Q180">
         <v>3000</v>
       </c>
-      <c r="R180" t="s">
+      <c r="R180" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12602,7 +13336,7 @@
       <c r="Q181">
         <v>3000</v>
       </c>
-      <c r="R181" t="s">
+      <c r="R181" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12658,7 +13392,7 @@
       <c r="Q182">
         <v>3000</v>
       </c>
-      <c r="R182" t="s">
+      <c r="R182" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12714,7 +13448,7 @@
       <c r="Q183">
         <v>3000</v>
       </c>
-      <c r="R183" t="s">
+      <c r="R183" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12770,7 +13504,7 @@
       <c r="Q184">
         <v>3000</v>
       </c>
-      <c r="R184" t="s">
+      <c r="R184" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12826,7 +13560,7 @@
       <c r="Q185">
         <v>3000</v>
       </c>
-      <c r="R185" t="s">
+      <c r="R185" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12882,7 +13616,7 @@
       <c r="Q186">
         <v>3000</v>
       </c>
-      <c r="R186" t="s">
+      <c r="R186" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12938,7 +13672,7 @@
       <c r="Q187">
         <v>3000</v>
       </c>
-      <c r="R187" t="s">
+      <c r="R187" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12994,7 +13728,7 @@
       <c r="Q188">
         <v>3000</v>
       </c>
-      <c r="R188" t="s">
+      <c r="R188" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13050,7 +13784,7 @@
       <c r="Q189">
         <v>3000</v>
       </c>
-      <c r="R189" t="s">
+      <c r="R189" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13106,7 +13840,7 @@
       <c r="Q190">
         <v>3000</v>
       </c>
-      <c r="R190" t="s">
+      <c r="R190" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13162,7 +13896,7 @@
       <c r="Q191">
         <v>3000</v>
       </c>
-      <c r="R191" t="s">
+      <c r="R191" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13218,7 +13952,7 @@
       <c r="Q192">
         <v>3000</v>
       </c>
-      <c r="R192" t="s">
+      <c r="R192" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13274,7 +14008,7 @@
       <c r="Q193">
         <v>3000</v>
       </c>
-      <c r="R193" t="s">
+      <c r="R193" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13330,7 +14064,7 @@
       <c r="Q194">
         <v>3000</v>
       </c>
-      <c r="R194" t="s">
+      <c r="R194" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13386,7 +14120,7 @@
       <c r="Q195">
         <v>3000</v>
       </c>
-      <c r="R195" t="s">
+      <c r="R195" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13442,7 +14176,7 @@
       <c r="Q196">
         <v>3000</v>
       </c>
-      <c r="R196" t="s">
+      <c r="R196" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13498,7 +14232,7 @@
       <c r="Q197">
         <v>3000</v>
       </c>
-      <c r="R197" t="s">
+      <c r="R197" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13554,7 +14288,7 @@
       <c r="Q198">
         <v>3000</v>
       </c>
-      <c r="R198" t="s">
+      <c r="R198" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13610,7 +14344,7 @@
       <c r="Q199">
         <v>3000</v>
       </c>
-      <c r="R199" t="s">
+      <c r="R199" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13666,7 +14400,7 @@
       <c r="Q200">
         <v>3000</v>
       </c>
-      <c r="R200" t="s">
+      <c r="R200" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13722,7 +14456,7 @@
       <c r="Q201">
         <v>3000</v>
       </c>
-      <c r="R201" t="s">
+      <c r="R201" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13778,7 +14512,7 @@
       <c r="Q202">
         <v>3000</v>
       </c>
-      <c r="R202" t="s">
+      <c r="R202" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13834,7 +14568,7 @@
       <c r="Q203">
         <v>3000</v>
       </c>
-      <c r="R203" t="s">
+      <c r="R203" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13890,7 +14624,7 @@
       <c r="Q204">
         <v>3000</v>
       </c>
-      <c r="R204" t="s">
+      <c r="R204" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13946,7 +14680,7 @@
       <c r="Q205">
         <v>3000</v>
       </c>
-      <c r="R205" t="s">
+      <c r="R205" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -14002,7 +14736,7 @@
       <c r="Q206">
         <v>3000</v>
       </c>
-      <c r="R206" t="s">
+      <c r="R206" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -14058,7 +14792,7 @@
       <c r="Q207">
         <v>3000</v>
       </c>
-      <c r="R207" t="s">
+      <c r="R207" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -14594,569 +15328,4504 @@
     </row>
     <row r="218" spans="1:17">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C218" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" t="s">
+        <v>39</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>150</v>
+      </c>
+      <c r="N218">
+        <v>210</v>
+      </c>
+      <c r="O218">
+        <v>230</v>
+      </c>
+      <c r="P218">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q218">
+        <v>2400</v>
       </c>
     </row>
     <row r="219" spans="1:17">
       <c r="A219" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C219" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>26</v>
+      </c>
+      <c r="F219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J219" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>150</v>
+      </c>
+      <c r="N219">
+        <v>210</v>
+      </c>
+      <c r="O219">
+        <v>230</v>
+      </c>
+      <c r="P219">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q219">
+        <v>2400</v>
       </c>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C220" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220">
+        <v>180</v>
+      </c>
+      <c r="M220">
+        <v>300</v>
+      </c>
+      <c r="N220">
+        <v>270</v>
+      </c>
+      <c r="O220">
+        <v>325</v>
+      </c>
+      <c r="P220">
+        <v>0.8</v>
+      </c>
+      <c r="Q220">
+        <v>7000</v>
       </c>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C221" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>39</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221">
+        <v>100</v>
+      </c>
+      <c r="M221">
+        <v>310</v>
+      </c>
+      <c r="N221">
+        <v>250</v>
+      </c>
+      <c r="O221">
+        <v>280</v>
+      </c>
+      <c r="P221">
+        <v>0.76</v>
+      </c>
+      <c r="Q221">
+        <v>5200</v>
       </c>
     </row>
     <row r="222" spans="1:17">
       <c r="A222" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C222" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>61</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222">
+        <v>150</v>
+      </c>
+      <c r="M222">
+        <v>350</v>
+      </c>
+      <c r="N222">
+        <v>250</v>
+      </c>
+      <c r="O222">
+        <v>290</v>
+      </c>
+      <c r="P222">
+        <v>0.8</v>
+      </c>
+      <c r="Q222">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>97</v>
+      </c>
+      <c r="C223" t="s">
+        <v>98</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>144</v>
+      </c>
+      <c r="F223" t="s">
+        <v>84</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223">
+        <v>180</v>
+      </c>
+      <c r="M223">
+        <v>300</v>
+      </c>
+      <c r="N223">
+        <v>250</v>
+      </c>
+      <c r="O223">
+        <v>275</v>
+      </c>
+      <c r="P223">
+        <v>0.77</v>
+      </c>
+      <c r="Q223">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224" t="s">
+        <v>98</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>39</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K224" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L224">
+        <v>50</v>
+      </c>
+      <c r="M224">
+        <v>310</v>
+      </c>
+      <c r="N224">
+        <v>250</v>
+      </c>
+      <c r="O224">
+        <v>295</v>
+      </c>
+      <c r="P224">
+        <v>0.77</v>
+      </c>
+      <c r="Q224">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>97</v>
+      </c>
+      <c r="C225" t="s">
+        <v>98</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>145</v>
+      </c>
+      <c r="F225" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L225">
+        <v>150</v>
+      </c>
+      <c r="M225">
+        <v>300</v>
+      </c>
+      <c r="N225">
+        <v>260</v>
+      </c>
+      <c r="O225">
+        <v>290</v>
+      </c>
+      <c r="P225">
+        <v>0.84</v>
+      </c>
+      <c r="Q225">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>97</v>
+      </c>
+      <c r="C226" t="s">
+        <v>98</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>146</v>
+      </c>
+      <c r="F226" t="s">
+        <v>70</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226">
+        <v>50</v>
+      </c>
+      <c r="M226">
+        <v>160</v>
+      </c>
+      <c r="N226">
+        <v>180</v>
+      </c>
+      <c r="O226">
+        <v>220</v>
+      </c>
+      <c r="P226">
+        <v>0.9</v>
+      </c>
+      <c r="Q226">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>97</v>
+      </c>
+      <c r="C227" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>146</v>
+      </c>
+      <c r="F227" t="s">
+        <v>61</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L227">
+        <v>50</v>
+      </c>
+      <c r="M227">
+        <v>160</v>
+      </c>
+      <c r="N227">
+        <v>180</v>
+      </c>
+      <c r="O227">
+        <v>220</v>
+      </c>
+      <c r="P227">
+        <v>0.9</v>
+      </c>
+      <c r="Q227">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>97</v>
+      </c>
+      <c r="C228" t="s">
+        <v>98</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>146</v>
+      </c>
+      <c r="F228" t="s">
+        <v>60</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228">
+        <v>50</v>
+      </c>
+      <c r="M228">
+        <v>160</v>
+      </c>
+      <c r="N228">
+        <v>180</v>
+      </c>
+      <c r="O228">
+        <v>220</v>
+      </c>
+      <c r="P228">
+        <v>0.9</v>
+      </c>
+      <c r="Q228">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" t="s">
+        <v>98</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>146</v>
+      </c>
+      <c r="F229" t="s">
+        <v>147</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J229" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229">
+        <v>50</v>
+      </c>
+      <c r="M229">
+        <v>160</v>
+      </c>
+      <c r="N229">
+        <v>180</v>
+      </c>
+      <c r="O229">
+        <v>220</v>
+      </c>
+      <c r="P229">
+        <v>0.9</v>
+      </c>
+      <c r="Q229">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" t="s">
+        <v>98</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>146</v>
+      </c>
+      <c r="F230" t="s">
+        <v>42</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230">
+        <v>50</v>
+      </c>
+      <c r="M230">
+        <v>160</v>
+      </c>
+      <c r="N230">
+        <v>180</v>
+      </c>
+      <c r="O230">
+        <v>220</v>
+      </c>
+      <c r="P230">
+        <v>0.9</v>
+      </c>
+      <c r="Q230">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
+      <c r="A231" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>97</v>
+      </c>
+      <c r="C231" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>148</v>
+      </c>
+      <c r="F231" t="s">
+        <v>42</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231">
+        <v>50</v>
+      </c>
+      <c r="M231">
+        <v>160</v>
+      </c>
+      <c r="N231">
+        <v>180</v>
+      </c>
+      <c r="O231">
+        <v>220</v>
+      </c>
+      <c r="P231">
+        <v>0.9</v>
+      </c>
+      <c r="Q231">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="A232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" t="s">
+        <v>98</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>149</v>
+      </c>
+      <c r="F232" t="s">
+        <v>42</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232">
+        <v>50</v>
+      </c>
+      <c r="M232">
+        <v>160</v>
+      </c>
+      <c r="N232">
+        <v>180</v>
+      </c>
+      <c r="O232">
+        <v>220</v>
+      </c>
+      <c r="P232">
+        <v>0.9</v>
+      </c>
+      <c r="Q232">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>97</v>
+      </c>
+      <c r="C233" t="s">
+        <v>98</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>150</v>
+      </c>
+      <c r="F233" t="s">
+        <v>42</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233">
+        <v>50</v>
+      </c>
+      <c r="M233">
+        <v>160</v>
+      </c>
+      <c r="N233">
+        <v>180</v>
+      </c>
+      <c r="O233">
+        <v>220</v>
+      </c>
+      <c r="P233">
+        <v>0.9</v>
+      </c>
+      <c r="Q233">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
+      <c r="A234" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>97</v>
+      </c>
+      <c r="C234" t="s">
+        <v>98</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>97</v>
+      </c>
+      <c r="F234" t="s">
+        <v>100</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234">
+        <v>150</v>
+      </c>
+      <c r="M234">
+        <v>300</v>
+      </c>
+      <c r="N234">
+        <v>250</v>
+      </c>
+      <c r="O234">
+        <v>300</v>
+      </c>
+      <c r="P234">
+        <v>0.8</v>
+      </c>
+      <c r="Q234">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>97</v>
+      </c>
+      <c r="C235" t="s">
+        <v>98</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>97</v>
+      </c>
+      <c r="F235" t="s">
+        <v>98</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235">
+        <v>150</v>
+      </c>
+      <c r="M235">
+        <v>300</v>
+      </c>
+      <c r="N235">
+        <v>250</v>
+      </c>
+      <c r="O235">
+        <v>300</v>
+      </c>
+      <c r="P235">
+        <v>0.8</v>
+      </c>
+      <c r="Q235">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="A236" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>97</v>
+      </c>
+      <c r="C236" t="s">
+        <v>98</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>151</v>
+      </c>
+      <c r="F236" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236">
+        <v>150</v>
+      </c>
+      <c r="M236">
+        <v>300</v>
+      </c>
+      <c r="N236">
+        <v>250</v>
+      </c>
+      <c r="O236">
+        <v>300</v>
+      </c>
+      <c r="P236">
+        <v>0.8</v>
+      </c>
+      <c r="Q236">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" t="s">
+        <v>98</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>152</v>
+      </c>
+      <c r="F237" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237">
+        <v>150</v>
+      </c>
+      <c r="M237">
+        <v>300</v>
+      </c>
+      <c r="N237">
+        <v>250</v>
+      </c>
+      <c r="O237">
+        <v>300</v>
+      </c>
+      <c r="P237">
+        <v>0.8</v>
+      </c>
+      <c r="Q237">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" t="s">
+        <v>98</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>152</v>
+      </c>
+      <c r="F238" t="s">
+        <v>153</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238">
+        <v>150</v>
+      </c>
+      <c r="M238">
+        <v>300</v>
+      </c>
+      <c r="N238">
+        <v>250</v>
+      </c>
+      <c r="O238">
+        <v>300</v>
+      </c>
+      <c r="P238">
+        <v>0.8</v>
+      </c>
+      <c r="Q238">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>97</v>
+      </c>
+      <c r="C239" t="s">
+        <v>98</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>152</v>
+      </c>
+      <c r="F239" t="s">
+        <v>147</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K239" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239">
+        <v>150</v>
+      </c>
+      <c r="M239">
+        <v>300</v>
+      </c>
+      <c r="N239">
+        <v>250</v>
+      </c>
+      <c r="O239">
+        <v>300</v>
+      </c>
+      <c r="P239">
+        <v>0.8</v>
+      </c>
+      <c r="Q239">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
+      <c r="A240" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" t="s">
+        <v>97</v>
+      </c>
+      <c r="C240" t="s">
+        <v>98</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>152</v>
+      </c>
+      <c r="F240" t="s">
+        <v>154</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240">
+        <v>150</v>
+      </c>
+      <c r="M240">
+        <v>300</v>
+      </c>
+      <c r="N240">
+        <v>250</v>
+      </c>
+      <c r="O240">
+        <v>300</v>
+      </c>
+      <c r="P240">
+        <v>0.8</v>
+      </c>
+      <c r="Q240">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>97</v>
+      </c>
+      <c r="C241" t="s">
+        <v>98</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>152</v>
+      </c>
+      <c r="F241" t="s">
+        <v>155</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K241" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241">
+        <v>150</v>
+      </c>
+      <c r="M241">
+        <v>300</v>
+      </c>
+      <c r="N241">
+        <v>250</v>
+      </c>
+      <c r="O241">
+        <v>300</v>
+      </c>
+      <c r="P241">
+        <v>0.8</v>
+      </c>
+      <c r="Q241">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="A242" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" t="s">
+        <v>98</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>156</v>
+      </c>
+      <c r="F242" t="s">
+        <v>153</v>
+      </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K242" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242">
+        <v>150</v>
+      </c>
+      <c r="M242">
+        <v>300</v>
+      </c>
+      <c r="N242">
+        <v>250</v>
+      </c>
+      <c r="O242">
+        <v>300</v>
+      </c>
+      <c r="P242">
+        <v>0.8</v>
+      </c>
+      <c r="Q242">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="A243" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C243" t="s">
+        <v>98</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>156</v>
+      </c>
+      <c r="F243" t="s">
+        <v>155</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K243" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243">
+        <v>150</v>
+      </c>
+      <c r="M243">
+        <v>300</v>
+      </c>
+      <c r="N243">
+        <v>250</v>
+      </c>
+      <c r="O243">
+        <v>300</v>
+      </c>
+      <c r="P243">
+        <v>0.8</v>
+      </c>
+      <c r="Q243">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" t="s">
+        <v>98</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>157</v>
+      </c>
+      <c r="F244" t="s">
+        <v>98</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244">
+        <v>150</v>
+      </c>
+      <c r="M244">
+        <v>300</v>
+      </c>
+      <c r="N244">
+        <v>250</v>
+      </c>
+      <c r="O244">
+        <v>300</v>
+      </c>
+      <c r="P244">
+        <v>0.8</v>
+      </c>
+      <c r="Q244">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>97</v>
+      </c>
+      <c r="C245" t="s">
+        <v>98</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>158</v>
+      </c>
+      <c r="F245" t="s">
+        <v>39</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K245" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L245">
+        <v>100</v>
+      </c>
+      <c r="M245">
+        <v>290</v>
+      </c>
+      <c r="N245">
+        <v>260</v>
+      </c>
+      <c r="O245">
+        <v>280</v>
+      </c>
+      <c r="P245">
+        <v>0.74</v>
+      </c>
+      <c r="Q245">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="A246" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" t="s">
+        <v>98</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>158</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K246" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L246">
+        <v>100</v>
+      </c>
+      <c r="M246">
+        <v>290</v>
+      </c>
+      <c r="N246">
+        <v>260</v>
+      </c>
+      <c r="O246">
+        <v>280</v>
+      </c>
+      <c r="P246">
+        <v>0.74</v>
+      </c>
+      <c r="Q246">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>97</v>
+      </c>
+      <c r="C247" t="s">
+        <v>98</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>158</v>
+      </c>
+      <c r="F247" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K247" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L247">
+        <v>100</v>
+      </c>
+      <c r="M247">
+        <v>290</v>
+      </c>
+      <c r="N247">
+        <v>260</v>
+      </c>
+      <c r="O247">
+        <v>280</v>
+      </c>
+      <c r="P247">
+        <v>0.74</v>
+      </c>
+      <c r="Q247">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" t="s">
+        <v>97</v>
+      </c>
+      <c r="C248" t="s">
+        <v>98</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>158</v>
+      </c>
+      <c r="F248" t="s">
+        <v>23</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K248" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L248">
+        <v>100</v>
+      </c>
+      <c r="M248">
+        <v>290</v>
+      </c>
+      <c r="N248">
+        <v>260</v>
+      </c>
+      <c r="O248">
+        <v>280</v>
+      </c>
+      <c r="P248">
+        <v>0.74</v>
+      </c>
+      <c r="Q248">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>97</v>
+      </c>
+      <c r="C249" t="s">
+        <v>98</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>158</v>
+      </c>
+      <c r="F249" t="s">
+        <v>71</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K249" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L249">
+        <v>100</v>
+      </c>
+      <c r="M249">
+        <v>290</v>
+      </c>
+      <c r="N249">
+        <v>260</v>
+      </c>
+      <c r="O249">
+        <v>280</v>
+      </c>
+      <c r="P249">
+        <v>0.74</v>
+      </c>
+      <c r="Q249">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="A250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" t="s">
+        <v>98</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>158</v>
+      </c>
+      <c r="F250" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K250" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L250">
+        <v>100</v>
+      </c>
+      <c r="M250">
+        <v>290</v>
+      </c>
+      <c r="N250">
+        <v>260</v>
+      </c>
+      <c r="O250">
+        <v>280</v>
+      </c>
+      <c r="P250">
+        <v>0.74</v>
+      </c>
+      <c r="Q250">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>97</v>
+      </c>
+      <c r="C251" t="s">
+        <v>98</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>159</v>
+      </c>
+      <c r="F251" t="s">
+        <v>22</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K251" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L251">
+        <v>100</v>
+      </c>
+      <c r="M251">
+        <v>290</v>
+      </c>
+      <c r="N251">
+        <v>260</v>
+      </c>
+      <c r="O251">
+        <v>280</v>
+      </c>
+      <c r="P251">
+        <v>0.74</v>
+      </c>
+      <c r="Q251">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>97</v>
+      </c>
+      <c r="C252" t="s">
+        <v>98</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>160</v>
+      </c>
+      <c r="F252" t="s">
+        <v>39</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K252" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L252">
+        <v>100</v>
+      </c>
+      <c r="M252">
+        <v>290</v>
+      </c>
+      <c r="N252">
+        <v>260</v>
+      </c>
+      <c r="O252">
+        <v>280</v>
+      </c>
+      <c r="P252">
+        <v>0.74</v>
+      </c>
+      <c r="Q252">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>97</v>
+      </c>
+      <c r="C253" t="s">
+        <v>98</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>161</v>
+      </c>
+      <c r="F253" t="s">
+        <v>41</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K253" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L253">
+        <v>100</v>
+      </c>
+      <c r="M253">
+        <v>290</v>
+      </c>
+      <c r="N253">
+        <v>260</v>
+      </c>
+      <c r="O253">
+        <v>280</v>
+      </c>
+      <c r="P253">
+        <v>0.74</v>
+      </c>
+      <c r="Q253">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="A254" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>97</v>
+      </c>
+      <c r="C254" t="s">
+        <v>98</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>162</v>
+      </c>
+      <c r="F254" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K254" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L254">
+        <v>200</v>
+      </c>
+      <c r="M254">
+        <v>300</v>
+      </c>
+      <c r="N254">
+        <v>250</v>
+      </c>
+      <c r="O254">
+        <v>300</v>
+      </c>
+      <c r="P254">
+        <v>0.82</v>
+      </c>
+      <c r="Q254">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="A255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>97</v>
+      </c>
+      <c r="C255" t="s">
+        <v>98</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>163</v>
+      </c>
+      <c r="F255" t="s">
+        <v>39</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J255" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K255" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L255">
+        <v>200</v>
+      </c>
+      <c r="M255">
+        <v>300</v>
+      </c>
+      <c r="N255">
+        <v>250</v>
+      </c>
+      <c r="O255">
+        <v>300</v>
+      </c>
+      <c r="P255">
+        <v>0.82</v>
+      </c>
+      <c r="Q255">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="A256" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>97</v>
+      </c>
+      <c r="C256" t="s">
+        <v>98</v>
+      </c>
+      <c r="D256" t="s">
+        <v>137</v>
+      </c>
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256" t="s">
+        <v>100</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K256" t="s">
+        <v>22</v>
+      </c>
+      <c r="L256">
+        <v>200</v>
+      </c>
+      <c r="M256">
+        <v>300</v>
+      </c>
+      <c r="N256">
+        <v>250</v>
+      </c>
+      <c r="O256">
+        <v>290</v>
+      </c>
+      <c r="P256">
+        <v>0.72</v>
+      </c>
+      <c r="Q256">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="A257" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>97</v>
+      </c>
+      <c r="C257" t="s">
+        <v>98</v>
+      </c>
+      <c r="D257" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" t="s">
+        <v>56</v>
+      </c>
+      <c r="F257" t="s">
+        <v>39</v>
+      </c>
+      <c r="G257">
+        <v>3</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K257" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L257">
+        <v>100</v>
+      </c>
+      <c r="M257">
+        <v>300</v>
+      </c>
+      <c r="N257">
+        <v>275</v>
+      </c>
+      <c r="O257">
+        <v>310</v>
+      </c>
+      <c r="P257">
+        <v>0.9</v>
+      </c>
+      <c r="Q257">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="A258" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>97</v>
+      </c>
+      <c r="C258" t="s">
+        <v>98</v>
+      </c>
+      <c r="D258" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" t="s">
+        <v>56</v>
+      </c>
+      <c r="F258" t="s">
+        <v>22</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K258" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L258">
+        <v>100</v>
+      </c>
+      <c r="M258">
+        <v>300</v>
+      </c>
+      <c r="N258">
+        <v>275</v>
+      </c>
+      <c r="O258">
+        <v>310</v>
+      </c>
+      <c r="P258">
+        <v>0.9</v>
+      </c>
+      <c r="Q258">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>97</v>
+      </c>
+      <c r="C259" t="s">
+        <v>98</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1</v>
+      </c>
+      <c r="E259" t="s">
+        <v>36</v>
+      </c>
+      <c r="F259" t="s">
+        <v>39</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K259" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L259">
+        <v>100</v>
+      </c>
+      <c r="M259">
+        <v>320</v>
+      </c>
+      <c r="N259">
+        <v>300</v>
+      </c>
+      <c r="O259">
+        <v>330</v>
+      </c>
+      <c r="P259">
+        <v>0.82</v>
+      </c>
+      <c r="Q259">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="A260" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>97</v>
+      </c>
+      <c r="C260" t="s">
+        <v>98</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>36</v>
+      </c>
+      <c r="F260" t="s">
+        <v>22</v>
+      </c>
+      <c r="G260">
+        <v>3</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K260" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L260">
+        <v>100</v>
+      </c>
+      <c r="M260">
+        <v>320</v>
+      </c>
+      <c r="N260">
+        <v>300</v>
+      </c>
+      <c r="O260">
+        <v>330</v>
+      </c>
+      <c r="P260">
+        <v>0.82</v>
+      </c>
+      <c r="Q260">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
+      <c r="A261" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>97</v>
+      </c>
+      <c r="C261" t="s">
+        <v>98</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>36</v>
+      </c>
+      <c r="F261" t="s">
+        <v>41</v>
+      </c>
+      <c r="G261">
+        <v>3</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K261" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L261">
+        <v>100</v>
+      </c>
+      <c r="M261">
+        <v>320</v>
+      </c>
+      <c r="N261">
+        <v>300</v>
+      </c>
+      <c r="O261">
+        <v>330</v>
+      </c>
+      <c r="P261">
+        <v>0.82</v>
+      </c>
+      <c r="Q261">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
+      <c r="A262" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>97</v>
+      </c>
+      <c r="C262" t="s">
+        <v>98</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>36</v>
+      </c>
+      <c r="F262" t="s">
+        <v>23</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K262" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L262">
+        <v>100</v>
+      </c>
+      <c r="M262">
+        <v>320</v>
+      </c>
+      <c r="N262">
+        <v>300</v>
+      </c>
+      <c r="O262">
+        <v>330</v>
+      </c>
+      <c r="P262">
+        <v>0.82</v>
+      </c>
+      <c r="Q262">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="A263" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>97</v>
+      </c>
+      <c r="C263" t="s">
+        <v>98</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>36</v>
+      </c>
+      <c r="F263" t="s">
+        <v>70</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K263" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L263">
+        <v>80</v>
+      </c>
+      <c r="M263">
+        <v>300</v>
+      </c>
+      <c r="N263">
+        <v>250</v>
+      </c>
+      <c r="O263">
+        <v>350</v>
+      </c>
+      <c r="P263">
+        <v>0.88</v>
+      </c>
+      <c r="Q263">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="A264" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>97</v>
+      </c>
+      <c r="C264" t="s">
+        <v>98</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>36</v>
+      </c>
+      <c r="F264" t="s">
+        <v>165</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K264" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L264">
+        <v>80</v>
+      </c>
+      <c r="M264">
+        <v>300</v>
+      </c>
+      <c r="N264">
+        <v>250</v>
+      </c>
+      <c r="O264">
+        <v>350</v>
+      </c>
+      <c r="P264">
+        <v>0.88</v>
+      </c>
+      <c r="Q264">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>97</v>
+      </c>
+      <c r="C265" t="s">
+        <v>98</v>
+      </c>
+      <c r="D265" t="s">
+        <v>129</v>
+      </c>
+      <c r="E265" t="s">
+        <v>36</v>
+      </c>
+      <c r="F265" t="s">
+        <v>164</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J265" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K265" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L265">
+        <v>80</v>
+      </c>
+      <c r="M265">
+        <v>300</v>
+      </c>
+      <c r="N265">
+        <v>250</v>
+      </c>
+      <c r="O265">
+        <v>350</v>
+      </c>
+      <c r="P265">
+        <v>0.88</v>
+      </c>
+      <c r="Q265">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>97</v>
+      </c>
+      <c r="C266" t="s">
+        <v>98</v>
+      </c>
+      <c r="D266" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" t="s">
+        <v>36</v>
+      </c>
+      <c r="F266" t="s">
+        <v>42</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K266" t="s">
+        <v>22</v>
+      </c>
+      <c r="L266">
+        <v>80</v>
+      </c>
+      <c r="M266">
+        <v>350</v>
+      </c>
+      <c r="N266">
+        <v>275</v>
+      </c>
+      <c r="O266">
+        <v>325</v>
+      </c>
+      <c r="P266">
+        <v>0.84</v>
+      </c>
+      <c r="Q266">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="A267" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
+        <v>97</v>
+      </c>
+      <c r="C267" t="s">
+        <v>98</v>
+      </c>
+      <c r="D267" t="s">
+        <v>131</v>
+      </c>
+      <c r="E267" t="s">
+        <v>36</v>
+      </c>
+      <c r="F267" t="s">
+        <v>166</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K267" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L267" t="s">
+        <v>35</v>
+      </c>
+      <c r="M267" t="s">
+        <v>35</v>
+      </c>
+      <c r="N267" t="s">
+        <v>35</v>
+      </c>
+      <c r="O267" t="s">
+        <v>35</v>
+      </c>
+      <c r="P267" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q267">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="A268" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
+        <v>97</v>
+      </c>
+      <c r="C268" t="s">
+        <v>98</v>
+      </c>
+      <c r="D268" t="s">
+        <v>37</v>
+      </c>
+      <c r="E268" t="s">
+        <v>36</v>
+      </c>
+      <c r="F268" t="s">
+        <v>43</v>
+      </c>
+      <c r="G268">
+        <v>3</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K268" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L268">
+        <v>80</v>
+      </c>
+      <c r="M268">
+        <v>350</v>
+      </c>
+      <c r="N268">
+        <v>275</v>
+      </c>
+      <c r="O268">
+        <v>325</v>
+      </c>
+      <c r="P268">
+        <v>0.84</v>
+      </c>
+      <c r="Q268">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="A269" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>97</v>
+      </c>
+      <c r="C269" t="s">
+        <v>98</v>
+      </c>
+      <c r="D269" t="s">
+        <v>175</v>
+      </c>
+      <c r="E269" t="s">
+        <v>36</v>
+      </c>
+      <c r="F269" t="s">
+        <v>153</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
+      </c>
+      <c r="H269" t="s">
+        <v>123</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J269" t="s">
+        <v>123</v>
+      </c>
+      <c r="K269" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L269" t="s">
+        <v>123</v>
+      </c>
+      <c r="M269" t="s">
+        <v>123</v>
+      </c>
+      <c r="N269" t="s">
+        <v>123</v>
+      </c>
+      <c r="O269" t="s">
+        <v>123</v>
+      </c>
+      <c r="P269" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q269">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
+      <c r="A270" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>97</v>
+      </c>
+      <c r="C270" t="s">
+        <v>98</v>
+      </c>
+      <c r="D270" t="s">
+        <v>175</v>
+      </c>
+      <c r="E270" t="s">
+        <v>36</v>
+      </c>
+      <c r="F270" t="s">
+        <v>167</v>
+      </c>
+      <c r="G270">
+        <v>3</v>
+      </c>
+      <c r="H270" t="s">
+        <v>123</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J270" t="s">
+        <v>123</v>
+      </c>
+      <c r="K270" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L270" t="s">
+        <v>123</v>
+      </c>
+      <c r="M270" t="s">
+        <v>123</v>
+      </c>
+      <c r="N270" t="s">
+        <v>123</v>
+      </c>
+      <c r="O270" t="s">
+        <v>123</v>
+      </c>
+      <c r="P270" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q270">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="A271" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>97</v>
+      </c>
+      <c r="C271" t="s">
+        <v>98</v>
+      </c>
+      <c r="D271" t="s">
+        <v>54</v>
+      </c>
+      <c r="E271" t="s">
+        <v>36</v>
+      </c>
+      <c r="F271" t="s">
+        <v>44</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K271" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L271" t="s">
+        <v>35</v>
+      </c>
+      <c r="M271" t="s">
+        <v>35</v>
+      </c>
+      <c r="N271" t="s">
+        <v>35</v>
+      </c>
+      <c r="O271" t="s">
+        <v>35</v>
+      </c>
+      <c r="P271" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q271">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="A272" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>97</v>
+      </c>
+      <c r="C272" t="s">
+        <v>98</v>
+      </c>
+      <c r="D272" t="s">
+        <v>172</v>
+      </c>
+      <c r="E272" t="s">
+        <v>36</v>
+      </c>
+      <c r="F272" t="s">
+        <v>168</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K272" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L272" t="s">
+        <v>123</v>
+      </c>
+      <c r="M272" t="s">
+        <v>123</v>
+      </c>
+      <c r="N272" t="s">
+        <v>123</v>
+      </c>
+      <c r="O272" t="s">
+        <v>123</v>
+      </c>
+      <c r="P272" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q272">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
+      <c r="A273" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" t="s">
+        <v>97</v>
+      </c>
+      <c r="C273" t="s">
+        <v>98</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>30</v>
+      </c>
+      <c r="F273" t="s">
+        <v>39</v>
+      </c>
+      <c r="G273">
+        <v>3</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K273" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L273">
+        <v>50</v>
+      </c>
+      <c r="M273">
+        <v>350</v>
+      </c>
+      <c r="N273">
+        <v>285</v>
+      </c>
+      <c r="O273">
+        <v>325</v>
+      </c>
+      <c r="P273">
+        <v>0.84</v>
+      </c>
+      <c r="Q273">
+        <v>2000</v>
+      </c>
+      <c r="R273" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
+      <c r="A274" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>97</v>
+      </c>
+      <c r="C274" t="s">
+        <v>98</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>30</v>
+      </c>
+      <c r="F274" t="s">
+        <v>22</v>
+      </c>
+      <c r="G274">
+        <v>3</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K274" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L274">
+        <v>50</v>
+      </c>
+      <c r="M274">
+        <v>350</v>
+      </c>
+      <c r="N274">
+        <v>285</v>
+      </c>
+      <c r="O274">
+        <v>325</v>
+      </c>
+      <c r="P274">
+        <v>0.84</v>
+      </c>
+      <c r="Q274">
+        <v>2000</v>
+      </c>
+      <c r="R274" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="A275" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>97</v>
+      </c>
+      <c r="C275" t="s">
+        <v>98</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>30</v>
+      </c>
+      <c r="F275" t="s">
+        <v>41</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K275" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L275">
+        <v>50</v>
+      </c>
+      <c r="M275">
+        <v>350</v>
+      </c>
+      <c r="N275">
+        <v>285</v>
+      </c>
+      <c r="O275">
+        <v>325</v>
+      </c>
+      <c r="P275">
+        <v>0.84</v>
+      </c>
+      <c r="Q275">
+        <v>2000</v>
+      </c>
+      <c r="R275" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="A276" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>97</v>
+      </c>
+      <c r="C276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>30</v>
+      </c>
+      <c r="F276" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276">
+        <v>3</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K276" t="s">
+        <v>22</v>
+      </c>
+      <c r="L276">
+        <v>50</v>
+      </c>
+      <c r="M276">
+        <v>350</v>
+      </c>
+      <c r="N276">
+        <v>285</v>
+      </c>
+      <c r="O276">
+        <v>325</v>
+      </c>
+      <c r="P276">
+        <v>0.84</v>
+      </c>
+      <c r="Q276">
+        <v>2000</v>
+      </c>
+      <c r="R276" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="A277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>97</v>
+      </c>
+      <c r="C277" t="s">
+        <v>98</v>
+      </c>
+      <c r="D277" t="s">
+        <v>138</v>
+      </c>
+      <c r="E277" t="s">
+        <v>30</v>
+      </c>
+      <c r="F277" t="s">
+        <v>70</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K277" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L277">
+        <v>50</v>
+      </c>
+      <c r="M277">
+        <v>350</v>
+      </c>
+      <c r="N277">
+        <v>285</v>
+      </c>
+      <c r="O277">
+        <v>325</v>
+      </c>
+      <c r="P277">
+        <v>0.84</v>
+      </c>
+      <c r="Q277">
+        <v>2000</v>
+      </c>
+      <c r="R277" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
+      <c r="A278" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
+        <v>97</v>
+      </c>
+      <c r="C278" t="s">
+        <v>98</v>
+      </c>
+      <c r="D278" t="s">
+        <v>138</v>
+      </c>
+      <c r="E278" t="s">
+        <v>30</v>
+      </c>
+      <c r="F278" t="s">
+        <v>71</v>
+      </c>
+      <c r="G278">
+        <v>3</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K278" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L278">
+        <v>50</v>
+      </c>
+      <c r="M278">
+        <v>350</v>
+      </c>
+      <c r="N278">
+        <v>285</v>
+      </c>
+      <c r="O278">
+        <v>325</v>
+      </c>
+      <c r="P278">
+        <v>0.84</v>
+      </c>
+      <c r="Q278">
+        <v>2000</v>
+      </c>
+      <c r="R278" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
+      <c r="A279" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>97</v>
+      </c>
+      <c r="C279" t="s">
+        <v>98</v>
+      </c>
+      <c r="D279" t="s">
+        <v>129</v>
+      </c>
+      <c r="E279" t="s">
+        <v>30</v>
+      </c>
+      <c r="F279" t="s">
+        <v>164</v>
+      </c>
+      <c r="G279">
+        <v>3</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K279" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L279">
+        <v>50</v>
+      </c>
+      <c r="M279">
+        <v>350</v>
+      </c>
+      <c r="N279">
+        <v>285</v>
+      </c>
+      <c r="O279">
+        <v>325</v>
+      </c>
+      <c r="P279">
+        <v>0.84</v>
+      </c>
+      <c r="Q279">
+        <v>2000</v>
+      </c>
+      <c r="R279" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
+        <v>97</v>
+      </c>
+      <c r="C280" t="s">
+        <v>98</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1</v>
+      </c>
+      <c r="E280" t="s">
+        <v>31</v>
+      </c>
+      <c r="F280" t="s">
+        <v>39</v>
+      </c>
+      <c r="G280">
+        <v>3</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K280" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L280">
+        <v>50</v>
+      </c>
+      <c r="M280">
+        <v>360</v>
+      </c>
+      <c r="N280">
+        <v>215</v>
+      </c>
+      <c r="O280">
+        <v>350</v>
+      </c>
+      <c r="P280">
+        <v>0.9</v>
+      </c>
+      <c r="Q280">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>97</v>
+      </c>
+      <c r="C281" t="s">
+        <v>98</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281" t="s">
+        <v>21</v>
+      </c>
+      <c r="F281" t="s">
+        <v>39</v>
+      </c>
+      <c r="G281">
+        <v>3</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K281" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L281">
+        <v>100</v>
+      </c>
+      <c r="M281">
+        <v>300</v>
+      </c>
+      <c r="N281">
+        <v>230</v>
+      </c>
+      <c r="O281">
+        <v>350</v>
+      </c>
+      <c r="P281">
+        <v>0.84</v>
+      </c>
+      <c r="Q281">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
+      <c r="A282" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
+        <v>97</v>
+      </c>
+      <c r="C282" t="s">
+        <v>98</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>169</v>
+      </c>
+      <c r="F282" t="s">
+        <v>39</v>
+      </c>
+      <c r="G282">
+        <v>3</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K282" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L282">
+        <v>140</v>
+      </c>
+      <c r="M282">
+        <v>270</v>
+      </c>
+      <c r="N282">
+        <v>285</v>
+      </c>
+      <c r="O282">
+        <v>315</v>
+      </c>
+      <c r="P282">
+        <v>0.9</v>
+      </c>
+      <c r="Q282">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
+      <c r="A283" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>97</v>
+      </c>
+      <c r="C283" t="s">
+        <v>98</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>101</v>
+      </c>
+      <c r="F283" t="s">
+        <v>39</v>
+      </c>
+      <c r="G283">
+        <v>3</v>
+      </c>
+      <c r="H283" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K283" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L283">
+        <v>80</v>
+      </c>
+      <c r="M283">
+        <v>330</v>
+      </c>
+      <c r="N283">
+        <v>250</v>
+      </c>
+      <c r="O283">
+        <v>325</v>
+      </c>
+      <c r="P283">
+        <v>0.8</v>
+      </c>
+      <c r="Q283">
+        <v>4500</v>
+      </c>
+      <c r="R283" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>97</v>
+      </c>
+      <c r="C284" t="s">
+        <v>98</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>33</v>
+      </c>
+      <c r="F284" t="s">
+        <v>39</v>
+      </c>
+      <c r="G284">
+        <v>3</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K284" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L284">
+        <v>80</v>
+      </c>
+      <c r="M284">
+        <v>280</v>
+      </c>
+      <c r="N284">
+        <v>250</v>
+      </c>
+      <c r="O284">
+        <v>300</v>
+      </c>
+      <c r="P284">
+        <v>0.9</v>
+      </c>
+      <c r="Q284">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A11:B11 D11">
-    <cfRule type="expression" dxfId="101" priority="232">
+    <cfRule type="expression" dxfId="186" priority="321">
       <formula>COUNTIFS($A:$A,$A11,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D11,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 D13">
-    <cfRule type="expression" dxfId="100" priority="230">
+    <cfRule type="expression" dxfId="185" priority="319">
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:F57 B79 A80:F99 C100 A101:F103 A107:F152 A155:F157 A154:C154 E158:E166 A158:C161 A2:F46 D47:D50 A58:F78 A159:F207 A214:F766">
-    <cfRule type="expression" dxfId="99" priority="163">
+  <conditionalFormatting sqref="D57:F57 B79 A80:F99 C100 A101:F103 A107:F152 A155:F157 A154:C154 E158:E166 A158:C161 A2:F46 D47:D50 A58:F78 A159:F207 A214:F233 A235:F765">
+    <cfRule type="expression" dxfId="184" priority="252">
       <formula>COUNTIFS($A:$A,$A2,$B:$B,$B2,$C:$C,$C2,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34 D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 G45:Q46 D56:H57 A79:I79 G47:I55 A45:F48 D49:F50 A171:Q242 I56:I78 A58:H78 A80:H102 A30:Q44 A145:H170 I80:I170 J47:Q170">
-    <cfRule type="containsBlanks" dxfId="98" priority="151">
+  <conditionalFormatting sqref="B2:B34 D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 G45:Q46 D56:H57 A79:I79 G47:I55 A45:F48 D49:F50 I56:I78 A58:H78 A80:H102 A30:Q44 A145:H170 I80:I170 A219:I219 A220:F228 I220:I228 G220:G221 G223:G225 G227:G229 G231:G233 H221 H223 H225 H227 H229 H231 H233 G238:G240 G242:G244 G236:H236 G246:H246 H238 H240 H242 H244 G247:G248 H247 I230:I233 H249:H251 H253 A230:F233 A250:G253 A251:C284 J47:Q170 G266:H266 G276:H276 G254:H254 G257:G258 G267:G268 G277:G278 H257 H267 H259:H261 H280:H281 H263:H264 H273:H274 H283:H284 G260:G264 G270:G274 G280:G284 G256:Q256 I245:I255 K219:Q219 K221 K223 K225 K227 K229 K231 K233 K236 K238 K240 K242 K246 K248 K250 K252 K254 A285:Q369 K266 K276 K258 K268 K278 K260 K270 K280 K262 K272 K282 K264 K274 K284 I257:J258 I259:I284 A235:F249 I235:I243 K244 A171:Q217 L245:Q255 L220:Q228 L230:Q233 A254:F284 H269:H271 L257:Q284">
+    <cfRule type="containsBlanks" dxfId="17" priority="240">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D29 F18:F29">
-    <cfRule type="expression" dxfId="97" priority="201">
+    <cfRule type="expression" dxfId="183" priority="290">
       <formula>COUNTIFS($A:$A,$A18,$B:$B,#REF!,$C:$C,$B18,$D:$D,$D18,$E:$E,$E18,$F:$F,$F18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F10 A12:B12 D12:F12 E13:F13 D14:F16 D17 F17 E17:E29 D39">
-    <cfRule type="expression" dxfId="96" priority="221">
+    <cfRule type="expression" dxfId="182" priority="310">
       <formula>COUNTIFS($A:$A,$A2,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B29 D13:G13 K13:Q13 I6:I43 D2:Q12 J12:J43 P31:P37 D14:Q29">
-    <cfRule type="containsBlanks" dxfId="95" priority="164">
+    <cfRule type="containsBlanks" dxfId="181" priority="253">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="94" priority="234">
+    <cfRule type="expression" dxfId="180" priority="323">
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 D56:H57 A79:I79 G47:I50 G45:R46 A45:F48 D49:F50 A171:R766 A58:H78 A80:H102 A2:R44 A145:H170 J79:R170 I80:I170 I47:R78">
-    <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="itv">
+  <conditionalFormatting sqref="D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 D56:H57 A79:I79 G47:I50 G45:R46 A45:F48 D49:F50 A58:H78 A80:H102 A2:R44 A145:H170 I80:I170 I47:R78 A219:I219 A220:F228 I220:I228 G220:G221 G223:G225 G227:G229 G231:G233 H221 H223 H225 H227 H229 H231 H233 G238:G240 G242:G244 G236:H236 G246:H246 H238 H240 H242 H244 G247:G248 H247 I230:I233 H249:H251 H253 A230:F233 A250:G253 A251:C284 J79:R170 G266:H266 G276:H276 G254:H254 G257:G258 G267:G268 G277:G278 H257 H267 H259:H261 H280:H281 H263:H264 H273:H274 H283:H284 G260:G264 G270:G274 G280:G284 G256:R256 I245:I255 K219:R219 K221 K223 K225 K227 K229 K231 K233 K236 K238 K240 K242 K246 K248 K250 K252 K254 A285:R765 K266 K276 K258 K268 K278 K260 K270 K280 K262 K272 K282 K264 K274 K284 I257:J258 I259:I284 A235:F249 I235:I243 K244 R235:R244 A171:R217 L245:R255 L220:R228 L230:R233 A254:F284 H269:H271 L257:R284">
+    <cfRule type="containsText" dxfId="16" priority="239" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="containsBlanks" dxfId="92" priority="149">
+    <cfRule type="containsBlanks" dxfId="179" priority="238">
       <formula>LEN(TRIM(B45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52 A51:C78 B79 B145">
-    <cfRule type="expression" dxfId="91" priority="243">
+    <cfRule type="expression" dxfId="178" priority="332">
       <formula>COUNTIFS($A:$A,$A51,$B:$B,$B51,$C:$C,$C51,$D:$D,#REF!,$E:$E,$E51,$F:$F,$F51)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47 E52:F52">
-    <cfRule type="expression" dxfId="90" priority="252">
+    <cfRule type="expression" dxfId="177" priority="341">
       <formula>COUNTIFS($A:$A,$A47,$B:$B,$B47,$C:$C,$C47,$D:$D,$D51,$E:$E,$E47,$F:$F,$F47)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="89" priority="296">
+    <cfRule type="expression" dxfId="176" priority="385">
       <formula>COUNTIFS($A:$A,$A47,$B:$B,$B47,$C:$C,$C47,$D:$D,$D51,$E:$E,$E47,$F:$F,$F47)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F49">
-    <cfRule type="expression" dxfId="88" priority="323">
+    <cfRule type="expression" dxfId="175" priority="412">
       <formula>COUNTIFS($A:$A,$A48,$B:$B,$B48,$C:$C,$C48,$D:$D,$D53,$E:$E,$E48,$F:$F,$F48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="expression" dxfId="87" priority="324">
+    <cfRule type="expression" dxfId="174" priority="413">
       <formula>COUNTIFS($A:$A,$A51,$B:$B,$B51,$C:$C,$C51,$D:$D,$D54,$E:$E,$E51,$F:$F,$F51)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D55">
-    <cfRule type="expression" dxfId="86" priority="326">
+    <cfRule type="expression" dxfId="173" priority="415">
       <formula>COUNTIFS($A:$A,$A48,$B:$B,$B48,$C:$C,$C48,$D:$D,$D53,$E:$E,$E48,$F:$F,$F48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:F50">
-    <cfRule type="expression" dxfId="85" priority="354">
+    <cfRule type="expression" dxfId="172" priority="443">
       <formula>COUNTIFS($A:$A,$A50,$B:$B,$B50,$C:$C,$C50,$D:$D,$D56,$E:$E,$E50,$F:$F,$F50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="84" priority="358">
+    <cfRule type="expression" dxfId="171" priority="447">
       <formula>COUNTIFS($A:$A,$A50,$B:$B,$B50,$C:$C,$C50,$D:$D,$D56,$E:$E,$E50,$F:$F,$F50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79 C79:G79 G82 G85 G88 G90 G93 G96 G99:G100 A145 C145">
-    <cfRule type="expression" dxfId="83" priority="367">
+    <cfRule type="expression" dxfId="170" priority="456">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A79,$C:$C,$C79,$D:$D,$D79,$E:$E,$E79,$F:$F,$F79)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J170">
-    <cfRule type="expression" dxfId="82" priority="433">
+  <conditionalFormatting sqref="J79:J170 J256:J258">
+    <cfRule type="expression" dxfId="169" priority="522">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A79,$C:$C,$B79,$D:$D,$D79,$E:$E,$E79,$F:$F,$F79)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100 D100:F103 E112:F112 E114:F114 E117:F117 E122:F122 E119:F119 E124:F124 E126:F126 E131:F131 E128:F128 E133:F133 E135:F135 E139:F139 E137:F137 E141:F141 E143:F143">
-    <cfRule type="expression" dxfId="81" priority="449">
+    <cfRule type="expression" dxfId="168" priority="538">
       <formula>COUNTIFS($A:$A,$A100,$B:$B,#REF!,$C:$C,$B100,$D:$D,$D100,$E:$E,$E100,$F:$F,$F100)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105:G125 G128:G134 G157:G159 G137:G144 G147:G154 G161:G170">
-    <cfRule type="expression" dxfId="80" priority="501">
+    <cfRule type="expression" dxfId="167" priority="590">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A103,$C:$C,$C103,$D:$D,$D103,$E:$E,$E103,$F:$F,$F103)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:F106 E107:F109 E113:F113 E118:F118 E123:F123 E126:F133">
-    <cfRule type="expression" dxfId="79" priority="515">
+    <cfRule type="expression" dxfId="166" priority="604">
       <formula>COUNTIFS($A:$A,$A105,$B:$B,$B105,$C:$C,$C105,$D:$D,$D104,$E:$E,$E104,$F:$F,$F104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:C106">
-    <cfRule type="expression" dxfId="78" priority="516">
+    <cfRule type="expression" dxfId="165" priority="605">
       <formula>COUNTIFS($A:$A,$A105,$B:$B,$B105,$C:$C,$C105,$D:$D,$D104,$E:$E,$E104,$F:$F,$F104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:C104">
-    <cfRule type="expression" dxfId="77" priority="517">
+    <cfRule type="expression" dxfId="164" priority="606">
       <formula>COUNTIFS($A:$A,$A104,$B:$B,$B104,$C:$C,$C104,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:F104 E105:F109 E113:F113 E118:F118 E123:F123 E126:F133">
-    <cfRule type="expression" dxfId="76" priority="565">
+    <cfRule type="expression" dxfId="163" priority="654">
       <formula>COUNTIFS($A:$A,$A105,$B:$B,#REF!,$C:$C,$B105,$D:$D,$D104,$E:$E,$E104,$F:$F,$F104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:F111">
-    <cfRule type="expression" dxfId="75" priority="642">
+    <cfRule type="expression" dxfId="162" priority="731">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,$B112,$C:$C,$C112,$D:$D,$D110,$E:$E,$E110,$F:$F,$F110)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:F111">
-    <cfRule type="expression" dxfId="74" priority="644">
+    <cfRule type="expression" dxfId="161" priority="733">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,#REF!,$C:$C,$B112,$D:$D,$D110,$E:$E,$E110,$F:$F,$F110)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:F153 E115:F116 E120:F121 E125:F125 E129:F130 E134:F134 E136:F136 E140:F140 E138:F138 E142:F142 E144:F144">
-    <cfRule type="expression" dxfId="73" priority="648">
+    <cfRule type="expression" dxfId="160" priority="737">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D115,$E:$E,$E115,$F:$F,$F115)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136:F136 E138:F138">
-    <cfRule type="expression" dxfId="72" priority="780">
+    <cfRule type="expression" dxfId="159" priority="869">
       <formula>COUNTIFS($A:$A,$A139,$B:$B,$B139,$C:$C,$C139,$D:$D,$D136,$E:$E,$E136,$F:$F,$F136)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136:F136 E138:F138">
-    <cfRule type="expression" dxfId="71" priority="781">
+    <cfRule type="expression" dxfId="158" priority="870">
       <formula>COUNTIFS($A:$A,$A139,$B:$B,#REF!,$C:$C,$B139,$D:$D,$D136,$E:$E,$E136,$F:$F,$F136)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:F138">
-    <cfRule type="containsBlanks" dxfId="70" priority="73">
+    <cfRule type="containsBlanks" dxfId="157" priority="162">
       <formula>LEN(TRIM(A137))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:F138">
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="156" priority="161" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135 G126">
-    <cfRule type="expression" dxfId="68" priority="860">
+    <cfRule type="expression" dxfId="155" priority="949">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A125,$C:$C,$C125,$D:$D,$D125,$E:$E,$E125,$F:$F,$F125)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136 G127">
-    <cfRule type="expression" dxfId="67" priority="862">
+    <cfRule type="expression" dxfId="154" priority="951">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:C153">
-    <cfRule type="expression" dxfId="66" priority="877">
+    <cfRule type="expression" dxfId="153" priority="966">
       <formula>COUNTIFS($A:$A,$A153,$B:$B,$B153,$C:$C,$C153,$D:$D,$D154,$E:$E,$E154,$F:$F,$F154)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154:F154">
-    <cfRule type="expression" dxfId="65" priority="878">
+    <cfRule type="expression" dxfId="152" priority="967">
       <formula>COUNTIFS($A:$A,$A153,$B:$B,$B153,$C:$C,$C153,$D:$D,$D154,$E:$E,$E154,$F:$F,$F154)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G156">
-    <cfRule type="expression" dxfId="64" priority="943">
+    <cfRule type="expression" dxfId="151" priority="1032">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A153,$C:$C,$C153,$D:$D,$D154,$E:$E,$E154,$F:$F,$F154)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G155">
-    <cfRule type="expression" dxfId="63" priority="944">
+    <cfRule type="expression" dxfId="150" priority="1033">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D153,$E:$E,$E153,$F:$F,$F153)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158 F158:F170">
-    <cfRule type="expression" dxfId="62" priority="960">
+    <cfRule type="expression" dxfId="149" priority="1049">
       <formula>COUNTIFS($A:$A,$A158,$B:$B,$B158,$C:$C,$C158,$D:$D,$D158,$E:$E,$F158,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160">
-    <cfRule type="expression" dxfId="61" priority="1032">
+    <cfRule type="expression" dxfId="148" priority="1121">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A158,$C:$C,$C158,$D:$D,$D158,$E:$E,$F158,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:C162">
-    <cfRule type="expression" dxfId="60" priority="59">
+    <cfRule type="expression" dxfId="147" priority="148">
       <formula>COUNTIFS($A:$A,$A162,$B:$B,$B162,$C:$C,$C162,$D:$D,$D162,$E:$E,$F162,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsBlanks" dxfId="59" priority="57">
+    <cfRule type="containsBlanks" dxfId="146" priority="146">
       <formula>LEN(TRIM(J44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45 I47 I49 I51 I53 I55:I56 I58 I68 I60 I70 I62 I72 I64 I74 I66 I76:I77">
-    <cfRule type="containsBlanks" dxfId="58" priority="56">
+    <cfRule type="containsBlanks" dxfId="145" priority="145">
       <formula>LEN(TRIM(I45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46 I48 I50 I52 I54 I57 I67 I78 I59 I69 I61 I71 I63 I73 I65 I75">
-    <cfRule type="containsBlanks" dxfId="57" priority="55">
+    <cfRule type="containsBlanks" dxfId="144" priority="144">
       <formula>LEN(TRIM(I46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81 J84 J87 J90 J93 J96 J99 J101 J104 J107 J110 J113 J116 J119 J122 J125 J128 J131 J134 J137 J140 J143 J145 J148 J151 J154 J157 J160 J163 J166 J169">
-    <cfRule type="containsBlanks" dxfId="56" priority="53">
+    <cfRule type="containsBlanks" dxfId="143" priority="142">
       <formula>LEN(TRIM(J81))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79 J82 J85 J88 J91 J94 J97 J100 J105 J108 J111 J114 J117 J120 J123 J126 J129 J132 J135 J138 J141 J144 J146 J149 J152 J155 J158 J161 J164 J167 J170">
-    <cfRule type="containsBlanks" dxfId="55" priority="52">
+  <conditionalFormatting sqref="J79 J82 J85 J88 J91 J100 J105 J108 J111 J114 J117 J120 J123 J126 J129 J132 J135 J138 J141 J144 J146 J149 J152 J155 J158 J161 J164 J167 J170 J94:J98 J256">
+    <cfRule type="containsBlanks" dxfId="142" priority="141">
       <formula>LEN(TRIM(J79))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J83 J86 J89 J92 J95 J98 J102:J103 J106 J109 J112 J115 J118 J121 J124 J127 J130 J133 J136 J139 J142 J147 J150 J153 J156 J159 J162 J165 J168">
-    <cfRule type="containsBlanks" dxfId="54" priority="51">
+    <cfRule type="containsBlanks" dxfId="141" priority="140">
       <formula>LEN(TRIM(J80))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42">
-    <cfRule type="containsBlanks" dxfId="53" priority="50">
+    <cfRule type="containsBlanks" dxfId="140" priority="139">
       <formula>LEN(TRIM(P42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43">
-    <cfRule type="containsBlanks" dxfId="52" priority="49">
+    <cfRule type="containsBlanks" dxfId="139" priority="138">
       <formula>LEN(TRIM(P43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P82">
-    <cfRule type="containsBlanks" dxfId="51" priority="48">
+    <cfRule type="containsBlanks" dxfId="138" priority="137">
       <formula>LEN(TRIM(P82))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83">
-    <cfRule type="containsBlanks" dxfId="50" priority="47">
+    <cfRule type="containsBlanks" dxfId="137" priority="136">
       <formula>LEN(TRIM(P83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84">
-    <cfRule type="containsBlanks" dxfId="49" priority="46">
+    <cfRule type="containsBlanks" dxfId="136" priority="135">
       <formula>LEN(TRIM(P84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85">
-    <cfRule type="containsBlanks" dxfId="48" priority="45">
+    <cfRule type="containsBlanks" dxfId="135" priority="134">
       <formula>LEN(TRIM(P85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="containsBlanks" dxfId="47" priority="44">
+    <cfRule type="containsBlanks" dxfId="134" priority="133">
       <formula>LEN(TRIM(P45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="containsBlanks" dxfId="46" priority="43">
+    <cfRule type="containsBlanks" dxfId="133" priority="132">
       <formula>LEN(TRIM(P46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="containsBlanks" dxfId="45" priority="42">
+    <cfRule type="containsBlanks" dxfId="132" priority="131">
       <formula>LEN(TRIM(P47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="containsBlanks" dxfId="44" priority="41">
+    <cfRule type="containsBlanks" dxfId="131" priority="130">
       <formula>LEN(TRIM(P57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56">
-    <cfRule type="containsBlanks" dxfId="43" priority="40">
+    <cfRule type="containsBlanks" dxfId="130" priority="129">
       <formula>LEN(TRIM(P56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="containsBlanks" dxfId="42" priority="39">
+    <cfRule type="containsBlanks" dxfId="129" priority="128">
       <formula>LEN(TRIM(P55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="containsBlanks" dxfId="41" priority="38">
+    <cfRule type="containsBlanks" dxfId="128" priority="127">
       <formula>LEN(TRIM(P54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="containsBlanks" dxfId="40" priority="37">
+    <cfRule type="containsBlanks" dxfId="127" priority="126">
       <formula>LEN(TRIM(P53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsBlanks" dxfId="39" priority="36">
+    <cfRule type="containsBlanks" dxfId="126" priority="125">
       <formula>LEN(TRIM(P52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="containsBlanks" dxfId="38" priority="35">
+    <cfRule type="containsBlanks" dxfId="125" priority="124">
       <formula>LEN(TRIM(P51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="containsBlanks" dxfId="37" priority="34">
+    <cfRule type="containsBlanks" dxfId="124" priority="123">
       <formula>LEN(TRIM(P50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsBlanks" dxfId="36" priority="33">
+    <cfRule type="containsBlanks" dxfId="123" priority="122">
       <formula>LEN(TRIM(P49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48">
-    <cfRule type="containsBlanks" dxfId="35" priority="32">
+    <cfRule type="containsBlanks" dxfId="122" priority="121">
       <formula>LEN(TRIM(P48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P107">
-    <cfRule type="containsBlanks" dxfId="34" priority="31">
+    <cfRule type="containsBlanks" dxfId="121" priority="120">
       <formula>LEN(TRIM(P107))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P116">
-    <cfRule type="containsBlanks" dxfId="33" priority="30">
+    <cfRule type="containsBlanks" dxfId="120" priority="119">
       <formula>LEN(TRIM(P116))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115">
-    <cfRule type="containsBlanks" dxfId="32" priority="29">
+    <cfRule type="containsBlanks" dxfId="119" priority="118">
       <formula>LEN(TRIM(P115))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P114">
-    <cfRule type="containsBlanks" dxfId="31" priority="28">
+    <cfRule type="containsBlanks" dxfId="118" priority="117">
       <formula>LEN(TRIM(P114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113">
-    <cfRule type="containsBlanks" dxfId="30" priority="27">
+    <cfRule type="containsBlanks" dxfId="117" priority="116">
       <formula>LEN(TRIM(P113))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P112">
-    <cfRule type="containsBlanks" dxfId="29" priority="26">
+    <cfRule type="containsBlanks" dxfId="116" priority="115">
       <formula>LEN(TRIM(P112))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P111">
-    <cfRule type="containsBlanks" dxfId="28" priority="25">
+    <cfRule type="containsBlanks" dxfId="115" priority="114">
       <formula>LEN(TRIM(P111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsBlanks" dxfId="27" priority="24">
+    <cfRule type="containsBlanks" dxfId="114" priority="113">
       <formula>LEN(TRIM(P110))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P109">
-    <cfRule type="containsBlanks" dxfId="26" priority="23">
+    <cfRule type="containsBlanks" dxfId="113" priority="112">
       <formula>LEN(TRIM(P109))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P108">
-    <cfRule type="containsBlanks" dxfId="25" priority="22">
+    <cfRule type="containsBlanks" dxfId="112" priority="111">
       <formula>LEN(TRIM(P108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P90">
-    <cfRule type="containsBlanks" dxfId="24" priority="21">
+    <cfRule type="containsBlanks" dxfId="111" priority="110">
       <formula>LEN(TRIM(P90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91">
-    <cfRule type="containsBlanks" dxfId="23" priority="20">
+    <cfRule type="containsBlanks" dxfId="110" priority="109">
       <formula>LEN(TRIM(P91))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P92">
-    <cfRule type="containsBlanks" dxfId="22" priority="19">
+  <conditionalFormatting sqref="P92:P98 P256">
+    <cfRule type="containsBlanks" dxfId="109" priority="108">
       <formula>LEN(TRIM(P92))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93">
-    <cfRule type="containsBlanks" dxfId="21" priority="18">
+    <cfRule type="containsBlanks" dxfId="108" priority="107">
       <formula>LEN(TRIM(P93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="containsBlanks" dxfId="20" priority="17">
+    <cfRule type="containsBlanks" dxfId="107" priority="106">
       <formula>LEN(TRIM(P31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P146">
-    <cfRule type="containsBlanks" dxfId="19" priority="16">
+    <cfRule type="containsBlanks" dxfId="106" priority="105">
       <formula>LEN(TRIM(P146))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P147">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
+    <cfRule type="containsBlanks" dxfId="105" priority="104">
       <formula>LEN(TRIM(P147))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P148">
-    <cfRule type="containsBlanks" dxfId="17" priority="14">
+    <cfRule type="containsBlanks" dxfId="104" priority="103">
       <formula>LEN(TRIM(P148))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P149">
-    <cfRule type="containsBlanks" dxfId="16" priority="13">
+    <cfRule type="containsBlanks" dxfId="103" priority="102">
       <formula>LEN(TRIM(P149))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="containsBlanks" dxfId="15" priority="12">
+    <cfRule type="containsBlanks" dxfId="102" priority="101">
       <formula>LEN(TRIM(P39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P162">
-    <cfRule type="containsBlanks" dxfId="14" priority="11">
+    <cfRule type="containsBlanks" dxfId="101" priority="100">
       <formula>LEN(TRIM(P162))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
+    <cfRule type="containsBlanks" dxfId="100" priority="99">
       <formula>LEN(TRIM(P163))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P164">
-    <cfRule type="containsBlanks" dxfId="12" priority="9">
+    <cfRule type="containsBlanks" dxfId="99" priority="98">
       <formula>LEN(TRIM(P164))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P165">
-    <cfRule type="containsBlanks" dxfId="11" priority="8">
+    <cfRule type="containsBlanks" dxfId="98" priority="97">
       <formula>LEN(TRIM(P165))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsBlanks" dxfId="10" priority="6">
+    <cfRule type="containsBlanks" dxfId="97" priority="95">
       <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="containsBlanks" dxfId="9" priority="5">
+    <cfRule type="containsBlanks" dxfId="96" priority="94">
       <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P158">
-    <cfRule type="containsBlanks" dxfId="8" priority="4">
+    <cfRule type="containsBlanks" dxfId="95" priority="93">
       <formula>LEN(TRIM(P158))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P159">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="94" priority="92">
       <formula>LEN(TRIM(P159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P160">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="93" priority="91">
       <formula>LEN(TRIM(P160))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P161">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="92" priority="90">
       <formula>LEN(TRIM(P161))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208:E217">
-    <cfRule type="expression" dxfId="4" priority="1052">
+    <cfRule type="expression" dxfId="91" priority="1141">
       <formula>COUNTIFS($A:$A,$A205,$B:$B,$B205,$C:$C,$C205,$D:$D,$D205,$E:$E,$E208,$F:$F,$F205)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F213">
-    <cfRule type="expression" dxfId="3" priority="1053">
+    <cfRule type="expression" dxfId="90" priority="1142">
       <formula>COUNTIFS($A:$A,$A208,$B:$B,$B208,$C:$C,$C208,$D:$D,$D208,$E:$E,$E211,$F:$F,$F208)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A211:D213 F211:F213">
-    <cfRule type="expression" dxfId="2" priority="1055">
+    <cfRule type="expression" dxfId="89" priority="1144">
       <formula>COUNTIFS($A:$A,$A211,$B:$B,$B211,$C:$C,$C211,$D:$D,$D211,$E:$E,#REF!,$F:$F,$F211)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G145 G101:G102">
-    <cfRule type="expression" dxfId="1" priority="1154">
+    <cfRule type="expression" dxfId="88" priority="1243">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A100,$C:$C,$C100,$D:$D,$D100,$E:$E,$E100,$F:$F,$F100)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146 G103:G104">
-    <cfRule type="expression" dxfId="0" priority="1156">
+    <cfRule type="expression" dxfId="87" priority="1245">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:Q218 H220 G222:H222 H224 G226:H226 H228 G230:H230 H232 G235:H235 G237:H237 H239 G241:H241 H243 G245:H245 G249 H248 H252 G255:H255 G265:H265 G275:H275 G259 G269 G279 H258 H268 H262 H282 J220:K220 J222:K222 J224:K224 J226:K226 J228:K228 J230:K230 J232:K232 J235:K235 J237:K237 J239:K239 J241:K241 J243:K243 J245:K245 J247:K247 J249:K249 J251:K251 J253:K253 J255:K255 K257 K267 K277 K259 K269 K279 K261 K271 K281 K263 K273 K283 K265 K275">
+    <cfRule type="containsBlanks" dxfId="86" priority="88">
+      <formula>LEN(TRIM(A218))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:R218 H220 G222:H222 H224 G226:H226 H228 G230:H230 H232 G235:H235 G237:H237 H239 G241:H241 H243 G245:H245 G249 H248 H252 G255:H255 G265:H265 G275:H275 G259 G269 G279 H258 H268 H262 H282 J220:K220 J222:K222 J224:K224 J226:K226 J228:K228 J230:K230 J232:K232 J235:K235 J237:K237 J239:K239 J241:K241 J243:K243 J245:K245 J247:K247 J249:K249 J251:K251 J253:K253 J255:K255 K257 K267 K277 K259 K269 K279 K261 K271 K281 K263 K273 K283 K265 K275">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A218)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J219 J221 J223 J225 J227 J229 J231 J233 J236 J238 J240 J242 J244 J246 J248 J250 J252 J254">
+    <cfRule type="containsBlanks" dxfId="84" priority="86">
+      <formula>LEN(TRIM(J219))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J219 J221 J223 J225 J227 J229 J231 J233 J236 J238 J240 J242 J244 J246 J248 J250 J252 J254">
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229:F229 I229 C245:D245 I244 A250 B246:B247 C248 C251 C256 C262 C268 C274 C280 A261 A267 A273 A279 B252:B253 B257:B258 B263:B264 B269:B270 B275:B276 B281:B282 C254 C259 C265 C271 C277 C283">
+    <cfRule type="containsBlanks" dxfId="82" priority="83">
+      <formula>LEN(TRIM(A229))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229:F229 I229 C245:D245 I244 A250 B246:B247 C248 C251 C256 C262 C268 C274 C280 A261 A267 A273 A279 B252:B253 B257:B258 B263:B264 B269:B270 B275:B276 B281:B282 C254 C259 C265 C271 C277 C283 R229">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P95">
+    <cfRule type="containsBlanks" dxfId="80" priority="81">
+      <formula>LEN(TRIM(P95))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P94:P98 P256">
+    <cfRule type="containsBlanks" dxfId="79" priority="80">
+      <formula>LEN(TRIM(P94))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J257">
+    <cfRule type="containsBlanks" dxfId="78" priority="78">
+      <formula>LEN(TRIM(J257))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J258">
+    <cfRule type="containsBlanks" dxfId="77" priority="76">
+      <formula>LEN(TRIM(J258))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J259 J261 J263:J264 J276 J281 J273:J274 J283:J284 J271">
+    <cfRule type="containsBlanks" dxfId="76" priority="75">
+      <formula>LEN(TRIM(J259))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J259 J261 J263:J264 J276 J281 J273:J274 J283:J284 J271">
+    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J259)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J260 J262 J265 J275 J280 J267 J282 J272 J277">
+    <cfRule type="containsBlanks" dxfId="74" priority="73">
+      <formula>LEN(TRIM(J260))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J260 J262 J265 J275 J280 J267 J282 J272 J277">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J260)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q229">
+    <cfRule type="containsBlanks" dxfId="72" priority="71">
+      <formula>LEN(TRIM(Q229))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q229">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A234:F234">
+    <cfRule type="expression" dxfId="70" priority="69">
+      <formula>COUNTIFS($A:$A,$A234,$B:$B,$B234,$C:$C,$C234,$D:$D,$D234,$E:$E,$E234,$F:$F,$F234)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L234:Q234 A234:F234 I234">
+    <cfRule type="containsBlanks" dxfId="69" priority="68">
+      <formula>LEN(TRIM(A234))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L234:R234 A234:F234 I234">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G234:H234 J234:K234">
+    <cfRule type="containsBlanks" dxfId="67" priority="66">
+      <formula>LEN(TRIM(G234))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G234:H234 J234:K234">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",G234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q244">
+    <cfRule type="containsBlanks" dxfId="65" priority="64">
+      <formula>LEN(TRIM(Q244))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q244">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q243">
+    <cfRule type="containsBlanks" dxfId="63" priority="62">
+      <formula>LEN(TRIM(Q243))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q243">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q243)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q242">
+    <cfRule type="containsBlanks" dxfId="61" priority="60">
+      <formula>LEN(TRIM(Q242))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q242">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q242)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q241">
+    <cfRule type="containsBlanks" dxfId="59" priority="58">
+      <formula>LEN(TRIM(Q241))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q241">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q240">
+    <cfRule type="containsBlanks" dxfId="57" priority="56">
+      <formula>LEN(TRIM(Q240))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q240">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q240)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q239">
+    <cfRule type="containsBlanks" dxfId="55" priority="54">
+      <formula>LEN(TRIM(Q239))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q239">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q238">
+    <cfRule type="containsBlanks" dxfId="53" priority="52">
+      <formula>LEN(TRIM(Q238))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q238">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q238)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q237">
+    <cfRule type="containsBlanks" dxfId="51" priority="50">
+      <formula>LEN(TRIM(Q237))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q237">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="containsBlanks" dxfId="49" priority="48">
+      <formula>LEN(TRIM(Q236))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q235">
+    <cfRule type="containsBlanks" dxfId="47" priority="46">
+      <formula>LEN(TRIM(Q235))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q235">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L229:O229">
+    <cfRule type="containsBlanks" dxfId="45" priority="44">
+      <formula>LEN(TRIM(L229))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L229:O229">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L235:P235">
+    <cfRule type="containsBlanks" dxfId="43" priority="42">
+      <formula>LEN(TRIM(L235))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L235:P235">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L236:P236 L242:P242">
+    <cfRule type="containsBlanks" dxfId="41" priority="40">
+      <formula>LEN(TRIM(L236))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L236:P236 L242:P242">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L237:P237 L243:P243">
+    <cfRule type="containsBlanks" dxfId="39" priority="38">
+      <formula>LEN(TRIM(L237))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L237:P237 L243:P243">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L238:P238 L244:P244">
+    <cfRule type="containsBlanks" dxfId="37" priority="36">
+      <formula>LEN(TRIM(L238))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L238:P238 L244:P244">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L238)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L239:P239">
+    <cfRule type="containsBlanks" dxfId="35" priority="34">
+      <formula>LEN(TRIM(L239))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L239:P239">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L240:P240">
+    <cfRule type="containsBlanks" dxfId="33" priority="32">
+      <formula>LEN(TRIM(L240))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L240:P240">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L240)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L241:P241">
+    <cfRule type="containsBlanks" dxfId="31" priority="30">
+      <formula>LEN(TRIM(L241))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L241:P241">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J268">
+    <cfRule type="containsBlanks" dxfId="29" priority="27">
+      <formula>LEN(TRIM(J268))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J268">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J268)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J268">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A268,$C:$C,$B268,$D:$D,$D268,$E:$E,$E268,$F:$F,$F268)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J268">
+    <cfRule type="containsBlanks" dxfId="26" priority="25">
+      <formula>LEN(TRIM(J268))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J266">
+    <cfRule type="containsBlanks" dxfId="25" priority="23">
+      <formula>LEN(TRIM(J266))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J266">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J266)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J266">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A266,$C:$C,$B266,$D:$D,$D266,$E:$E,$E266,$F:$F,$F266)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J266">
+    <cfRule type="containsBlanks" dxfId="22" priority="21">
+      <formula>LEN(TRIM(J266))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J278">
+    <cfRule type="containsBlanks" dxfId="21" priority="20">
+      <formula>LEN(TRIM(J278))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J278">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J278)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H278">
+    <cfRule type="containsBlanks" dxfId="15" priority="16">
+      <formula>LEN(TRIM(H278))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H278">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H278)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H277">
+    <cfRule type="containsBlanks" dxfId="13" priority="14">
+      <formula>LEN(TRIM(H277))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H277">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H277)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H272">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(H272))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H272">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H272)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P229">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(P229))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P229">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",P229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H279">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(H279))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H279">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J279">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(J279))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J279">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J269">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(J269))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J269">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J269)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J270">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(J270))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J270">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/AAR_matrix_2.xlsx
+++ b/Database/AAR_matrix_2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Specifications" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Specifications!$E$1:$E$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Specifications!$E$1:$E$343</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="196">
   <si>
     <t>C-17</t>
   </si>
@@ -903,6 +903,39 @@
   <si>
     <t>ECR</t>
   </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CF-18</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>Chechia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>December 2024</t>
+  </si>
 </sst>
 </file>
 
@@ -1007,7 +1040,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="254">
+  <dxfs count="378">
     <dxf>
       <fill>
         <patternFill>
@@ -1039,6 +1072,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1046,6 +1093,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1074,6 +1142,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1081,6 +1170,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1116,6 +1261,272 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1130,6 +1541,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1137,6 +1590,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1165,6 +1702,384 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1172,6 +2087,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1285,34 +2214,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4462,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R321"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O248" sqref="O248"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J270" sqref="J270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16694,14 +17595,14 @@
       <c r="G234">
         <v>3</v>
       </c>
-      <c r="H234" t="s">
-        <v>35</v>
+      <c r="H234">
+        <v>2</v>
       </c>
       <c r="I234" s="5" t="s">
         <v>121</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="K234" s="4" t="s">
         <v>60</v>
@@ -16830,7 +17731,7 @@
         <v>0.77</v>
       </c>
       <c r="Q236">
-        <f>2.2046*1200</f>
+        <f t="shared" ref="Q236:Q241" si="8">2.2046*1200</f>
         <v>2645.52</v>
       </c>
     </row>
@@ -16884,7 +17785,7 @@
         <v>0.77</v>
       </c>
       <c r="Q237">
-        <f>2.2046*1200</f>
+        <f t="shared" si="8"/>
         <v>2645.52</v>
       </c>
     </row>
@@ -16938,7 +17839,7 @@
         <v>0.83</v>
       </c>
       <c r="Q238">
-        <f>2.2046*1200</f>
+        <f t="shared" si="8"/>
         <v>2645.52</v>
       </c>
     </row>
@@ -16992,7 +17893,7 @@
         <v>0.83</v>
       </c>
       <c r="Q239">
-        <f>2.2046*1200</f>
+        <f t="shared" si="8"/>
         <v>2645.52</v>
       </c>
     </row>
@@ -17046,7 +17947,7 @@
         <v>0.83</v>
       </c>
       <c r="Q240">
-        <f>2.2046*1200</f>
+        <f t="shared" si="8"/>
         <v>2645.52</v>
       </c>
     </row>
@@ -17100,7 +18001,7 @@
         <v>0.83</v>
       </c>
       <c r="Q241">
-        <f>2.2046*1200</f>
+        <f t="shared" si="8"/>
         <v>2645.52</v>
       </c>
     </row>
@@ -17114,17 +18015,48 @@
       <c r="C242" t="s">
         <v>94</v>
       </c>
+      <c r="D242" t="s">
+        <v>1</v>
+      </c>
       <c r="E242" t="s">
         <v>32</v>
       </c>
       <c r="F242" t="s">
         <v>39</v>
       </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
       <c r="I242" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J242" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="K242" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L242">
+        <v>150</v>
+      </c>
+      <c r="M242">
+        <v>350</v>
+      </c>
+      <c r="N242">
+        <v>260</v>
+      </c>
+      <c r="O242">
+        <v>300</v>
+      </c>
+      <c r="P242">
+        <v>0.8</v>
+      </c>
+      <c r="Q242">
+        <f>2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -17137,17 +18069,48 @@
       <c r="C243" t="s">
         <v>94</v>
       </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
       <c r="E243" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F243" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
       </c>
       <c r="I243" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J243" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="K243" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L243">
+        <v>150</v>
+      </c>
+      <c r="M243">
+        <v>350</v>
+      </c>
+      <c r="N243">
+        <v>260</v>
+      </c>
+      <c r="O243">
+        <v>300</v>
+      </c>
+      <c r="P243">
+        <v>0.8</v>
+      </c>
+      <c r="Q243">
+        <f>2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -17160,17 +18123,48 @@
       <c r="C244" t="s">
         <v>94</v>
       </c>
+      <c r="D244" t="s">
+        <v>66</v>
+      </c>
       <c r="E244" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
       </c>
       <c r="I244" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J244" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K244" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L244">
+        <v>150</v>
+      </c>
+      <c r="M244">
+        <v>350</v>
+      </c>
+      <c r="N244">
+        <v>260</v>
+      </c>
+      <c r="O244">
+        <v>300</v>
+      </c>
+      <c r="P244">
+        <v>0.8</v>
+      </c>
+      <c r="Q244">
+        <f>2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="245" spans="1:17">
@@ -17183,17 +18177,48 @@
       <c r="C245" t="s">
         <v>94</v>
       </c>
+      <c r="D245" t="s">
+        <v>66</v>
+      </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="F245" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
       </c>
       <c r="I245" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J245" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K245" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L245">
+        <v>150</v>
+      </c>
+      <c r="M245">
+        <v>350</v>
+      </c>
+      <c r="N245">
+        <v>260</v>
+      </c>
+      <c r="O245">
+        <v>300</v>
+      </c>
+      <c r="P245">
+        <v>0.8</v>
+      </c>
+      <c r="Q245">
+        <f>2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="246" spans="1:17">
@@ -17206,17 +18231,48 @@
       <c r="C246" t="s">
         <v>94</v>
       </c>
+      <c r="D246" t="s">
+        <v>1</v>
+      </c>
       <c r="E246" t="s">
         <v>32</v>
       </c>
       <c r="F246" t="s">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
       </c>
       <c r="I246" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J246" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="K246" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L246">
+        <v>150</v>
+      </c>
+      <c r="M246">
+        <v>350</v>
+      </c>
+      <c r="N246">
+        <v>260</v>
+      </c>
+      <c r="O246">
+        <v>300</v>
+      </c>
+      <c r="P246">
+        <v>0.8</v>
+      </c>
+      <c r="Q246">
+        <f>2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="247" spans="1:17">
@@ -17229,17 +18285,48 @@
       <c r="C247" t="s">
         <v>94</v>
       </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
       <c r="E247" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F247" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247">
+        <v>3</v>
       </c>
       <c r="I247" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J247" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="K247" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L247">
+        <v>150</v>
+      </c>
+      <c r="M247">
+        <v>350</v>
+      </c>
+      <c r="N247">
+        <v>260</v>
+      </c>
+      <c r="O247">
+        <v>300</v>
+      </c>
+      <c r="P247">
+        <v>0.8</v>
+      </c>
+      <c r="Q247">
+        <f t="shared" ref="Q247:Q258" si="9">2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -17252,17 +18339,48 @@
       <c r="C248" t="s">
         <v>94</v>
       </c>
+      <c r="D248" t="s">
+        <v>1</v>
+      </c>
       <c r="E248" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
       </c>
       <c r="I248" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J248" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="K248" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L248">
+        <v>150</v>
+      </c>
+      <c r="M248">
+        <v>350</v>
+      </c>
+      <c r="N248">
+        <v>260</v>
+      </c>
+      <c r="O248">
+        <v>300</v>
+      </c>
+      <c r="P248">
+        <v>0.8</v>
+      </c>
+      <c r="Q248">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -17275,14 +18393,48 @@
       <c r="C249" t="s">
         <v>94</v>
       </c>
+      <c r="D249" t="s">
+        <v>185</v>
+      </c>
       <c r="E249" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="F249" t="s">
+        <v>41</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
       </c>
       <c r="I249" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J249" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K249" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L249">
+        <v>150</v>
+      </c>
+      <c r="M249">
+        <v>350</v>
+      </c>
+      <c r="N249">
+        <v>260</v>
+      </c>
+      <c r="O249">
+        <v>300</v>
+      </c>
+      <c r="P249">
+        <v>0.8</v>
+      </c>
+      <c r="Q249">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="250" spans="1:17">
@@ -17295,14 +18447,48 @@
       <c r="C250" t="s">
         <v>94</v>
       </c>
+      <c r="D250" t="s">
+        <v>68</v>
+      </c>
       <c r="E250" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="F250" t="s">
+        <v>41</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
       </c>
       <c r="I250" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J250" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K250" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L250">
+        <v>150</v>
+      </c>
+      <c r="M250">
+        <v>350</v>
+      </c>
+      <c r="N250">
+        <v>260</v>
+      </c>
+      <c r="O250">
+        <v>300</v>
+      </c>
+      <c r="P250">
+        <v>0.8</v>
+      </c>
+      <c r="Q250">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -17315,17 +18501,48 @@
       <c r="C251" t="s">
         <v>94</v>
       </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
       <c r="E251" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="F251" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="H251">
+        <v>3</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J251" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="K251" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L251">
+        <v>150</v>
+      </c>
+      <c r="M251">
+        <v>350</v>
+      </c>
+      <c r="N251">
+        <v>260</v>
+      </c>
+      <c r="O251">
+        <v>300</v>
+      </c>
+      <c r="P251">
+        <v>0.8</v>
+      </c>
+      <c r="Q251">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -17338,17 +18555,48 @@
       <c r="C252" t="s">
         <v>94</v>
       </c>
+      <c r="D252" t="s">
+        <v>185</v>
+      </c>
       <c r="E252" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="F252" t="s">
         <v>23</v>
       </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>3</v>
+      </c>
       <c r="I252" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J252" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K252" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L252">
+        <v>150</v>
+      </c>
+      <c r="M252">
+        <v>350</v>
+      </c>
+      <c r="N252">
+        <v>260</v>
+      </c>
+      <c r="O252">
+        <v>300</v>
+      </c>
+      <c r="P252">
+        <v>0.8</v>
+      </c>
+      <c r="Q252">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -17362,19 +18610,47 @@
         <v>94</v>
       </c>
       <c r="D253" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="E253" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F253" t="s">
-        <v>88</v>
+        <v>23</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
       </c>
       <c r="I253" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J253" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K253" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L253">
+        <v>150</v>
+      </c>
+      <c r="M253">
+        <v>350</v>
+      </c>
+      <c r="N253">
+        <v>260</v>
+      </c>
+      <c r="O253">
+        <v>300</v>
+      </c>
+      <c r="P253">
+        <v>0.8</v>
+      </c>
+      <c r="Q253">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="254" spans="1:17">
@@ -17391,263 +18667,295 @@
         <v>67</v>
       </c>
       <c r="E254" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F254" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+      <c r="H254">
+        <v>3</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="J254" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K254" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="L254">
+        <v>150</v>
+      </c>
+      <c r="M254">
+        <v>350</v>
+      </c>
+      <c r="N254">
+        <v>260</v>
+      </c>
+      <c r="O254">
+        <v>300</v>
+      </c>
+      <c r="P254">
+        <v>0.8</v>
+      </c>
+      <c r="Q254">
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
+      </c>
     </row>
     <row r="255" spans="1:17">
       <c r="A255" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B255" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G255">
         <v>3</v>
       </c>
-      <c r="H255" s="5" t="s">
-        <v>142</v>
+      <c r="H255">
+        <v>3</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J255" s="5" t="s">
         <v>141</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M255">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N255">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O255">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="P255">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="Q255">
-        <v>2400</v>
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="A256" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B256" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D256" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="E256" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G256">
         <v>3</v>
       </c>
-      <c r="H256" s="5" t="s">
-        <v>142</v>
+      <c r="H256">
+        <v>3</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K256" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M256">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N256">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O256">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="P256">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="Q256">
-        <v>2400</v>
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="257" spans="1:17">
       <c r="A257" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B257" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D257" t="s">
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G257">
         <v>3</v>
       </c>
-      <c r="H257" s="5" t="s">
-        <v>142</v>
+      <c r="H257">
+        <v>3</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>141</v>
       </c>
       <c r="K257" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L257">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="M257">
+        <v>350</v>
+      </c>
+      <c r="N257">
+        <v>260</v>
+      </c>
+      <c r="O257">
         <v>300</v>
-      </c>
-      <c r="N257">
-        <v>270</v>
-      </c>
-      <c r="O257">
-        <v>325</v>
       </c>
       <c r="P257">
         <v>0.8</v>
       </c>
       <c r="Q257">
-        <v>7000</v>
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="258" spans="1:17">
       <c r="A258" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B258" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D258" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="E258" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F258" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G258">
         <v>3</v>
       </c>
-      <c r="H258" s="5" t="s">
-        <v>142</v>
+      <c r="H258">
+        <v>3</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L258">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M258">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N258">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O258">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="P258">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="Q258">
-        <v>5200</v>
+        <f t="shared" si="9"/>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="259" spans="1:17">
       <c r="A259" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B259" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F259" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G259">
         <v>3</v>
       </c>
-      <c r="H259" s="5" t="s">
-        <v>142</v>
+      <c r="H259">
+        <v>3</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J259" s="5" t="s">
         <v>141</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L259">
         <v>150</v>
@@ -17656,460 +18964,469 @@
         <v>350</v>
       </c>
       <c r="N259">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O259">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P259">
         <v>0.8</v>
       </c>
       <c r="Q259">
-        <v>6500</v>
+        <f>2.2046*1100</f>
+        <v>2425.06</v>
       </c>
     </row>
     <row r="260" spans="1:17">
       <c r="A260" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B260" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D260" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E260" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="F260" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G260">
-        <v>3</v>
-      </c>
-      <c r="H260" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H260">
+        <v>3</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L260">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="M260">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N260">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O260">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="P260">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="Q260">
-        <v>6800</v>
+        <f>2.2046*1200</f>
+        <v>2645.52</v>
       </c>
     </row>
     <row r="261" spans="1:17">
       <c r="A261" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B261" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D261" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E261" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G261">
-        <v>3</v>
-      </c>
-      <c r="H261" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L261">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M261">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N261">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O261">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="P261">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="Q261">
-        <v>6800</v>
+        <f>2.2046*1200</f>
+        <v>2645.52</v>
       </c>
     </row>
     <row r="262" spans="1:17">
       <c r="A262" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B262" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D262" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E262" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="F262" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G262">
-        <v>3</v>
-      </c>
-      <c r="H262" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L262">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M262">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N262">
         <v>260</v>
       </c>
       <c r="O262">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="P262">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="Q262">
-        <v>6000</v>
+        <f>2.2046*1200</f>
+        <v>2645.52</v>
       </c>
     </row>
     <row r="263" spans="1:17">
       <c r="A263" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B263" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D263" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E263" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="F263" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="G263">
-        <v>3</v>
-      </c>
-      <c r="H263" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H263">
+        <v>3</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L263">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M263">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N263">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O263">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="P263">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="Q263">
-        <v>3800</v>
+        <f>2.2046*1200</f>
+        <v>2645.52</v>
       </c>
     </row>
     <row r="264" spans="1:17">
       <c r="A264" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B264" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D264" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E264" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="F264" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="G264">
-        <v>3</v>
-      </c>
-      <c r="H264" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>3</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L264">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M264">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N264">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O264">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="P264">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="Q264">
-        <v>3800</v>
+        <f>2.2046*1200</f>
+        <v>2645.52</v>
       </c>
     </row>
     <row r="265" spans="1:17">
       <c r="A265" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B265" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D265" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E265" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F265" t="s">
+        <v>22</v>
+      </c>
+      <c r="G265">
+        <v>2</v>
+      </c>
+      <c r="H265">
+        <v>3</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J265" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G265">
-        <v>3</v>
-      </c>
-      <c r="H265" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I265" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J265" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K265" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="L265">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M265">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N265">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O265">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="P265">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="Q265">
-        <v>3800</v>
+        <f>2.2046*1250</f>
+        <v>2755.75</v>
       </c>
     </row>
     <row r="266" spans="1:17">
       <c r="A266" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B266" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D266" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E266" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F266" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="G266">
-        <v>3</v>
-      </c>
-      <c r="H266" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>3</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L266">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M266">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N266">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O266">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="P266">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="Q266">
-        <v>3800</v>
+        <f>2.2046*1250</f>
+        <v>2755.75</v>
       </c>
     </row>
     <row r="267" spans="1:17">
       <c r="A267" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B267" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D267" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E267" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="G267">
-        <v>3</v>
-      </c>
-      <c r="H267" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L267">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M267">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N267">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O267">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="P267">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="Q267">
-        <v>3800</v>
+        <f>2.2046*1250</f>
+        <v>2755.75</v>
       </c>
     </row>
     <row r="268" spans="1:17">
       <c r="A268" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B268" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D268" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="E268" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G268">
         <v>3</v>
@@ -18118,51 +19435,52 @@
         <v>142</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L268">
         <v>50</v>
       </c>
       <c r="M268">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="N268">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O268">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="P268">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="Q268">
-        <v>3800</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="269" spans="1:17">
       <c r="A269" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B269" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D269" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="E269" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -18171,51 +19489,52 @@
         <v>142</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L269">
         <v>50</v>
       </c>
       <c r="M269">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="N269">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O269">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="P269">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="Q269">
-        <v>3800</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="270" spans="1:17">
       <c r="A270" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B270" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D270" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E270" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F270" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G270">
         <v>3</v>
@@ -18224,51 +19543,52 @@
         <v>142</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L270">
         <v>50</v>
       </c>
       <c r="M270">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="N270">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O270">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="P270">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="Q270">
-        <v>3800</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="271" spans="1:17">
       <c r="A271" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B271" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D271" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E271" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="F271" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G271">
         <v>3</v>
@@ -18277,51 +19597,52 @@
         <v>142</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L271">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M271">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N271">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O271">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P271">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="Q271">
-        <v>5000</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="272" spans="1:17">
       <c r="A272" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B272" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D272" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="E272" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="F272" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="G272">
         <v>3</v>
@@ -18330,51 +19651,52 @@
         <v>142</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K272" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L272">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M272">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N272">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O272">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P272">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="Q272">
-        <v>5000</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="273" spans="1:17">
       <c r="A273" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B273" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D273" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="E273" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F273" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G273">
         <v>3</v>
@@ -18383,51 +19705,52 @@
         <v>142</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L273">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M273">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N273">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O273">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P273">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="Q273">
-        <v>5000</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="274" spans="1:17">
       <c r="A274" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B274" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D274" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E274" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F274" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G274">
         <v>3</v>
@@ -18436,51 +19759,52 @@
         <v>142</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L274">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M274">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N274">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O274">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P274">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="Q274">
-        <v>5000</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="275" spans="1:17">
       <c r="A275" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B275" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D275" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E275" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F275" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="G275">
         <v>3</v>
@@ -18489,84 +19813,86 @@
         <v>142</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K275" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L275">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M275">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N275">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O275">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P275">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="Q275">
-        <v>5000</v>
+        <f>2.2046*894</f>
+        <v>1970.9124000000002</v>
       </c>
     </row>
     <row r="276" spans="1:17">
       <c r="A276" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B276" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D276" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E276" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F276" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="G276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="K276" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L276">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M276">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="N276">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O276">
         <v>300</v>
       </c>
       <c r="P276">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="Q276">
-        <v>5000</v>
+        <f>2.2046*741</f>
+        <v>1633.6086</v>
       </c>
     </row>
     <row r="277" spans="1:17">
@@ -18583,10 +19909,10 @@
         <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="F277" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -18604,22 +19930,22 @@
         <v>22</v>
       </c>
       <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
         <v>150</v>
       </c>
-      <c r="M277">
-        <v>300</v>
-      </c>
       <c r="N277">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O277">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="P277">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q277">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="278" spans="1:17">
@@ -18636,10 +19962,10 @@
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="F278" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -18657,22 +19983,22 @@
         <v>22</v>
       </c>
       <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
         <v>150</v>
       </c>
-      <c r="M278">
-        <v>300</v>
-      </c>
       <c r="N278">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O278">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="P278">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q278">
-        <v>5000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="279" spans="1:17">
@@ -18689,10 +20015,10 @@
         <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="F279" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -18710,22 +20036,22 @@
         <v>22</v>
       </c>
       <c r="L279">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M279">
         <v>300</v>
       </c>
       <c r="N279">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="O279">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P279">
         <v>0.8</v>
       </c>
       <c r="Q279">
-        <v>5000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="280" spans="1:17">
@@ -18742,10 +20068,10 @@
         <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="F280" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="G280">
         <v>3</v>
@@ -18763,22 +20089,22 @@
         <v>22</v>
       </c>
       <c r="L280">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M280">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N280">
         <v>250</v>
       </c>
       <c r="O280">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="P280">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="Q280">
-        <v>5000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="281" spans="1:17">
@@ -18795,10 +20121,10 @@
         <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="F281" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="G281">
         <v>3</v>
@@ -18819,19 +20145,19 @@
         <v>150</v>
       </c>
       <c r="M281">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N281">
         <v>250</v>
       </c>
       <c r="O281">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P281">
         <v>0.8</v>
       </c>
       <c r="Q281">
-        <v>5000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="282" spans="1:17">
@@ -18848,10 +20174,10 @@
         <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F282" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G282">
         <v>3</v>
@@ -18869,22 +20195,22 @@
         <v>22</v>
       </c>
       <c r="L282">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M282">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N282">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O282">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P282">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="Q282">
-        <v>6600</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="283" spans="1:17">
@@ -18901,10 +20227,10 @@
         <v>1</v>
       </c>
       <c r="E283" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F283" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G283">
         <v>3</v>
@@ -18922,22 +20248,22 @@
         <v>22</v>
       </c>
       <c r="L283">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M283">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="N283">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O283">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="P283">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="Q283">
-        <v>6600</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="284" spans="1:17">
@@ -18954,10 +20280,10 @@
         <v>1</v>
       </c>
       <c r="E284" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G284">
         <v>3</v>
@@ -18975,22 +20301,22 @@
         <v>22</v>
       </c>
       <c r="L284">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M284">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N284">
         <v>260</v>
       </c>
       <c r="O284">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="P284">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="Q284">
-        <v>6600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="285" spans="1:17">
@@ -19007,10 +20333,10 @@
         <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F285" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -19028,22 +20354,22 @@
         <v>22</v>
       </c>
       <c r="L285">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M285">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="N285">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O285">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="P285">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="Q285">
-        <v>6600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="286" spans="1:17">
@@ -19060,10 +20386,10 @@
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F286" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -19081,22 +20407,22 @@
         <v>22</v>
       </c>
       <c r="L286">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M286">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="N286">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O286">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="P286">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="Q286">
-        <v>6600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="287" spans="1:17">
@@ -19113,10 +20439,10 @@
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G287">
         <v>3</v>
@@ -19134,22 +20460,22 @@
         <v>22</v>
       </c>
       <c r="L287">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M287">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="N287">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O287">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="P287">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="Q287">
-        <v>6600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="288" spans="1:17">
@@ -19166,10 +20492,10 @@
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F288" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -19187,22 +20513,22 @@
         <v>22</v>
       </c>
       <c r="L288">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M288">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="N288">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O288">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="P288">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="Q288">
-        <v>6600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="289" spans="1:17">
@@ -19219,10 +20545,10 @@
         <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G289">
         <v>3</v>
@@ -19240,22 +20566,22 @@
         <v>22</v>
       </c>
       <c r="L289">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M289">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="N289">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O289">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="P289">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="Q289">
-        <v>6600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="290" spans="1:17">
@@ -19272,10 +20598,10 @@
         <v>1</v>
       </c>
       <c r="E290" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -19293,22 +20619,22 @@
         <v>22</v>
       </c>
       <c r="L290">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M290">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="N290">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O290">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="P290">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="Q290">
-        <v>6600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="291" spans="1:17">
@@ -19325,10 +20651,10 @@
         <v>1</v>
       </c>
       <c r="E291" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F291" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G291">
         <v>3</v>
@@ -19346,22 +20672,22 @@
         <v>22</v>
       </c>
       <c r="L291">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M291">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N291">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="O291">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="P291">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="Q291">
-        <v>6500</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="292" spans="1:17">
@@ -19378,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="E292" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F292" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G292">
         <v>3</v>
@@ -19399,22 +20725,22 @@
         <v>22</v>
       </c>
       <c r="L292">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M292">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N292">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="O292">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="P292">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="Q292">
-        <v>6500</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="293" spans="1:17">
@@ -19428,10 +20754,10 @@
         <v>97</v>
       </c>
       <c r="D293" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F293" t="s">
         <v>99</v>
@@ -19446,13 +20772,13 @@
         <v>141</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K293" t="s">
+        <v>141</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L293">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M293">
         <v>300</v>
@@ -19461,13 +20787,13 @@
         <v>250</v>
       </c>
       <c r="O293">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P293">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="Q293">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="294" spans="1:17">
@@ -19481,13 +20807,13 @@
         <v>97</v>
       </c>
       <c r="D294" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F294" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G294">
         <v>3</v>
@@ -19499,28 +20825,28 @@
         <v>141</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="K294" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L294">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M294">
         <v>300</v>
       </c>
       <c r="N294">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="O294">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P294">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q294">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="295" spans="1:17">
@@ -19534,10 +20860,10 @@
         <v>97</v>
       </c>
       <c r="D295" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="F295" t="s">
         <v>22</v>
@@ -19552,28 +20878,28 @@
         <v>141</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="K295" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L295">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M295">
         <v>300</v>
       </c>
       <c r="N295">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="O295">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P295">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q295">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="296" spans="1:17">
@@ -19590,10 +20916,10 @@
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G296">
         <v>3</v>
@@ -19611,22 +20937,22 @@
         <v>22</v>
       </c>
       <c r="L296">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M296">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N296">
+        <v>250</v>
+      </c>
+      <c r="O296">
         <v>300</v>
       </c>
-      <c r="O296">
-        <v>330</v>
-      </c>
       <c r="P296">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Q296">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="297" spans="1:17">
@@ -19643,10 +20969,10 @@
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F297" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G297">
         <v>3</v>
@@ -19664,22 +20990,22 @@
         <v>22</v>
       </c>
       <c r="L297">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M297">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N297">
+        <v>250</v>
+      </c>
+      <c r="O297">
         <v>300</v>
       </c>
-      <c r="O297">
-        <v>330</v>
-      </c>
       <c r="P297">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Q297">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="298" spans="1:17">
@@ -19696,10 +21022,10 @@
         <v>1</v>
       </c>
       <c r="E298" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -19717,22 +21043,22 @@
         <v>22</v>
       </c>
       <c r="L298">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M298">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N298">
+        <v>250</v>
+      </c>
+      <c r="O298">
         <v>300</v>
       </c>
-      <c r="O298">
-        <v>330</v>
-      </c>
       <c r="P298">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Q298">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="299" spans="1:17">
@@ -19749,10 +21075,10 @@
         <v>1</v>
       </c>
       <c r="E299" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F299" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="G299">
         <v>3</v>
@@ -19770,22 +21096,22 @@
         <v>22</v>
       </c>
       <c r="L299">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M299">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N299">
+        <v>250</v>
+      </c>
+      <c r="O299">
         <v>300</v>
       </c>
-      <c r="O299">
-        <v>330</v>
-      </c>
       <c r="P299">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Q299">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="300" spans="1:17">
@@ -19802,10 +21128,10 @@
         <v>1</v>
       </c>
       <c r="E300" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F300" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="G300">
         <v>3</v>
@@ -19823,7 +21149,7 @@
         <v>22</v>
       </c>
       <c r="L300">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M300">
         <v>300</v>
@@ -19832,13 +21158,13 @@
         <v>250</v>
       </c>
       <c r="O300">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P300">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="Q300">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="301" spans="1:17">
@@ -19855,10 +21181,10 @@
         <v>1</v>
       </c>
       <c r="E301" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F301" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G301">
         <v>3</v>
@@ -19876,7 +21202,7 @@
         <v>22</v>
       </c>
       <c r="L301">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M301">
         <v>300</v>
@@ -19885,13 +21211,13 @@
         <v>250</v>
       </c>
       <c r="O301">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P301">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="Q301">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="302" spans="1:17">
@@ -19905,31 +21231,31 @@
         <v>97</v>
       </c>
       <c r="D302" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E302" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F302" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G302">
         <v>3</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I302" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J302" s="5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K302" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L302">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M302">
         <v>300</v>
@@ -19938,13 +21264,13 @@
         <v>250</v>
       </c>
       <c r="O302">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P302">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="Q302">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="303" spans="1:17">
@@ -19958,13 +21284,13 @@
         <v>97</v>
       </c>
       <c r="D303" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G303">
         <v>3</v>
@@ -19976,28 +21302,28 @@
         <v>141</v>
       </c>
       <c r="J303" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K303" t="s">
+        <v>141</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L303">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M303">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N303">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="O303">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="P303">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="Q303">
-        <v>3400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="304" spans="1:17">
@@ -20011,13 +21337,13 @@
         <v>97</v>
       </c>
       <c r="D304" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="E304" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F304" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="G304">
         <v>3</v>
@@ -20029,31 +21355,31 @@
         <v>141</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="K304" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L304" t="s">
-        <v>35</v>
-      </c>
-      <c r="M304" t="s">
-        <v>35</v>
-      </c>
-      <c r="N304" t="s">
-        <v>35</v>
-      </c>
-      <c r="O304" t="s">
-        <v>35</v>
-      </c>
-      <c r="P304" t="s">
-        <v>35</v>
+      <c r="L304">
+        <v>100</v>
+      </c>
+      <c r="M304">
+        <v>290</v>
+      </c>
+      <c r="N304">
+        <v>260</v>
+      </c>
+      <c r="O304">
+        <v>280</v>
+      </c>
+      <c r="P304">
+        <v>0.74</v>
       </c>
       <c r="Q304">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>1</v>
       </c>
@@ -20064,13 +21390,13 @@
         <v>97</v>
       </c>
       <c r="D305" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E305" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F305" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G305">
         <v>3</v>
@@ -20082,31 +21408,31 @@
         <v>141</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="K305" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L305">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M305">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N305">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="O305">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="P305">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="Q305">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>1</v>
       </c>
@@ -20117,49 +21443,49 @@
         <v>97</v>
       </c>
       <c r="D306" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="E306" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F306" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="G306">
         <v>3</v>
       </c>
-      <c r="H306" t="s">
-        <v>122</v>
+      <c r="H306" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="I306" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J306" t="s">
-        <v>122</v>
+      <c r="J306" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="K306" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L306" t="s">
-        <v>122</v>
-      </c>
-      <c r="M306" t="s">
-        <v>122</v>
-      </c>
-      <c r="N306" t="s">
-        <v>122</v>
-      </c>
-      <c r="O306" t="s">
-        <v>122</v>
-      </c>
-      <c r="P306" t="s">
-        <v>122</v>
+      <c r="L306">
+        <v>100</v>
+      </c>
+      <c r="M306">
+        <v>290</v>
+      </c>
+      <c r="N306">
+        <v>260</v>
+      </c>
+      <c r="O306">
+        <v>280</v>
+      </c>
+      <c r="P306">
+        <v>0.74</v>
       </c>
       <c r="Q306">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>1</v>
       </c>
@@ -20170,49 +21496,49 @@
         <v>97</v>
       </c>
       <c r="D307" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F307" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="G307">
         <v>3</v>
       </c>
-      <c r="H307" t="s">
-        <v>122</v>
+      <c r="H307" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="I307" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J307" t="s">
-        <v>122</v>
+      <c r="J307" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="K307" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L307" t="s">
-        <v>122</v>
-      </c>
-      <c r="M307" t="s">
-        <v>122</v>
-      </c>
-      <c r="N307" t="s">
-        <v>122</v>
-      </c>
-      <c r="O307" t="s">
-        <v>122</v>
-      </c>
-      <c r="P307" t="s">
-        <v>122</v>
+      <c r="L307">
+        <v>100</v>
+      </c>
+      <c r="M307">
+        <v>290</v>
+      </c>
+      <c r="N307">
+        <v>260</v>
+      </c>
+      <c r="O307">
+        <v>280</v>
+      </c>
+      <c r="P307">
+        <v>0.74</v>
       </c>
       <c r="Q307">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>1</v>
       </c>
@@ -20223,13 +21549,13 @@
         <v>97</v>
       </c>
       <c r="D308" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E308" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G308">
         <v>3</v>
@@ -20241,31 +21567,31 @@
         <v>141</v>
       </c>
       <c r="J308" s="5" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="K308" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L308" t="s">
-        <v>35</v>
-      </c>
-      <c r="M308" t="s">
-        <v>35</v>
-      </c>
-      <c r="N308" t="s">
-        <v>35</v>
-      </c>
-      <c r="O308" t="s">
-        <v>35</v>
-      </c>
-      <c r="P308" t="s">
-        <v>35</v>
+      <c r="L308">
+        <v>100</v>
+      </c>
+      <c r="M308">
+        <v>290</v>
+      </c>
+      <c r="N308">
+        <v>260</v>
+      </c>
+      <c r="O308">
+        <v>280</v>
+      </c>
+      <c r="P308">
+        <v>0.74</v>
       </c>
       <c r="Q308">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -20276,49 +21602,49 @@
         <v>97</v>
       </c>
       <c r="D309" t="s">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F309" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="G309">
         <v>3</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I309" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J309" s="5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K309" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L309" t="s">
-        <v>122</v>
-      </c>
-      <c r="M309" t="s">
-        <v>122</v>
-      </c>
-      <c r="N309" t="s">
-        <v>122</v>
-      </c>
-      <c r="O309" t="s">
-        <v>122</v>
-      </c>
-      <c r="P309" t="s">
-        <v>122</v>
+      <c r="L309">
+        <v>100</v>
+      </c>
+      <c r="M309">
+        <v>290</v>
+      </c>
+      <c r="N309">
+        <v>260</v>
+      </c>
+      <c r="O309">
+        <v>280</v>
+      </c>
+      <c r="P309">
+        <v>0.74</v>
       </c>
       <c r="Q309">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -20332,10 +21658,10 @@
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G310">
         <v>3</v>
@@ -20353,28 +21679,25 @@
         <v>22</v>
       </c>
       <c r="L310">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M310">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N310">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="O310">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="P310">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="Q310">
-        <v>2000</v>
-      </c>
-      <c r="R310" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" t="s">
         <v>1</v>
       </c>
@@ -20388,10 +21711,10 @@
         <v>1</v>
       </c>
       <c r="E311" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="F311" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G311">
         <v>3</v>
@@ -20409,28 +21732,25 @@
         <v>22</v>
       </c>
       <c r="L311">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M311">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N311">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="O311">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="P311">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="Q311">
-        <v>2000</v>
-      </c>
-      <c r="R311" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -20444,7 +21764,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="F312" t="s">
         <v>41</v>
@@ -20465,28 +21785,25 @@
         <v>22</v>
       </c>
       <c r="L312">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M312">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N312">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="O312">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="P312">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="Q312">
-        <v>2000</v>
-      </c>
-      <c r="R312" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" t="s">
         <v>1</v>
       </c>
@@ -20500,10 +21817,10 @@
         <v>1</v>
       </c>
       <c r="E313" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="F313" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G313">
         <v>3</v>
@@ -20517,32 +21834,29 @@
       <c r="J313" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K313" t="s">
+      <c r="K313" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L313">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M313">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N313">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="O313">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="P313">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Q313">
-        <v>2000</v>
-      </c>
-      <c r="R313" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -20553,52 +21867,49 @@
         <v>97</v>
       </c>
       <c r="D314" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="E314" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="F314" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G314">
         <v>3</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I314" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K314" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L314">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M314">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N314">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="O314">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="P314">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Q314">
-        <v>2000</v>
-      </c>
-      <c r="R314" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -20609,52 +21920,49 @@
         <v>97</v>
       </c>
       <c r="D315" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E315" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F315" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G315">
         <v>3</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I315" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K315" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K315" t="s">
         <v>22</v>
       </c>
       <c r="L315">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M315">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N315">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="O315">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="P315">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="Q315">
-        <v>2000</v>
-      </c>
-      <c r="R315" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" t="s">
         <v>1</v>
       </c>
@@ -20665,52 +21973,49 @@
         <v>97</v>
       </c>
       <c r="D316" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E316" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F316" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="G316">
         <v>3</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I316" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="K316" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L316">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M316">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N316">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="O316">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="P316">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="Q316">
-        <v>2000</v>
-      </c>
-      <c r="R316" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" t="s">
         <v>1</v>
       </c>
@@ -20721,13 +22026,13 @@
         <v>97</v>
       </c>
       <c r="D317" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E317" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G317">
         <v>3</v>
@@ -20739,31 +22044,31 @@
         <v>141</v>
       </c>
       <c r="J317" s="5" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="K317" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L317">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M317">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N317">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="O317">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="P317">
         <v>0.9</v>
       </c>
       <c r="Q317">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" t="s">
         <v>1</v>
       </c>
@@ -20777,7 +22082,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F318" t="s">
         <v>39</v>
@@ -20801,22 +22106,22 @@
         <v>100</v>
       </c>
       <c r="M318">
+        <v>320</v>
+      </c>
+      <c r="N318">
         <v>300</v>
       </c>
-      <c r="N318">
-        <v>230</v>
-      </c>
       <c r="O318">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="P318">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Q318">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17">
       <c r="A319" t="s">
         <v>1</v>
       </c>
@@ -20830,10 +22135,10 @@
         <v>1</v>
       </c>
       <c r="E319" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="F319" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G319">
         <v>3</v>
@@ -20851,25 +22156,25 @@
         <v>22</v>
       </c>
       <c r="L319">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M319">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="N319">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O319">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P319">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="Q319">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320" t="s">
         <v>1</v>
       </c>
@@ -20883,10 +22188,10 @@
         <v>1</v>
       </c>
       <c r="E320" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F320" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G320">
         <v>3</v>
@@ -20904,28 +22209,25 @@
         <v>22</v>
       </c>
       <c r="L320">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M320">
+        <v>320</v>
+      </c>
+      <c r="N320">
+        <v>300</v>
+      </c>
+      <c r="O320">
         <v>330</v>
       </c>
-      <c r="N320">
-        <v>250</v>
-      </c>
-      <c r="O320">
-        <v>325</v>
-      </c>
       <c r="P320">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="Q320">
-        <v>4500</v>
-      </c>
-      <c r="R320" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="321" spans="1:17">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
       <c r="A321" t="s">
         <v>1</v>
       </c>
@@ -20939,10 +22241,10 @@
         <v>1</v>
       </c>
       <c r="E321" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F321" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G321">
         <v>3</v>
@@ -20960,1290 +22262,3105 @@
         <v>22</v>
       </c>
       <c r="L321">
+        <v>100</v>
+      </c>
+      <c r="M321">
+        <v>320</v>
+      </c>
+      <c r="N321">
+        <v>300</v>
+      </c>
+      <c r="O321">
+        <v>330</v>
+      </c>
+      <c r="P321">
+        <v>0.82</v>
+      </c>
+      <c r="Q321">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18">
+      <c r="A322" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>96</v>
+      </c>
+      <c r="C322" t="s">
+        <v>97</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1</v>
+      </c>
+      <c r="E322" t="s">
+        <v>36</v>
+      </c>
+      <c r="F322" t="s">
+        <v>70</v>
+      </c>
+      <c r="G322">
+        <v>3</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K322" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L322">
         <v>80</v>
       </c>
-      <c r="M321">
+      <c r="M322">
+        <v>300</v>
+      </c>
+      <c r="N322">
+        <v>250</v>
+      </c>
+      <c r="O322">
+        <v>350</v>
+      </c>
+      <c r="P322">
+        <v>0.88</v>
+      </c>
+      <c r="Q322">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18">
+      <c r="A323" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" t="s">
+        <v>96</v>
+      </c>
+      <c r="C323" t="s">
+        <v>97</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>36</v>
+      </c>
+      <c r="F323" t="s">
+        <v>164</v>
+      </c>
+      <c r="G323">
+        <v>3</v>
+      </c>
+      <c r="H323" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I323" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J323" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K323" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L323">
+        <v>80</v>
+      </c>
+      <c r="M323">
+        <v>300</v>
+      </c>
+      <c r="N323">
+        <v>250</v>
+      </c>
+      <c r="O323">
+        <v>350</v>
+      </c>
+      <c r="P323">
+        <v>0.88</v>
+      </c>
+      <c r="Q323">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18">
+      <c r="A324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>96</v>
+      </c>
+      <c r="C324" t="s">
+        <v>97</v>
+      </c>
+      <c r="D324" t="s">
+        <v>128</v>
+      </c>
+      <c r="E324" t="s">
+        <v>36</v>
+      </c>
+      <c r="F324" t="s">
+        <v>163</v>
+      </c>
+      <c r="G324">
+        <v>3</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K324" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L324">
+        <v>80</v>
+      </c>
+      <c r="M324">
+        <v>300</v>
+      </c>
+      <c r="N324">
+        <v>250</v>
+      </c>
+      <c r="O324">
+        <v>350</v>
+      </c>
+      <c r="P324">
+        <v>0.88</v>
+      </c>
+      <c r="Q324">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18">
+      <c r="A325" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" t="s">
+        <v>96</v>
+      </c>
+      <c r="C325" t="s">
+        <v>97</v>
+      </c>
+      <c r="D325" t="s">
+        <v>37</v>
+      </c>
+      <c r="E325" t="s">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>42</v>
+      </c>
+      <c r="G325">
+        <v>3</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I325" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J325" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K325" t="s">
+        <v>22</v>
+      </c>
+      <c r="L325">
+        <v>80</v>
+      </c>
+      <c r="M325">
+        <v>350</v>
+      </c>
+      <c r="N325">
+        <v>275</v>
+      </c>
+      <c r="O325">
+        <v>325</v>
+      </c>
+      <c r="P325">
+        <v>0.84</v>
+      </c>
+      <c r="Q325">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
+      <c r="A326" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" t="s">
+        <v>96</v>
+      </c>
+      <c r="C326" t="s">
+        <v>97</v>
+      </c>
+      <c r="D326" t="s">
+        <v>130</v>
+      </c>
+      <c r="E326" t="s">
+        <v>36</v>
+      </c>
+      <c r="F326" t="s">
+        <v>165</v>
+      </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J326" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K326" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L326" t="s">
+        <v>35</v>
+      </c>
+      <c r="M326" t="s">
+        <v>35</v>
+      </c>
+      <c r="N326" t="s">
+        <v>35</v>
+      </c>
+      <c r="O326" t="s">
+        <v>35</v>
+      </c>
+      <c r="P326" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q326">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
+      <c r="A327" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" t="s">
+        <v>96</v>
+      </c>
+      <c r="C327" t="s">
+        <v>97</v>
+      </c>
+      <c r="D327" t="s">
+        <v>37</v>
+      </c>
+      <c r="E327" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327" t="s">
+        <v>43</v>
+      </c>
+      <c r="G327">
+        <v>3</v>
+      </c>
+      <c r="H327" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I327" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J327" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K327" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L327">
+        <v>80</v>
+      </c>
+      <c r="M327">
+        <v>350</v>
+      </c>
+      <c r="N327">
+        <v>275</v>
+      </c>
+      <c r="O327">
+        <v>325</v>
+      </c>
+      <c r="P327">
+        <v>0.84</v>
+      </c>
+      <c r="Q327">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18">
+      <c r="A328" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" t="s">
+        <v>96</v>
+      </c>
+      <c r="C328" t="s">
+        <v>97</v>
+      </c>
+      <c r="D328" t="s">
+        <v>174</v>
+      </c>
+      <c r="E328" t="s">
+        <v>36</v>
+      </c>
+      <c r="F328" t="s">
+        <v>152</v>
+      </c>
+      <c r="G328">
+        <v>3</v>
+      </c>
+      <c r="H328" t="s">
+        <v>122</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J328" t="s">
+        <v>122</v>
+      </c>
+      <c r="K328" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L328" t="s">
+        <v>122</v>
+      </c>
+      <c r="M328" t="s">
+        <v>122</v>
+      </c>
+      <c r="N328" t="s">
+        <v>122</v>
+      </c>
+      <c r="O328" t="s">
+        <v>122</v>
+      </c>
+      <c r="P328" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q328">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18">
+      <c r="A329" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>96</v>
+      </c>
+      <c r="C329" t="s">
+        <v>97</v>
+      </c>
+      <c r="D329" t="s">
+        <v>174</v>
+      </c>
+      <c r="E329" t="s">
+        <v>36</v>
+      </c>
+      <c r="F329" t="s">
+        <v>166</v>
+      </c>
+      <c r="G329">
+        <v>3</v>
+      </c>
+      <c r="H329" t="s">
+        <v>122</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J329" t="s">
+        <v>122</v>
+      </c>
+      <c r="K329" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L329" t="s">
+        <v>122</v>
+      </c>
+      <c r="M329" t="s">
+        <v>122</v>
+      </c>
+      <c r="N329" t="s">
+        <v>122</v>
+      </c>
+      <c r="O329" t="s">
+        <v>122</v>
+      </c>
+      <c r="P329" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q329">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18">
+      <c r="A330" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" t="s">
+        <v>96</v>
+      </c>
+      <c r="C330" t="s">
+        <v>97</v>
+      </c>
+      <c r="D330" t="s">
+        <v>54</v>
+      </c>
+      <c r="E330" t="s">
+        <v>36</v>
+      </c>
+      <c r="F330" t="s">
+        <v>44</v>
+      </c>
+      <c r="G330">
+        <v>3</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K330" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L330" t="s">
+        <v>35</v>
+      </c>
+      <c r="M330" t="s">
+        <v>35</v>
+      </c>
+      <c r="N330" t="s">
+        <v>35</v>
+      </c>
+      <c r="O330" t="s">
+        <v>35</v>
+      </c>
+      <c r="P330" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q330">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18">
+      <c r="A331" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>96</v>
+      </c>
+      <c r="C331" t="s">
+        <v>97</v>
+      </c>
+      <c r="D331" t="s">
+        <v>171</v>
+      </c>
+      <c r="E331" t="s">
+        <v>36</v>
+      </c>
+      <c r="F331" t="s">
+        <v>167</v>
+      </c>
+      <c r="G331">
+        <v>3</v>
+      </c>
+      <c r="H331" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I331" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J331" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K331" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L331" t="s">
+        <v>122</v>
+      </c>
+      <c r="M331" t="s">
+        <v>122</v>
+      </c>
+      <c r="N331" t="s">
+        <v>122</v>
+      </c>
+      <c r="O331" t="s">
+        <v>122</v>
+      </c>
+      <c r="P331" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q331">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18">
+      <c r="A332" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" t="s">
+        <v>96</v>
+      </c>
+      <c r="C332" t="s">
+        <v>97</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1</v>
+      </c>
+      <c r="E332" t="s">
+        <v>30</v>
+      </c>
+      <c r="F332" t="s">
+        <v>39</v>
+      </c>
+      <c r="G332">
+        <v>3</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K332" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L332">
+        <v>50</v>
+      </c>
+      <c r="M332">
+        <v>350</v>
+      </c>
+      <c r="N332">
+        <v>285</v>
+      </c>
+      <c r="O332">
+        <v>325</v>
+      </c>
+      <c r="P332">
+        <v>0.84</v>
+      </c>
+      <c r="Q332">
+        <v>2000</v>
+      </c>
+      <c r="R332" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18">
+      <c r="A333" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>96</v>
+      </c>
+      <c r="C333" t="s">
+        <v>97</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1</v>
+      </c>
+      <c r="E333" t="s">
+        <v>30</v>
+      </c>
+      <c r="F333" t="s">
+        <v>22</v>
+      </c>
+      <c r="G333">
+        <v>3</v>
+      </c>
+      <c r="H333" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I333" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J333" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K333" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L333">
+        <v>50</v>
+      </c>
+      <c r="M333">
+        <v>350</v>
+      </c>
+      <c r="N333">
+        <v>285</v>
+      </c>
+      <c r="O333">
+        <v>325</v>
+      </c>
+      <c r="P333">
+        <v>0.84</v>
+      </c>
+      <c r="Q333">
+        <v>2000</v>
+      </c>
+      <c r="R333" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18">
+      <c r="A334" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>96</v>
+      </c>
+      <c r="C334" t="s">
+        <v>97</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1</v>
+      </c>
+      <c r="E334" t="s">
+        <v>30</v>
+      </c>
+      <c r="F334" t="s">
+        <v>41</v>
+      </c>
+      <c r="G334">
+        <v>3</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K334" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L334">
+        <v>50</v>
+      </c>
+      <c r="M334">
+        <v>350</v>
+      </c>
+      <c r="N334">
+        <v>285</v>
+      </c>
+      <c r="O334">
+        <v>325</v>
+      </c>
+      <c r="P334">
+        <v>0.84</v>
+      </c>
+      <c r="Q334">
+        <v>2000</v>
+      </c>
+      <c r="R334" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18">
+      <c r="A335" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" t="s">
+        <v>96</v>
+      </c>
+      <c r="C335" t="s">
+        <v>97</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1</v>
+      </c>
+      <c r="E335" t="s">
+        <v>30</v>
+      </c>
+      <c r="F335" t="s">
+        <v>23</v>
+      </c>
+      <c r="G335">
+        <v>3</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I335" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J335" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K335" t="s">
+        <v>22</v>
+      </c>
+      <c r="L335">
+        <v>50</v>
+      </c>
+      <c r="M335">
+        <v>350</v>
+      </c>
+      <c r="N335">
+        <v>285</v>
+      </c>
+      <c r="O335">
+        <v>325</v>
+      </c>
+      <c r="P335">
+        <v>0.84</v>
+      </c>
+      <c r="Q335">
+        <v>2000</v>
+      </c>
+      <c r="R335" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18">
+      <c r="A336" t="s">
+        <v>1</v>
+      </c>
+      <c r="B336" t="s">
+        <v>96</v>
+      </c>
+      <c r="C336" t="s">
+        <v>97</v>
+      </c>
+      <c r="D336" t="s">
+        <v>137</v>
+      </c>
+      <c r="E336" t="s">
+        <v>30</v>
+      </c>
+      <c r="F336" t="s">
+        <v>70</v>
+      </c>
+      <c r="G336">
+        <v>3</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K336" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L336">
+        <v>50</v>
+      </c>
+      <c r="M336">
+        <v>350</v>
+      </c>
+      <c r="N336">
+        <v>285</v>
+      </c>
+      <c r="O336">
+        <v>325</v>
+      </c>
+      <c r="P336">
+        <v>0.84</v>
+      </c>
+      <c r="Q336">
+        <v>2000</v>
+      </c>
+      <c r="R336" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18">
+      <c r="A337" t="s">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>96</v>
+      </c>
+      <c r="C337" t="s">
+        <v>97</v>
+      </c>
+      <c r="D337" t="s">
+        <v>137</v>
+      </c>
+      <c r="E337" t="s">
+        <v>30</v>
+      </c>
+      <c r="F337" t="s">
+        <v>71</v>
+      </c>
+      <c r="G337">
+        <v>3</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I337" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J337" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K337" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L337">
+        <v>50</v>
+      </c>
+      <c r="M337">
+        <v>350</v>
+      </c>
+      <c r="N337">
+        <v>285</v>
+      </c>
+      <c r="O337">
+        <v>325</v>
+      </c>
+      <c r="P337">
+        <v>0.84</v>
+      </c>
+      <c r="Q337">
+        <v>2000</v>
+      </c>
+      <c r="R337" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18">
+      <c r="A338" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338" t="s">
+        <v>96</v>
+      </c>
+      <c r="C338" t="s">
+        <v>97</v>
+      </c>
+      <c r="D338" t="s">
+        <v>128</v>
+      </c>
+      <c r="E338" t="s">
+        <v>30</v>
+      </c>
+      <c r="F338" t="s">
+        <v>163</v>
+      </c>
+      <c r="G338">
+        <v>3</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K338" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L338">
+        <v>50</v>
+      </c>
+      <c r="M338">
+        <v>350</v>
+      </c>
+      <c r="N338">
+        <v>285</v>
+      </c>
+      <c r="O338">
+        <v>325</v>
+      </c>
+      <c r="P338">
+        <v>0.84</v>
+      </c>
+      <c r="Q338">
+        <v>2000</v>
+      </c>
+      <c r="R338" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18">
+      <c r="A339" t="s">
+        <v>1</v>
+      </c>
+      <c r="B339" t="s">
+        <v>96</v>
+      </c>
+      <c r="C339" t="s">
+        <v>97</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1</v>
+      </c>
+      <c r="E339" t="s">
+        <v>31</v>
+      </c>
+      <c r="F339" t="s">
+        <v>39</v>
+      </c>
+      <c r="G339">
+        <v>3</v>
+      </c>
+      <c r="H339" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I339" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J339" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K339" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L339">
+        <v>50</v>
+      </c>
+      <c r="M339">
+        <v>360</v>
+      </c>
+      <c r="N339">
+        <v>215</v>
+      </c>
+      <c r="O339">
+        <v>350</v>
+      </c>
+      <c r="P339">
+        <v>0.9</v>
+      </c>
+      <c r="Q339">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18">
+      <c r="A340" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" t="s">
+        <v>96</v>
+      </c>
+      <c r="C340" t="s">
+        <v>97</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1</v>
+      </c>
+      <c r="E340" t="s">
+        <v>21</v>
+      </c>
+      <c r="F340" t="s">
+        <v>39</v>
+      </c>
+      <c r="G340">
+        <v>3</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I340" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J340" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K340" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L340">
+        <v>100</v>
+      </c>
+      <c r="M340">
+        <v>300</v>
+      </c>
+      <c r="N340">
+        <v>230</v>
+      </c>
+      <c r="O340">
+        <v>350</v>
+      </c>
+      <c r="P340">
+        <v>0.84</v>
+      </c>
+      <c r="Q340">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18">
+      <c r="A341" t="s">
+        <v>1</v>
+      </c>
+      <c r="B341" t="s">
+        <v>96</v>
+      </c>
+      <c r="C341" t="s">
+        <v>97</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1</v>
+      </c>
+      <c r="E341" t="s">
+        <v>168</v>
+      </c>
+      <c r="F341" t="s">
+        <v>39</v>
+      </c>
+      <c r="G341">
+        <v>3</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I341" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J341" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K341" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L341">
+        <v>140</v>
+      </c>
+      <c r="M341">
+        <v>270</v>
+      </c>
+      <c r="N341">
+        <v>285</v>
+      </c>
+      <c r="O341">
+        <v>315</v>
+      </c>
+      <c r="P341">
+        <v>0.9</v>
+      </c>
+      <c r="Q341">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18">
+      <c r="A342" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" t="s">
+        <v>96</v>
+      </c>
+      <c r="C342" t="s">
+        <v>97</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
+        <v>100</v>
+      </c>
+      <c r="F342" t="s">
+        <v>39</v>
+      </c>
+      <c r="G342">
+        <v>3</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J342" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K342" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L342">
+        <v>80</v>
+      </c>
+      <c r="M342">
+        <v>330</v>
+      </c>
+      <c r="N342">
+        <v>250</v>
+      </c>
+      <c r="O342">
+        <v>325</v>
+      </c>
+      <c r="P342">
+        <v>0.8</v>
+      </c>
+      <c r="Q342">
+        <v>4500</v>
+      </c>
+      <c r="R342" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18">
+      <c r="A343" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
+        <v>96</v>
+      </c>
+      <c r="C343" t="s">
+        <v>97</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1</v>
+      </c>
+      <c r="E343" t="s">
+        <v>33</v>
+      </c>
+      <c r="F343" t="s">
+        <v>39</v>
+      </c>
+      <c r="G343">
+        <v>3</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I343" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J343" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K343" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L343">
+        <v>80</v>
+      </c>
+      <c r="M343">
         <v>280</v>
       </c>
-      <c r="N321">
+      <c r="N343">
         <v>250</v>
       </c>
-      <c r="O321">
+      <c r="O343">
         <v>300</v>
       </c>
-      <c r="P321">
+      <c r="P343">
         <v>0.9</v>
       </c>
-      <c r="Q321">
+      <c r="Q343">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E321"/>
+  <autoFilter ref="E1:E343"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A11:B11 D11">
-    <cfRule type="expression" dxfId="253" priority="421">
+    <cfRule type="expression" dxfId="377" priority="633">
       <formula>COUNTIFS($A:$A,$A11,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D11,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 D13">
-    <cfRule type="expression" dxfId="252" priority="419">
+    <cfRule type="expression" dxfId="376" priority="631">
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:F57 B79 A80:F99 C100 A101:F103 A107:F152 A155:F157 A154:C154 E158:E166 A158:C161 A2:F46 D47:D50 A58:F78 A159:F207 C210:C212 A214:F239 A242:F802">
-    <cfRule type="expression" dxfId="251" priority="352">
+  <conditionalFormatting sqref="D57:F57 B79 A80:F99 C100 A101:F103 A107:F152 A155:F157 A154:C154 E158:E166 A158:C161 A2:F46 D47:D50 A58:F78 A159:F207 C210:C212 A214:F824">
+    <cfRule type="expression" dxfId="375" priority="564">
       <formula>COUNTIFS($A:$A,$A2,$B:$B,$B2,$C:$C,$C2,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34 D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 G45:Q46 D56:H57 A79:I79 G47:I55 A45:F48 D49:F50 I56:I78 A58:H78 A80:H102 A30:Q44 A145:H170 I80:I170 A256:I256 A257:F265 I257:I265 G257:G258 G260:G262 G264:G266 G268:G270 H258 H260 H262 H264 H266 H268 H270 G275:G277 G279:G281 G273:H273 G283:H283 H275 H277 H279 H281 G284:G285 H284 I267:I270 H286:H288 H290 A267:F270 A287:G290 A288:C321 J47:Q170 G303:H303 G313:H313 G291:H291 G294:G295 G304:G305 G314:G315 H294 H304 H296:H298 H317:H318 H300:H301 H310:H311 H320:H321 G297:G301 G307:G311 G317:G321 G293:Q293 I282:I292 K256:Q256 K258 K260 K262 K264 K266 K268 K270 K273 K275 K277 K279 K283 K285 K287 K289 K291 A322:Q406 K303 K313 K295 K305 K315 K297 K307 K317 K299 K309 K319 K301 K311 K321 I294:J295 I296:I321 A272:F286 I272:I280 K281 L282:Q292 L257:Q265 L267:Q270 A291:F321 H306:H308 L294:Q321 A171:Q220 A225:Q227 Q221:Q223 J221:J223 H229 J228:J230 L247:Q247 L252:Q254 A242:H247 A249:A250 B249:B251 C248:C250 J242:J247 J252:J254 I233 I244 I250 A252:H254 I254">
-    <cfRule type="containsBlanks" dxfId="250" priority="340">
+  <conditionalFormatting sqref="B2:B34 D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 G45:Q46 D56:H57 A79:I79 G47:I55 A45:F48 D49:F50 I56:I78 A58:H78 A80:H102 A30:Q44 A145:H170 I80:I170 A278:I278 A279:F287 I279:I287 G279:G280 G282:G284 G286:G288 G290:G292 H280 H282 H284 H286 H288 H290 H292 G297:G299 G301:G303 G295:H295 G305:H305 H297 H299 H301 H303 G306:G307 H306 I289:I292 H308:H310 H312 A289:F292 A309:G312 A310:C343 J47:Q170 G325:H325 G335:H335 G313:H313 G316:G317 G326:G327 G336:G337 H316 H326 H318:H320 H339:H340 H322:H323 H332:H333 H342:H343 G319:G323 G329:G333 G339:G343 G315:Q315 I304:I314 K278:Q278 K280 K282 K284 K286 K288 K290 K292 K295 K297 K299 K301 K305 K307 K309 K311 K313 A344:Q428 K325 K335 K317 K327 K337 K319 K329 K339 K321 K331 K341 K323 K333 K343 I316:J317 I318:I343 A294:F308 I294:I302 K303 L304:Q314 L279:Q287 L289:Q292 A313:F343 H328:H330 L316:Q343 A171:Q220 A225:Q227 Q221:Q223 J221:J223 H229 J228:J230 A242:F242 I233 A247:F247 J247 A249:F249 A251:F251 A255:F255 I249:J249 H242 H245 H248 H251 H254 H257 B265:B270 A257:F257 A259 A261 B258 B262 C259 C263 H261 H265 C269:C272 G269:G271 G274:G276 H269 H271 H273 H275 L264:Q269 L271:Q276 A264:F269 A271:F276">
+    <cfRule type="containsBlanks" dxfId="374" priority="552">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D29 F18:F29">
-    <cfRule type="expression" dxfId="249" priority="390">
+    <cfRule type="expression" dxfId="373" priority="602">
       <formula>COUNTIFS($A:$A,$A18,$B:$B,#REF!,$C:$C,$B18,$D:$D,$D18,$E:$E,$E18,$F:$F,$F18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F10 A12:B12 D12:F12 E13:F13 D14:F16 D17 F17 E17:E29 D39">
-    <cfRule type="expression" dxfId="248" priority="410">
+    <cfRule type="expression" dxfId="372" priority="622">
       <formula>COUNTIFS($A:$A,$A2,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B29 D13:G13 K13:Q13 I6:I43 D2:Q12 J12:J43 P31:P37 D14:Q29">
-    <cfRule type="containsBlanks" dxfId="247" priority="353">
+    <cfRule type="containsBlanks" dxfId="371" priority="565">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="246" priority="423">
+    <cfRule type="expression" dxfId="370" priority="635">
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 D56:H57 A79:I79 G47:I50 G45:R46 A45:F48 D49:F50 A58:H78 A80:H102 A2:R44 A145:H170 I80:I170 I47:R78 A256:I256 A257:F265 I257:I265 G257:G258 G260:G262 G264:G266 G268:G270 H258 H260 H262 H264 H266 H268 H270 G275:G277 G279:G281 G273:H273 G283:H283 H275 H277 H279 H281 G284:G285 H284 I267:I270 H286:H288 H290 A267:F270 A287:G290 A288:C321 J79:R170 G303:H303 G313:H313 G291:H291 G294:G295 G304:G305 G314:G315 H294 H304 H296:H298 H317:H318 H300:H301 H310:H311 H320:H321 G297:G301 G307:G311 G317:G321 G293:R293 I282:I292 K256:R256 K258 K260 K262 K264 K266 K268 K270 K273 K275 K277 K279 K283 K285 K287 K289 K291 A322:R802 K303 K313 K295 K305 K315 K297 K307 K317 K299 K309 K319 K301 K311 K321 I294:J295 I296:I321 A272:F286 I272:I280 K281 R272:R281 L282:R292 L257:R265 L267:R270 A291:F321 H306:H308 L294:R321 A171:R220 A225:R227 Q221:Q223 J221:J223 H229 J228:J230 L247:R247 L252:R254 A242:H247 A249:A250 B249:B251 C248:C250 J242:J247 J252:J254 I233 I244 I250 A252:H254 I254">
-    <cfRule type="containsText" dxfId="245" priority="339" operator="containsText" text="itv">
+  <conditionalFormatting sqref="D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 D56:H57 A79:I79 G47:I50 G45:R46 A45:F48 D49:F50 A58:H78 A80:H102 A2:R44 A145:H170 I80:I170 I47:R78 A278:I278 A279:F287 I279:I287 G279:G280 G282:G284 G286:G288 G290:G292 H280 H282 H284 H286 H288 H290 H292 G297:G299 G301:G303 G295:H295 G305:H305 H297 H299 H301 H303 G306:G307 H306 I289:I292 H308:H310 H312 A289:F292 A309:G312 A310:C343 J79:R170 G325:H325 G335:H335 G313:H313 G316:G317 G326:G327 G336:G337 H316 H326 H318:H320 H339:H340 H322:H323 H332:H333 H342:H343 G319:G323 G329:G333 G339:G343 G315:R315 I304:I314 K278:R278 K280 K282 K284 K286 K288 K290 K292 K295 K297 K299 K301 K305 K307 K309 K311 K313 A344:R824 K325 K335 K317 K327 K337 K319 K329 K339 K321 K331 K341 K323 K333 K343 I316:J317 I318:I343 A294:F308 I294:I302 K303 R294:R303 L304:R314 L279:R287 L289:R292 A313:F343 H328:H330 L316:R343 A171:R220 A225:R227 Q221:Q223 J221:J223 H229 J228:J230 R257 A242:F242 I233 A247:F247 J247 A249:F249 A251:F251 A255:F255 I249:J249 H242 H245 H248 H251 H254 H257 B265:B270 A257:F257 A259 A261 B258 B262 C259 C263 H261 H265 C269:C272 G269:G271 G274:G276 H269 H271 H273 H275 L264:R269 L271:R276 A264:F269 A271:F276">
+    <cfRule type="containsText" dxfId="369" priority="551" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="containsBlanks" dxfId="244" priority="338">
+    <cfRule type="containsBlanks" dxfId="368" priority="550">
       <formula>LEN(TRIM(B45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52 A51:C78 B79 B145">
-    <cfRule type="expression" dxfId="243" priority="432">
+    <cfRule type="expression" dxfId="367" priority="644">
       <formula>COUNTIFS($A:$A,$A51,$B:$B,$B51,$C:$C,$C51,$D:$D,#REF!,$E:$E,$E51,$F:$F,$F51)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47 E52:F52">
-    <cfRule type="expression" dxfId="242" priority="441">
+    <cfRule type="expression" dxfId="366" priority="653">
       <formula>COUNTIFS($A:$A,$A47,$B:$B,$B47,$C:$C,$C47,$D:$D,$D51,$E:$E,$E47,$F:$F,$F47)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="241" priority="485">
+    <cfRule type="expression" dxfId="365" priority="697">
       <formula>COUNTIFS($A:$A,$A47,$B:$B,$B47,$C:$C,$C47,$D:$D,$D51,$E:$E,$E47,$F:$F,$F47)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F49">
-    <cfRule type="expression" dxfId="240" priority="512">
+    <cfRule type="expression" dxfId="364" priority="724">
       <formula>COUNTIFS($A:$A,$A48,$B:$B,$B48,$C:$C,$C48,$D:$D,$D53,$E:$E,$E48,$F:$F,$F48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="expression" dxfId="239" priority="513">
+    <cfRule type="expression" dxfId="363" priority="725">
       <formula>COUNTIFS($A:$A,$A51,$B:$B,$B51,$C:$C,$C51,$D:$D,$D54,$E:$E,$E51,$F:$F,$F51)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D55">
-    <cfRule type="expression" dxfId="238" priority="515">
+    <cfRule type="expression" dxfId="362" priority="727">
       <formula>COUNTIFS($A:$A,$A48,$B:$B,$B48,$C:$C,$C48,$D:$D,$D53,$E:$E,$E48,$F:$F,$F48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:F50">
-    <cfRule type="expression" dxfId="237" priority="543">
+    <cfRule type="expression" dxfId="361" priority="755">
       <formula>COUNTIFS($A:$A,$A50,$B:$B,$B50,$C:$C,$C50,$D:$D,$D56,$E:$E,$E50,$F:$F,$F50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="236" priority="547">
+    <cfRule type="expression" dxfId="360" priority="759">
       <formula>COUNTIFS($A:$A,$A50,$B:$B,$B50,$C:$C,$C50,$D:$D,$D56,$E:$E,$E50,$F:$F,$F50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79 C79:G79 G82 G85 G88 G90 G93 G96 G99:G100 A145 C145">
-    <cfRule type="expression" dxfId="235" priority="556">
+    <cfRule type="expression" dxfId="359" priority="768">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A79,$C:$C,$C79,$D:$D,$D79,$E:$E,$E79,$F:$F,$F79)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J170 J293:J295">
-    <cfRule type="expression" dxfId="234" priority="622">
+  <conditionalFormatting sqref="J79:J170 J315:J317">
+    <cfRule type="expression" dxfId="358" priority="834">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A79,$C:$C,$B79,$D:$D,$D79,$E:$E,$E79,$F:$F,$F79)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100 D100:F103 E112:F112 E114:F114 E117:F117 E122:F122 E119:F119 E124:F124 E126:F126 E131:F131 E128:F128 E133:F133 E135:F135 E139:F139 E137:F137 E141:F141 E143:F143">
-    <cfRule type="expression" dxfId="233" priority="638">
+    <cfRule type="expression" dxfId="357" priority="850">
       <formula>COUNTIFS($A:$A,$A100,$B:$B,#REF!,$C:$C,$B100,$D:$D,$D100,$E:$E,$E100,$F:$F,$F100)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105:G125 G128:G134 G157:G159 G137:G144 G147:G154 G161:G170">
-    <cfRule type="expression" dxfId="232" priority="690">
+    <cfRule type="expression" dxfId="356" priority="902">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A103,$C:$C,$C103,$D:$D,$D103,$E:$E,$E103,$F:$F,$F103)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:F106 E107:F109 E113:F113 E118:F118 E123:F123 E126:F133">
-    <cfRule type="expression" dxfId="231" priority="704">
+    <cfRule type="expression" dxfId="355" priority="916">
       <formula>COUNTIFS($A:$A,$A105,$B:$B,$B105,$C:$C,$C105,$D:$D,$D104,$E:$E,$E104,$F:$F,$F104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:C106">
-    <cfRule type="expression" dxfId="230" priority="705">
+    <cfRule type="expression" dxfId="354" priority="917">
       <formula>COUNTIFS($A:$A,$A105,$B:$B,$B105,$C:$C,$C105,$D:$D,$D104,$E:$E,$E104,$F:$F,$F104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:C104">
-    <cfRule type="expression" dxfId="229" priority="706">
+    <cfRule type="expression" dxfId="353" priority="918">
       <formula>COUNTIFS($A:$A,$A104,$B:$B,$B104,$C:$C,$C104,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:F104 E105:F109 E113:F113 E118:F118 E123:F123 E126:F133">
-    <cfRule type="expression" dxfId="228" priority="754">
+    <cfRule type="expression" dxfId="352" priority="966">
       <formula>COUNTIFS($A:$A,$A105,$B:$B,#REF!,$C:$C,$B105,$D:$D,$D104,$E:$E,$E104,$F:$F,$F104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:F111">
-    <cfRule type="expression" dxfId="227" priority="831">
+    <cfRule type="expression" dxfId="351" priority="1043">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,$B112,$C:$C,$C112,$D:$D,$D110,$E:$E,$E110,$F:$F,$F110)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:F111">
-    <cfRule type="expression" dxfId="226" priority="833">
+    <cfRule type="expression" dxfId="350" priority="1045">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,#REF!,$C:$C,$B112,$D:$D,$D110,$E:$E,$E110,$F:$F,$F110)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:F153 E115:F116 E120:F121 E125:F125 E129:F130 E134:F134 E136:F136 E140:F140 E138:F138 E142:F142 E144:F144">
-    <cfRule type="expression" dxfId="225" priority="837">
+    <cfRule type="expression" dxfId="349" priority="1049">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D115,$E:$E,$E115,$F:$F,$F115)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136:F136 E138:F138">
-    <cfRule type="expression" dxfId="224" priority="969">
+    <cfRule type="expression" dxfId="348" priority="1181">
       <formula>COUNTIFS($A:$A,$A139,$B:$B,$B139,$C:$C,$C139,$D:$D,$D136,$E:$E,$E136,$F:$F,$F136)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136:F136 E138:F138">
-    <cfRule type="expression" dxfId="223" priority="970">
+    <cfRule type="expression" dxfId="347" priority="1182">
       <formula>COUNTIFS($A:$A,$A139,$B:$B,#REF!,$C:$C,$B139,$D:$D,$D136,$E:$E,$E136,$F:$F,$F136)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:F138">
-    <cfRule type="containsBlanks" dxfId="222" priority="262">
+    <cfRule type="containsBlanks" dxfId="346" priority="474">
       <formula>LEN(TRIM(A137))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:F138">
-    <cfRule type="containsText" dxfId="221" priority="261" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="345" priority="473" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135 G126">
-    <cfRule type="expression" dxfId="220" priority="1049">
+    <cfRule type="expression" dxfId="344" priority="1261">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A125,$C:$C,$C125,$D:$D,$D125,$E:$E,$E125,$F:$F,$F125)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136 G127">
-    <cfRule type="expression" dxfId="219" priority="1051">
+    <cfRule type="expression" dxfId="343" priority="1263">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:C153">
-    <cfRule type="expression" dxfId="218" priority="1066">
+    <cfRule type="expression" dxfId="342" priority="1278">
       <formula>COUNTIFS($A:$A,$A153,$B:$B,$B153,$C:$C,$C153,$D:$D,$D154,$E:$E,$E154,$F:$F,$F154)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154:F154">
-    <cfRule type="expression" dxfId="217" priority="1067">
+    <cfRule type="expression" dxfId="341" priority="1279">
       <formula>COUNTIFS($A:$A,$A153,$B:$B,$B153,$C:$C,$C153,$D:$D,$D154,$E:$E,$E154,$F:$F,$F154)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G156">
-    <cfRule type="expression" dxfId="216" priority="1132">
+    <cfRule type="expression" dxfId="340" priority="1344">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A153,$C:$C,$C153,$D:$D,$D154,$E:$E,$E154,$F:$F,$F154)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G155">
-    <cfRule type="expression" dxfId="215" priority="1133">
+    <cfRule type="expression" dxfId="339" priority="1345">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D153,$E:$E,$E153,$F:$F,$F153)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158 F158:F170">
-    <cfRule type="expression" dxfId="214" priority="1149">
+    <cfRule type="expression" dxfId="338" priority="1361">
       <formula>COUNTIFS($A:$A,$A158,$B:$B,$B158,$C:$C,$C158,$D:$D,$D158,$E:$E,$F158,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160">
-    <cfRule type="expression" dxfId="213" priority="1221">
+    <cfRule type="expression" dxfId="337" priority="1433">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A158,$C:$C,$C158,$D:$D,$D158,$E:$E,$F158,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:C162">
-    <cfRule type="expression" dxfId="212" priority="248">
+    <cfRule type="expression" dxfId="336" priority="460">
       <formula>COUNTIFS($A:$A,$A162,$B:$B,$B162,$C:$C,$C162,$D:$D,$D162,$E:$E,$F162,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsBlanks" dxfId="211" priority="246">
+    <cfRule type="containsBlanks" dxfId="335" priority="458">
       <formula>LEN(TRIM(J44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45 I47 I49 I51 I53 I55:I56 I58 I68 I60 I70 I62 I72 I64 I74 I66 I76:I77">
-    <cfRule type="containsBlanks" dxfId="210" priority="245">
+    <cfRule type="containsBlanks" dxfId="334" priority="457">
       <formula>LEN(TRIM(I45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46 I48 I50 I52 I54 I57 I67 I78 I59 I69 I61 I71 I63 I73 I65 I75">
-    <cfRule type="containsBlanks" dxfId="209" priority="244">
+    <cfRule type="containsBlanks" dxfId="333" priority="456">
       <formula>LEN(TRIM(I46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81 J84 J87 J90 J93 J96 J99 J101 J104 J107 J110 J113 J116 J119 J122 J125 J128 J131 J134 J137 J140 J143 J145 J148 J151 J154 J157 J160 J163 J166 J169">
-    <cfRule type="containsBlanks" dxfId="208" priority="242">
+    <cfRule type="containsBlanks" dxfId="332" priority="454">
       <formula>LEN(TRIM(J81))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79 J82 J85 J88 J91 J100 J105 J108 J111 J114 J117 J120 J123 J126 J129 J132 J135 J138 J141 J144 J146 J149 J152 J155 J158 J161 J164 J167 J170 J94:J98 J293">
-    <cfRule type="containsBlanks" dxfId="207" priority="241">
+  <conditionalFormatting sqref="J79 J82 J85 J88 J91 J100 J105 J108 J111 J114 J117 J120 J123 J126 J129 J132 J135 J138 J141 J144 J146 J149 J152 J155 J158 J161 J164 J167 J170 J94:J98 J315">
+    <cfRule type="containsBlanks" dxfId="331" priority="453">
       <formula>LEN(TRIM(J79))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J83 J86 J89 J92 J95 J98 J102:J103 J106 J109 J112 J115 J118 J121 J124 J127 J130 J133 J136 J139 J142 J147 J150 J153 J156 J159 J162 J165 J168">
-    <cfRule type="containsBlanks" dxfId="206" priority="240">
+    <cfRule type="containsBlanks" dxfId="330" priority="452">
       <formula>LEN(TRIM(J80))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42">
-    <cfRule type="containsBlanks" dxfId="205" priority="239">
+    <cfRule type="containsBlanks" dxfId="329" priority="451">
       <formula>LEN(TRIM(P42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43">
-    <cfRule type="containsBlanks" dxfId="204" priority="238">
+    <cfRule type="containsBlanks" dxfId="328" priority="450">
       <formula>LEN(TRIM(P43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P82">
-    <cfRule type="containsBlanks" dxfId="203" priority="237">
+    <cfRule type="containsBlanks" dxfId="327" priority="449">
       <formula>LEN(TRIM(P82))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83">
-    <cfRule type="containsBlanks" dxfId="202" priority="236">
+    <cfRule type="containsBlanks" dxfId="326" priority="448">
       <formula>LEN(TRIM(P83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84">
-    <cfRule type="containsBlanks" dxfId="201" priority="235">
+    <cfRule type="containsBlanks" dxfId="325" priority="447">
       <formula>LEN(TRIM(P84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85">
-    <cfRule type="containsBlanks" dxfId="200" priority="234">
+    <cfRule type="containsBlanks" dxfId="324" priority="446">
       <formula>LEN(TRIM(P85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="containsBlanks" dxfId="199" priority="233">
+    <cfRule type="containsBlanks" dxfId="323" priority="445">
       <formula>LEN(TRIM(P45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="containsBlanks" dxfId="198" priority="232">
+    <cfRule type="containsBlanks" dxfId="322" priority="444">
       <formula>LEN(TRIM(P46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="containsBlanks" dxfId="197" priority="231">
+    <cfRule type="containsBlanks" dxfId="321" priority="443">
       <formula>LEN(TRIM(P47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="containsBlanks" dxfId="196" priority="230">
+    <cfRule type="containsBlanks" dxfId="320" priority="442">
       <formula>LEN(TRIM(P57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56">
-    <cfRule type="containsBlanks" dxfId="195" priority="229">
+    <cfRule type="containsBlanks" dxfId="319" priority="441">
       <formula>LEN(TRIM(P56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="containsBlanks" dxfId="194" priority="228">
+    <cfRule type="containsBlanks" dxfId="318" priority="440">
       <formula>LEN(TRIM(P55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="containsBlanks" dxfId="193" priority="227">
+    <cfRule type="containsBlanks" dxfId="317" priority="439">
       <formula>LEN(TRIM(P54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="containsBlanks" dxfId="192" priority="226">
+    <cfRule type="containsBlanks" dxfId="316" priority="438">
       <formula>LEN(TRIM(P53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsBlanks" dxfId="191" priority="225">
+    <cfRule type="containsBlanks" dxfId="315" priority="437">
       <formula>LEN(TRIM(P52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="containsBlanks" dxfId="190" priority="224">
+    <cfRule type="containsBlanks" dxfId="314" priority="436">
       <formula>LEN(TRIM(P51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="containsBlanks" dxfId="189" priority="223">
+    <cfRule type="containsBlanks" dxfId="313" priority="435">
       <formula>LEN(TRIM(P50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsBlanks" dxfId="188" priority="222">
+    <cfRule type="containsBlanks" dxfId="312" priority="434">
       <formula>LEN(TRIM(P49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48">
-    <cfRule type="containsBlanks" dxfId="187" priority="221">
+    <cfRule type="containsBlanks" dxfId="311" priority="433">
       <formula>LEN(TRIM(P48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P107">
-    <cfRule type="containsBlanks" dxfId="186" priority="220">
+    <cfRule type="containsBlanks" dxfId="310" priority="432">
       <formula>LEN(TRIM(P107))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P116">
-    <cfRule type="containsBlanks" dxfId="185" priority="219">
+    <cfRule type="containsBlanks" dxfId="309" priority="431">
       <formula>LEN(TRIM(P116))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115">
-    <cfRule type="containsBlanks" dxfId="184" priority="218">
+    <cfRule type="containsBlanks" dxfId="308" priority="430">
       <formula>LEN(TRIM(P115))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P114">
-    <cfRule type="containsBlanks" dxfId="183" priority="217">
+    <cfRule type="containsBlanks" dxfId="307" priority="429">
       <formula>LEN(TRIM(P114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113">
-    <cfRule type="containsBlanks" dxfId="182" priority="216">
+    <cfRule type="containsBlanks" dxfId="306" priority="428">
       <formula>LEN(TRIM(P113))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P112">
-    <cfRule type="containsBlanks" dxfId="181" priority="215">
+    <cfRule type="containsBlanks" dxfId="305" priority="427">
       <formula>LEN(TRIM(P112))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P111">
-    <cfRule type="containsBlanks" dxfId="180" priority="214">
+    <cfRule type="containsBlanks" dxfId="304" priority="426">
       <formula>LEN(TRIM(P111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsBlanks" dxfId="179" priority="213">
+    <cfRule type="containsBlanks" dxfId="303" priority="425">
       <formula>LEN(TRIM(P110))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P109">
-    <cfRule type="containsBlanks" dxfId="178" priority="212">
+    <cfRule type="containsBlanks" dxfId="302" priority="424">
       <formula>LEN(TRIM(P109))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P108">
-    <cfRule type="containsBlanks" dxfId="177" priority="211">
+    <cfRule type="containsBlanks" dxfId="301" priority="423">
       <formula>LEN(TRIM(P108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P90">
-    <cfRule type="containsBlanks" dxfId="176" priority="210">
+    <cfRule type="containsBlanks" dxfId="300" priority="422">
       <formula>LEN(TRIM(P90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91">
-    <cfRule type="containsBlanks" dxfId="175" priority="209">
+    <cfRule type="containsBlanks" dxfId="299" priority="421">
       <formula>LEN(TRIM(P91))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P92:P98 P293">
-    <cfRule type="containsBlanks" dxfId="174" priority="208">
+  <conditionalFormatting sqref="P92:P98 P315">
+    <cfRule type="containsBlanks" dxfId="298" priority="420">
       <formula>LEN(TRIM(P92))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93">
-    <cfRule type="containsBlanks" dxfId="173" priority="207">
+    <cfRule type="containsBlanks" dxfId="297" priority="419">
       <formula>LEN(TRIM(P93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="containsBlanks" dxfId="172" priority="206">
+    <cfRule type="containsBlanks" dxfId="296" priority="418">
       <formula>LEN(TRIM(P31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P146">
-    <cfRule type="containsBlanks" dxfId="171" priority="205">
+    <cfRule type="containsBlanks" dxfId="295" priority="417">
       <formula>LEN(TRIM(P146))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P147">
-    <cfRule type="containsBlanks" dxfId="170" priority="204">
+    <cfRule type="containsBlanks" dxfId="294" priority="416">
       <formula>LEN(TRIM(P147))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P148">
-    <cfRule type="containsBlanks" dxfId="169" priority="203">
+    <cfRule type="containsBlanks" dxfId="293" priority="415">
       <formula>LEN(TRIM(P148))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P149">
-    <cfRule type="containsBlanks" dxfId="168" priority="202">
+    <cfRule type="containsBlanks" dxfId="292" priority="414">
       <formula>LEN(TRIM(P149))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="containsBlanks" dxfId="167" priority="201">
+    <cfRule type="containsBlanks" dxfId="291" priority="413">
       <formula>LEN(TRIM(P39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P162">
-    <cfRule type="containsBlanks" dxfId="166" priority="200">
+    <cfRule type="containsBlanks" dxfId="290" priority="412">
       <formula>LEN(TRIM(P162))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="containsBlanks" dxfId="165" priority="199">
+    <cfRule type="containsBlanks" dxfId="289" priority="411">
       <formula>LEN(TRIM(P163))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P164">
-    <cfRule type="containsBlanks" dxfId="164" priority="198">
+    <cfRule type="containsBlanks" dxfId="288" priority="410">
       <formula>LEN(TRIM(P164))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P165">
-    <cfRule type="containsBlanks" dxfId="163" priority="197">
+    <cfRule type="containsBlanks" dxfId="287" priority="409">
       <formula>LEN(TRIM(P165))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsBlanks" dxfId="162" priority="195">
+    <cfRule type="containsBlanks" dxfId="286" priority="407">
       <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="containsBlanks" dxfId="161" priority="194">
+    <cfRule type="containsBlanks" dxfId="285" priority="406">
       <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P158">
-    <cfRule type="containsBlanks" dxfId="160" priority="193">
+    <cfRule type="containsBlanks" dxfId="284" priority="405">
       <formula>LEN(TRIM(P158))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P159">
-    <cfRule type="containsBlanks" dxfId="159" priority="192">
+    <cfRule type="containsBlanks" dxfId="283" priority="404">
       <formula>LEN(TRIM(P159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P160">
-    <cfRule type="containsBlanks" dxfId="158" priority="191">
+    <cfRule type="containsBlanks" dxfId="282" priority="403">
       <formula>LEN(TRIM(P160))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P161">
-    <cfRule type="containsBlanks" dxfId="157" priority="190">
+    <cfRule type="containsBlanks" dxfId="281" priority="402">
       <formula>LEN(TRIM(P161))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208:E225">
-    <cfRule type="expression" dxfId="156" priority="1241">
+    <cfRule type="expression" dxfId="280" priority="1453">
       <formula>COUNTIFS($A:$A,$A205,$B:$B,$B205,$C:$C,$C205,$D:$D,$D205,$E:$E,$E208,$F:$F,$F205)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F213">
-    <cfRule type="expression" dxfId="155" priority="1242">
+    <cfRule type="expression" dxfId="279" priority="1454">
       <formula>COUNTIFS($A:$A,$A208,$B:$B,$B208,$C:$C,$C208,$D:$D,$D208,$E:$E,$E211,$F:$F,$F208)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A211:D213 F211:F213 A252:B254">
-    <cfRule type="expression" dxfId="154" priority="1244">
+  <conditionalFormatting sqref="A211:D213 F211:F213 A271:B276">
+    <cfRule type="expression" dxfId="278" priority="1456">
       <formula>COUNTIFS($A:$A,$A211,$B:$B,$B211,$C:$C,$C211,$D:$D,$D211,$E:$E,#REF!,$F:$F,$F211)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G145 G101:G102">
-    <cfRule type="expression" dxfId="153" priority="1343">
+    <cfRule type="expression" dxfId="277" priority="1555">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A100,$C:$C,$C100,$D:$D,$D100,$E:$E,$E100,$F:$F,$F100)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146 G103:G104">
-    <cfRule type="expression" dxfId="152" priority="1345">
+    <cfRule type="expression" dxfId="276" priority="1557">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A255:Q255 H257 G259:H259 H261 G263:H263 H265 G267:H267 H269 G272:H272 G274:H274 H276 G278:H278 H280 G282:H282 G286 H285 H289 G292:H292 G302:H302 G312:H312 G296 G306 G316 H295 H305 H299 H319 J257:K257 J259:K259 J261:K261 J263:K263 J265:K265 J267:K267 J269:K269 J272:K272 J274:K274 J276:K276 J278:K278 J280:K280 J282:K282 J284:K284 J286:K286 J288:K288 J290:K290 J292:K292 K294 K304 K314 K296 K306 K316 K298 K308 K318 K300 K310 K320 K302 K312">
-    <cfRule type="containsBlanks" dxfId="151" priority="188">
-      <formula>LEN(TRIM(A255))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A255:R255 H257 G259:H259 H261 G263:H263 H265 G267:H267 H269 G272:H272 G274:H274 H276 G278:H278 H280 G282:H282 G286 H285 H289 G292:H292 G302:H302 G312:H312 G296 G306 G316 H295 H305 H299 H319 J257:K257 J259:K259 J261:K261 J263:K263 J265:K265 J267:K267 J269:K269 J272:K272 J274:K274 J276:K276 J278:K278 J280:K280 J282:K282 J284:K284 J286:K286 J288:K288 J290:K290 J292:K292 K294 K304 K314 K296 K306 K316 K298 K308 K318 K300 K310 K320 K302 K312">
-    <cfRule type="containsText" dxfId="150" priority="187" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A255)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J256 J258 J260 J262 J264 J266 J268 J270 J273 J275 J277 J279 J281 J283 J285 J287 J289 J291">
-    <cfRule type="containsBlanks" dxfId="149" priority="186">
-      <formula>LEN(TRIM(J256))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J256 J258 J260 J262 J264 J266 J268 J270 J273 J275 J277 J279 J281 J283 J285 J287 J289 J291">
-    <cfRule type="containsText" dxfId="148" priority="185" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J256)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A266:F266 I266 C282:D282 I281 A287 B283:B284 C285 C288 C293 C299 C305 C311 C317 A298 A304 A310 A316 B289:B290 B294:B295 B300:B301 B306:B307 B312:B313 B318:B319 C291 C296 C302 C308 C314 C320">
-    <cfRule type="containsBlanks" dxfId="147" priority="183">
-      <formula>LEN(TRIM(A266))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A266:F266 I266 C282:D282 I281 A287 B283:B284 C285 C288 C293 C299 C305 C311 C317 A298 A304 A310 A316 B289:B290 B294:B295 B300:B301 B306:B307 B312:B313 B318:B319 C291 C296 C302 C308 C314 C320 R266">
-    <cfRule type="containsText" dxfId="146" priority="182" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A266)))</formula>
+  <conditionalFormatting sqref="A277:Q277 H279 G281:H281 H283 G285:H285 H287 G289:H289 H291 G294:H294 G296:H296 H298 G300:H300 H302 G304:H304 G308 H307 H311 G314:H314 G324:H324 G334:H334 G318 G328 G338 H317 H327 H321 H341 J279:K279 J281:K281 J283:K283 J285:K285 J287:K287 J289:K289 J291:K291 J294:K294 J296:K296 J298:K298 J300:K300 J302:K302 J304:K304 J306:K306 J308:K308 J310:K310 J312:K312 J314:K314 K316 K326 K336 K318 K328 K338 K320 K330 K340 K322 K332 K342 K324 K334 G272:G273 G268:H268 H270 H272 H274 H276">
+    <cfRule type="containsBlanks" dxfId="275" priority="400">
+      <formula>LEN(TRIM(A268))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A277:R277 H279 G281:H281 H283 G285:H285 H287 G289:H289 H291 G294:H294 G296:H296 H298 G300:H300 H302 G304:H304 G308 H307 H311 G314:H314 G324:H324 G334:H334 G318 G328 G338 H317 H327 H321 H341 J279:K279 J281:K281 J283:K283 J285:K285 J287:K287 J289:K289 J291:K291 J294:K294 J296:K296 J298:K298 J300:K300 J302:K302 J304:K304 J306:K306 J308:K308 J310:K310 J312:K312 J314:K314 K316 K326 K336 K318 K328 K338 K320 K330 K340 K322 K332 K342 K324 K334 G272:G273 G268:H268 H270 H272 H274 H276">
+    <cfRule type="containsText" dxfId="274" priority="399" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A268)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J278 J280 J282 J284 J286 J288 J290 J292 J295 J297 J299 J301 J303 J305 J307 J309 J311 J313">
+    <cfRule type="containsBlanks" dxfId="273" priority="398">
+      <formula>LEN(TRIM(J278))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J278 J280 J282 J284 J286 J288 J290 J292 J295 J297 J299 J301 J303 J305 J307 J309 J311 J313">
+    <cfRule type="containsText" dxfId="272" priority="397" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J278)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A288:F288 I288 C304:D304 I303 A309 B305:B306 C307 C310 C315 C321 C327 C333 C339 A320 A326 A332 A338 B311:B312 B316:B317 B322:B323 B328:B329 B334:B335 B340:B341 C313 C318 C324 C330 C336 C342">
+    <cfRule type="containsBlanks" dxfId="271" priority="395">
+      <formula>LEN(TRIM(A288))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A288:F288 I288 C304:D304 I303 A309 B305:B306 C307 C310 C315 C321 C327 C333 C339 A320 A326 A332 A338 B311:B312 B316:B317 B322:B323 B328:B329 B334:B335 B340:B341 C313 C318 C324 C330 C336 C342 R288">
+    <cfRule type="containsText" dxfId="270" priority="394" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A288)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P95">
-    <cfRule type="containsBlanks" dxfId="145" priority="181">
+    <cfRule type="containsBlanks" dxfId="269" priority="393">
       <formula>LEN(TRIM(P95))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P94:P98 P293">
-    <cfRule type="containsBlanks" dxfId="144" priority="180">
+  <conditionalFormatting sqref="P94:P98 P315">
+    <cfRule type="containsBlanks" dxfId="268" priority="392">
       <formula>LEN(TRIM(P94))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J294">
-    <cfRule type="containsBlanks" dxfId="143" priority="178">
-      <formula>LEN(TRIM(J294))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J295">
-    <cfRule type="containsBlanks" dxfId="142" priority="176">
-      <formula>LEN(TRIM(J295))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J296 J298 J300:J301 J313 J318 J310:J311 J320:J321 J308">
-    <cfRule type="containsBlanks" dxfId="141" priority="175">
-      <formula>LEN(TRIM(J296))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J296 J298 J300:J301 J313 J318 J310:J311 J320:J321 J308">
-    <cfRule type="containsText" dxfId="140" priority="174" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J296)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J297 J299 J302 J312 J317 J304 J319 J309 J314">
-    <cfRule type="containsBlanks" dxfId="139" priority="173">
-      <formula>LEN(TRIM(J297))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J297 J299 J302 J312 J317 J304 J319 J309 J314">
-    <cfRule type="containsText" dxfId="138" priority="172" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J297)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q266">
-    <cfRule type="containsBlanks" dxfId="137" priority="171">
-      <formula>LEN(TRIM(Q266))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q266">
-    <cfRule type="containsText" dxfId="136" priority="170" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L271:Q271 A271:F271 I271">
-    <cfRule type="containsBlanks" dxfId="135" priority="168">
-      <formula>LEN(TRIM(A271))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L271:R271 A271:F271 I271">
-    <cfRule type="containsText" dxfId="134" priority="167" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A271)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G271:H271 J271:K271">
-    <cfRule type="containsBlanks" dxfId="133" priority="166">
-      <formula>LEN(TRIM(G271))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G271:H271 J271:K271">
-    <cfRule type="containsText" dxfId="132" priority="165" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",G271)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q281">
-    <cfRule type="containsBlanks" dxfId="131" priority="164">
-      <formula>LEN(TRIM(Q281))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q281">
-    <cfRule type="containsText" dxfId="130" priority="163" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q281)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q280">
-    <cfRule type="containsBlanks" dxfId="129" priority="162">
-      <formula>LEN(TRIM(Q280))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q280">
-    <cfRule type="containsText" dxfId="128" priority="161" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q280)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q279">
-    <cfRule type="containsBlanks" dxfId="127" priority="160">
-      <formula>LEN(TRIM(Q279))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q279">
-    <cfRule type="containsText" dxfId="126" priority="159" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q279)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q278">
-    <cfRule type="containsBlanks" dxfId="125" priority="158">
-      <formula>LEN(TRIM(Q278))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q278">
-    <cfRule type="containsText" dxfId="124" priority="157" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q278)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q277">
-    <cfRule type="containsBlanks" dxfId="123" priority="156">
-      <formula>LEN(TRIM(Q277))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q277">
-    <cfRule type="containsText" dxfId="122" priority="155" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q277)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q276">
-    <cfRule type="containsBlanks" dxfId="121" priority="154">
-      <formula>LEN(TRIM(Q276))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q276">
-    <cfRule type="containsText" dxfId="120" priority="153" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q276)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q275">
-    <cfRule type="containsBlanks" dxfId="119" priority="152">
-      <formula>LEN(TRIM(Q275))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q275">
-    <cfRule type="containsText" dxfId="118" priority="151" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q275)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q274">
-    <cfRule type="containsBlanks" dxfId="117" priority="150">
-      <formula>LEN(TRIM(Q274))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q274">
-    <cfRule type="containsText" dxfId="116" priority="149" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q274)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q273">
-    <cfRule type="containsBlanks" dxfId="115" priority="148">
-      <formula>LEN(TRIM(Q273))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q273">
-    <cfRule type="containsText" dxfId="114" priority="147" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q273)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q272">
-    <cfRule type="containsBlanks" dxfId="113" priority="146">
-      <formula>LEN(TRIM(Q272))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q272">
-    <cfRule type="containsText" dxfId="112" priority="145" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q272)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L266:O266">
-    <cfRule type="containsBlanks" dxfId="111" priority="144">
-      <formula>LEN(TRIM(L266))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L266:O266">
-    <cfRule type="containsText" dxfId="110" priority="143" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L272:P272">
-    <cfRule type="containsBlanks" dxfId="109" priority="142">
-      <formula>LEN(TRIM(L272))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L272:P272">
-    <cfRule type="containsText" dxfId="108" priority="141" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L272)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L273:P273 L279:P279">
-    <cfRule type="containsBlanks" dxfId="107" priority="140">
-      <formula>LEN(TRIM(L273))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L273:P273 L279:P279">
-    <cfRule type="containsText" dxfId="106" priority="139" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L273)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L274:P274 L280:P280">
-    <cfRule type="containsBlanks" dxfId="105" priority="138">
-      <formula>LEN(TRIM(L274))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L274:P274 L280:P280">
-    <cfRule type="containsText" dxfId="104" priority="137" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L274)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L275:P275 L281:P281">
-    <cfRule type="containsBlanks" dxfId="103" priority="136">
-      <formula>LEN(TRIM(L275))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L275:P275 L281:P281">
-    <cfRule type="containsText" dxfId="102" priority="135" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L275)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L276:P276">
-    <cfRule type="containsBlanks" dxfId="101" priority="134">
-      <formula>LEN(TRIM(L276))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L276:P276">
-    <cfRule type="containsText" dxfId="100" priority="133" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L276)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L277:P277">
-    <cfRule type="containsBlanks" dxfId="99" priority="132">
-      <formula>LEN(TRIM(L277))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L277:P277">
-    <cfRule type="containsText" dxfId="98" priority="131" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L277)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L278:P278">
-    <cfRule type="containsBlanks" dxfId="97" priority="130">
-      <formula>LEN(TRIM(L278))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L278:P278">
-    <cfRule type="containsText" dxfId="96" priority="129" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L278)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="containsBlanks" dxfId="95" priority="127">
-      <formula>LEN(TRIM(J305))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="containsText" dxfId="94" priority="126" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J305)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305 J303">
-    <cfRule type="expression" dxfId="93" priority="128">
-      <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A303,$C:$C,$B303,$D:$D,$D303,$E:$E,$E303,$F:$F,$F303)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="containsBlanks" dxfId="92" priority="125">
-      <formula>LEN(TRIM(J305))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="containsBlanks" dxfId="91" priority="123">
-      <formula>LEN(TRIM(J303))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="containsText" dxfId="90" priority="122" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J303)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="containsBlanks" dxfId="89" priority="121">
-      <formula>LEN(TRIM(J303))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J315">
-    <cfRule type="containsBlanks" dxfId="88" priority="120">
-      <formula>LEN(TRIM(J315))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J315">
-    <cfRule type="containsText" dxfId="87" priority="119" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J315)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H315">
-    <cfRule type="containsBlanks" dxfId="86" priority="116">
-      <formula>LEN(TRIM(H315))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H315">
-    <cfRule type="containsText" dxfId="85" priority="115" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",H315)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H314">
-    <cfRule type="containsBlanks" dxfId="84" priority="114">
-      <formula>LEN(TRIM(H314))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H314">
-    <cfRule type="containsText" dxfId="83" priority="113" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",H314)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H309">
-    <cfRule type="containsBlanks" dxfId="82" priority="112">
-      <formula>LEN(TRIM(H309))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H309">
-    <cfRule type="containsText" dxfId="81" priority="111" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",H309)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P266">
-    <cfRule type="containsBlanks" dxfId="80" priority="110">
-      <formula>LEN(TRIM(P266))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P266">
-    <cfRule type="containsText" dxfId="79" priority="109" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",P266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H316">
-    <cfRule type="containsBlanks" dxfId="78" priority="108">
-      <formula>LEN(TRIM(H316))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H316">
-    <cfRule type="containsText" dxfId="77" priority="107" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",H316)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J316">
-    <cfRule type="containsBlanks" dxfId="76" priority="106">
+    <cfRule type="containsBlanks" dxfId="267" priority="390">
       <formula>LEN(TRIM(J316))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J316">
-    <cfRule type="containsText" dxfId="75" priority="105" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J316)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J306">
-    <cfRule type="containsBlanks" dxfId="74" priority="104">
-      <formula>LEN(TRIM(J306))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J306">
-    <cfRule type="containsText" dxfId="73" priority="103" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J306)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J307">
-    <cfRule type="containsBlanks" dxfId="72" priority="102">
-      <formula>LEN(TRIM(J307))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J307">
-    <cfRule type="containsText" dxfId="71" priority="101" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",J307)))</formula>
+  <conditionalFormatting sqref="J317">
+    <cfRule type="containsBlanks" dxfId="266" priority="388">
+      <formula>LEN(TRIM(J317))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J318 J320 J322:J323 J335 J340 J332:J333 J342:J343 J330">
+    <cfRule type="containsBlanks" dxfId="265" priority="387">
+      <formula>LEN(TRIM(J318))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J318 J320 J322:J323 J335 J340 J332:J333 J342:J343 J330">
+    <cfRule type="containsText" dxfId="264" priority="386" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J318)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J319 J321 J324 J334 J339 J326 J341 J331 J336">
+    <cfRule type="containsBlanks" dxfId="263" priority="385">
+      <formula>LEN(TRIM(J319))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J319 J321 J324 J334 J339 J326 J341 J331 J336">
+    <cfRule type="containsText" dxfId="262" priority="384" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J319)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q288">
+    <cfRule type="containsBlanks" dxfId="261" priority="383">
+      <formula>LEN(TRIM(Q288))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q288">
+    <cfRule type="containsText" dxfId="260" priority="382" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q288)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L293:Q293 A293:F293 I293">
+    <cfRule type="containsBlanks" dxfId="259" priority="380">
+      <formula>LEN(TRIM(A293))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L293:R293 A293:F293 I293">
+    <cfRule type="containsText" dxfId="258" priority="379" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A293)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G293:H293 J293:K293">
+    <cfRule type="containsBlanks" dxfId="257" priority="378">
+      <formula>LEN(TRIM(G293))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G293:H293 J293:K293">
+    <cfRule type="containsText" dxfId="256" priority="377" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",G293)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q303">
+    <cfRule type="containsBlanks" dxfId="255" priority="376">
+      <formula>LEN(TRIM(Q303))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q303">
+    <cfRule type="containsText" dxfId="254" priority="375" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q303)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q302">
+    <cfRule type="containsBlanks" dxfId="253" priority="374">
+      <formula>LEN(TRIM(Q302))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q302">
+    <cfRule type="containsText" dxfId="252" priority="373" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q301">
+    <cfRule type="containsBlanks" dxfId="251" priority="372">
+      <formula>LEN(TRIM(Q301))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q301">
+    <cfRule type="containsText" dxfId="250" priority="371" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q301)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q300">
+    <cfRule type="containsBlanks" dxfId="249" priority="370">
+      <formula>LEN(TRIM(Q300))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q300">
+    <cfRule type="containsText" dxfId="248" priority="369" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q300)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q299">
+    <cfRule type="containsBlanks" dxfId="247" priority="368">
+      <formula>LEN(TRIM(Q299))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q299">
+    <cfRule type="containsText" dxfId="246" priority="367" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q298">
+    <cfRule type="containsBlanks" dxfId="245" priority="366">
+      <formula>LEN(TRIM(Q298))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q298">
+    <cfRule type="containsText" dxfId="244" priority="365" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q298)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q297">
+    <cfRule type="containsBlanks" dxfId="243" priority="364">
+      <formula>LEN(TRIM(Q297))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q297">
+    <cfRule type="containsText" dxfId="242" priority="363" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q297)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q296">
+    <cfRule type="containsBlanks" dxfId="241" priority="362">
+      <formula>LEN(TRIM(Q296))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q296">
+    <cfRule type="containsText" dxfId="240" priority="361" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q295">
+    <cfRule type="containsBlanks" dxfId="239" priority="360">
+      <formula>LEN(TRIM(Q295))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q295">
+    <cfRule type="containsText" dxfId="238" priority="359" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q295)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q294">
+    <cfRule type="containsBlanks" dxfId="237" priority="358">
+      <formula>LEN(TRIM(Q294))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q294">
+    <cfRule type="containsText" dxfId="236" priority="357" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q294)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L288:O288">
+    <cfRule type="containsBlanks" dxfId="235" priority="356">
+      <formula>LEN(TRIM(L288))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L288:O288">
+    <cfRule type="containsText" dxfId="234" priority="355" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L288)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L294:P294">
+    <cfRule type="containsBlanks" dxfId="233" priority="354">
+      <formula>LEN(TRIM(L294))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L294:P294">
+    <cfRule type="containsText" dxfId="232" priority="353" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L294)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L295:P295 L301:P301">
+    <cfRule type="containsBlanks" dxfId="231" priority="352">
+      <formula>LEN(TRIM(L295))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L295:P295 L301:P301">
+    <cfRule type="containsText" dxfId="230" priority="351" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L295)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L296:P296 L302:P302">
+    <cfRule type="containsBlanks" dxfId="229" priority="350">
+      <formula>LEN(TRIM(L296))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L296:P296 L302:P302">
+    <cfRule type="containsText" dxfId="228" priority="349" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L297:P297 L303:P303">
+    <cfRule type="containsBlanks" dxfId="227" priority="348">
+      <formula>LEN(TRIM(L297))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L297:P297 L303:P303">
+    <cfRule type="containsText" dxfId="226" priority="347" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L297)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298:P298">
+    <cfRule type="containsBlanks" dxfId="225" priority="346">
+      <formula>LEN(TRIM(L298))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298:P298">
+    <cfRule type="containsText" dxfId="224" priority="345" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L298)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299:P299">
+    <cfRule type="containsBlanks" dxfId="223" priority="344">
+      <formula>LEN(TRIM(L299))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299:P299">
+    <cfRule type="containsText" dxfId="222" priority="343" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300:P300">
+    <cfRule type="containsBlanks" dxfId="221" priority="342">
+      <formula>LEN(TRIM(L300))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300:P300">
+    <cfRule type="containsText" dxfId="220" priority="341" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L300)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="containsBlanks" dxfId="219" priority="339">
+      <formula>LEN(TRIM(J327))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="containsText" dxfId="218" priority="338" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J327)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327 J325">
+    <cfRule type="expression" dxfId="217" priority="340">
+      <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A325,$C:$C,$B325,$D:$D,$D325,$E:$E,$E325,$F:$F,$F325)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="containsBlanks" dxfId="216" priority="337">
+      <formula>LEN(TRIM(J327))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="containsBlanks" dxfId="215" priority="335">
+      <formula>LEN(TRIM(J325))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="containsText" dxfId="214" priority="334" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J325)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="containsBlanks" dxfId="213" priority="333">
+      <formula>LEN(TRIM(J325))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J337">
+    <cfRule type="containsBlanks" dxfId="212" priority="332">
+      <formula>LEN(TRIM(J337))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J337">
+    <cfRule type="containsText" dxfId="211" priority="331" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J337)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H337">
+    <cfRule type="containsBlanks" dxfId="210" priority="328">
+      <formula>LEN(TRIM(H337))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H337">
+    <cfRule type="containsText" dxfId="209" priority="327" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H337)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H336">
+    <cfRule type="containsBlanks" dxfId="208" priority="326">
+      <formula>LEN(TRIM(H336))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H336">
+    <cfRule type="containsText" dxfId="207" priority="325" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H336)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H331">
+    <cfRule type="containsBlanks" dxfId="206" priority="324">
+      <formula>LEN(TRIM(H331))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H331">
+    <cfRule type="containsText" dxfId="205" priority="323" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H331)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P288">
+    <cfRule type="containsBlanks" dxfId="204" priority="322">
+      <formula>LEN(TRIM(P288))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P288">
+    <cfRule type="containsText" dxfId="203" priority="321" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",P288)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H338">
+    <cfRule type="containsBlanks" dxfId="202" priority="320">
+      <formula>LEN(TRIM(H338))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H338">
+    <cfRule type="containsText" dxfId="201" priority="319" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",H338)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J338">
+    <cfRule type="containsBlanks" dxfId="200" priority="318">
+      <formula>LEN(TRIM(J338))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J338">
+    <cfRule type="containsText" dxfId="199" priority="317" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J338)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J328">
+    <cfRule type="containsBlanks" dxfId="198" priority="316">
+      <formula>LEN(TRIM(J328))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J328">
+    <cfRule type="containsText" dxfId="197" priority="315" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J328)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J329">
+    <cfRule type="containsBlanks" dxfId="196" priority="314">
+      <formula>LEN(TRIM(J329))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J329">
+    <cfRule type="containsText" dxfId="195" priority="313" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J329)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E226:E234">
-    <cfRule type="expression" dxfId="70" priority="1866">
+    <cfRule type="expression" dxfId="194" priority="2078">
       <formula>COUNTIFS($A:$A,$A215,$B:$B,$B215,$C:$C,$C215,$D:$D,$D215,$E:$E,$E226,$F:$F,$F215)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221:I221 K221:P221">
-    <cfRule type="containsBlanks" dxfId="69" priority="98">
+    <cfRule type="containsBlanks" dxfId="193" priority="310">
       <formula>LEN(TRIM(A221))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221:I221 R221 K221:P221">
-    <cfRule type="containsText" dxfId="68" priority="97" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="192" priority="309" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222:I222 K222:P222">
-    <cfRule type="containsBlanks" dxfId="67" priority="94">
+    <cfRule type="containsBlanks" dxfId="191" priority="306">
       <formula>LEN(TRIM(A222))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222:I222 R222 K222:P222">
-    <cfRule type="containsText" dxfId="66" priority="93" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="190" priority="305" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A222)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223:I223 K223:P223">
-    <cfRule type="containsBlanks" dxfId="65" priority="90">
+    <cfRule type="containsBlanks" dxfId="189" priority="302">
       <formula>LEN(TRIM(A223))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223:I223 R223 K223:P223">
-    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="188" priority="301" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q224">
-    <cfRule type="containsBlanks" dxfId="63" priority="88">
+    <cfRule type="containsBlanks" dxfId="187" priority="300">
       <formula>LEN(TRIM(Q224))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q224">
-    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="186" priority="299" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",Q224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224:P224">
-    <cfRule type="containsBlanks" dxfId="61" priority="84">
+    <cfRule type="containsBlanks" dxfId="185" priority="296">
       <formula>LEN(TRIM(A224))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224:P224 R224">
-    <cfRule type="containsText" dxfId="60" priority="83" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="184" priority="295" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A228:I228 H230 K228:Q228 I237 I245 I251">
-    <cfRule type="containsBlanks" dxfId="59" priority="80">
+  <conditionalFormatting sqref="A228:I228 H230 K228:Q228 I237 I251">
+    <cfRule type="containsBlanks" dxfId="183" priority="292">
       <formula>LEN(TRIM(A228))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A228:I228 H230 K228:R228 I237 I245 I251">
-    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="itv">
+  <conditionalFormatting sqref="A228:I228 H230 K228:R228 I237 I251">
+    <cfRule type="containsText" dxfId="182" priority="291" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A228)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A229:G229 I229 K229:Q229 I238 I246 I252">
-    <cfRule type="containsBlanks" dxfId="57" priority="76">
+  <conditionalFormatting sqref="A229:G229 I229 K229:Q229 I238 I255 I260 I265 I267 I274 I272">
+    <cfRule type="containsBlanks" dxfId="181" priority="288">
       <formula>LEN(TRIM(A229))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A229:G229 I229 K229:R229 I238 I246 I252">
-    <cfRule type="containsText" dxfId="56" priority="75" operator="containsText" text="itv">
+  <conditionalFormatting sqref="A229:G229 I229 K229:R229 I238 I255 I260 I265 I267 I274 I272">
+    <cfRule type="containsText" dxfId="180" priority="287" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A229)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A230:G230 I230 K230:Q230 I239 I247">
-    <cfRule type="containsBlanks" dxfId="55" priority="72">
+  <conditionalFormatting sqref="A230:G230 I230 K230:Q230 I239 I257 I262 I269">
+    <cfRule type="containsBlanks" dxfId="179" priority="284">
       <formula>LEN(TRIM(A230))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A230:G230 I230 K230:R230 I239 I247">
-    <cfRule type="containsText" dxfId="54" priority="71" operator="containsText" text="itv">
+  <conditionalFormatting sqref="A230:G230 I230 K230:R230 I239 I257 I262 I269">
+    <cfRule type="containsText" dxfId="178" priority="283" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A230)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A231:Q232 K247 K242:Q246 A233:H233 J233:Q233 I242:I243 I248:I249 A237:H239 K237:P237 I253 K251:K254 K238:Q239">
-    <cfRule type="containsBlanks" dxfId="53" priority="68">
+  <conditionalFormatting sqref="A231:Q232 K242:P242 A233:H233 J233:Q233 I242 K237:P237 I276 K238:Q239 I247 K249 K255 K251 A237:H239 G243:G245 G249:G251 G255:G257 K247:P247 L252:P252 K257:P257 K264 K260 K270 K276 K266 K272">
+    <cfRule type="containsBlanks" dxfId="177" priority="280">
       <formula>LEN(TRIM(A231))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A231:R232 K247 K242:R246 A233:H233 J233:R233 I242:I243 I248:I249 A237:H239 K237:P237 R237 I253 K251:K254 K238:R239">
-    <cfRule type="containsText" dxfId="52" priority="67" operator="containsText" text="itv">
+  <conditionalFormatting sqref="A231:R232 K242:P242 A233:H233 J233:R233 I242 K237:P237 R237 I276 K238:R239 I247 K249 K255 K251 A237:H239 G243:G245 G249:G251 G255:G257 R242 R251 R255 R249 R247 K247:P247 L252:P252 K257:P257 K264 K260 K270 K276 K266 K272">
+    <cfRule type="containsText" dxfId="176" priority="279" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D232">
-    <cfRule type="containsBlanks" dxfId="51" priority="66">
+    <cfRule type="containsBlanks" dxfId="175" priority="278">
       <formula>LEN(TRIM(D232))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D232">
-    <cfRule type="containsText" dxfId="50" priority="65" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="174" priority="277" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",D232)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A248:H248 L248:Q248 E243 E246 J248">
-    <cfRule type="containsBlanks" dxfId="49" priority="62">
+  <conditionalFormatting sqref="E247 E255">
+    <cfRule type="containsBlanks" dxfId="173" priority="274">
+      <formula>LEN(TRIM(E247))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E247 E255">
+    <cfRule type="containsText" dxfId="172" priority="273" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="containsBlanks" dxfId="171" priority="268">
+      <formula>LEN(TRIM(E249))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="containsText" dxfId="170" priority="267" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E249)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A270:F270 E272 E274 E268">
+    <cfRule type="containsBlanks" dxfId="169" priority="262">
+      <formula>LEN(TRIM(A268))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A270:F270 R270 E272 E274 E268">
+    <cfRule type="containsText" dxfId="168" priority="261" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A268)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E235">
+    <cfRule type="expression" dxfId="167" priority="3352">
+      <formula>COUNTIFS($A:$A,$A223,$B:$B,$B223,$C:$C,$C223,$D:$D,$D223,$E:$E,$E235,$F:$F,$F223)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I235">
+    <cfRule type="containsBlanks" dxfId="166" priority="256">
+      <formula>LEN(TRIM(I235))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I235">
+    <cfRule type="containsText" dxfId="165" priority="255" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A235:H235 J235:Q235 G241 G247 G253 G259:G267">
+    <cfRule type="containsBlanks" dxfId="164" priority="254">
+      <formula>LEN(TRIM(A235))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A235:H235 J235:R235 G241 G247 G253 G259:G267">
+    <cfRule type="containsText" dxfId="163" priority="253" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I234">
+    <cfRule type="containsBlanks" dxfId="162" priority="250">
+      <formula>LEN(TRIM(I234))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I234">
+    <cfRule type="containsText" dxfId="161" priority="249" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A234:H234 J234:Q234 G240 G246 G252 G258">
+    <cfRule type="containsBlanks" dxfId="160" priority="248">
+      <formula>LEN(TRIM(A234))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A234:H234 J234:R234 G240 G246 G252 G258">
+    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q237">
+    <cfRule type="containsBlanks" dxfId="158" priority="246">
+      <formula>LEN(TRIM(Q237))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q237">
+    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I236">
+    <cfRule type="containsBlanks" dxfId="156" priority="242">
+      <formula>LEN(TRIM(I236))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I236">
+    <cfRule type="containsText" dxfId="155" priority="241" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236:H236 J236:P236 J237:J241 G242 G248 G254">
+    <cfRule type="containsBlanks" dxfId="154" priority="240">
+      <formula>LEN(TRIM(A236))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236:H236 J236:P236 R236 J237:J241 G242 G248 G254">
+    <cfRule type="containsText" dxfId="153" priority="239" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="containsBlanks" dxfId="152" priority="238">
+      <formula>LEN(TRIM(Q236))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="containsText" dxfId="151" priority="237" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E236:E237">
+    <cfRule type="expression" dxfId="150" priority="3926">
+      <formula>COUNTIFS($A:$A,$A222,$B:$B,$B222,$C:$C,$C222,$D:$D,$D222,$E:$E,$E236,$F:$F,$F222)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E238:E241">
+    <cfRule type="expression" dxfId="149" priority="3927">
+      <formula>COUNTIFS($A:$A,$A221,$B:$B,$B221,$C:$C,$C221,$D:$D,$D221,$E:$E,$E238,$F:$F,$F221)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E242:E244">
+    <cfRule type="expression" dxfId="148" priority="4065">
+      <formula>COUNTIFS($A:$A,$A210,$B:$B,$B210,$C:$C,$C210,$D:$D,$D210,$E:$E,$E242,$F:$F,$F210)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I240">
+    <cfRule type="containsBlanks" dxfId="147" priority="226">
+      <formula>LEN(TRIM(I240))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I240">
+    <cfRule type="containsText" dxfId="146" priority="225" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I240)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K240 A240:F240 H240">
+    <cfRule type="containsBlanks" dxfId="145" priority="224">
+      <formula>LEN(TRIM(A240))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K240 A240:F240 R240 H240">
+    <cfRule type="containsText" dxfId="144" priority="223" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A240)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I241">
+    <cfRule type="containsBlanks" dxfId="143" priority="220">
+      <formula>LEN(TRIM(I241))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I241">
+    <cfRule type="containsText" dxfId="142" priority="219" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K241 A241:F241 H241">
+    <cfRule type="containsBlanks" dxfId="141" priority="218">
+      <formula>LEN(TRIM(A241))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K241 A241:F241 R241 H241">
+    <cfRule type="containsText" dxfId="140" priority="217" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L240:Q240">
+    <cfRule type="containsBlanks" dxfId="139" priority="216">
+      <formula>LEN(TRIM(L240))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L240:Q240">
+    <cfRule type="containsText" dxfId="138" priority="215" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L240)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L241:P241">
+    <cfRule type="containsBlanks" dxfId="137" priority="214">
+      <formula>LEN(TRIM(L241))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L241:P241">
+    <cfRule type="containsText" dxfId="136" priority="213" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A243:F243 J243 H243 H246 H249 H252 H255 H258 H262 H266">
+    <cfRule type="containsBlanks" dxfId="135" priority="210">
       <formula>LEN(TRIM(A243))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A248:H248 L248:R248 E243 E246 J248">
-    <cfRule type="containsText" dxfId="48" priority="61" operator="containsText" text="itv">
+  <conditionalFormatting sqref="A243:F243 J243 H243 H246 H249 H252 H255 H258 H262 H266">
+    <cfRule type="containsText" dxfId="134" priority="209" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A243)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K243 I243">
+    <cfRule type="containsBlanks" dxfId="133" priority="208">
+      <formula>LEN(TRIM(I243))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K243 I243 R243">
+    <cfRule type="containsText" dxfId="132" priority="207" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I243)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244:F244 J244 H244 H247 H250 H253 H256 H259:H260 H263:H264 H267">
+    <cfRule type="containsBlanks" dxfId="131" priority="204">
+      <formula>LEN(TRIM(A244))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244:F244 J244 H244 H247 H250 H253 H256 H259:H260 H263:H264 H267">
+    <cfRule type="containsText" dxfId="130" priority="203" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K244 I244">
+    <cfRule type="containsBlanks" dxfId="129" priority="202">
+      <formula>LEN(TRIM(I244))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K244 I244 R244">
+    <cfRule type="containsText" dxfId="128" priority="201" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246:F246">
+    <cfRule type="containsBlanks" dxfId="127" priority="180">
+      <formula>LEN(TRIM(A246))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246:F246">
+    <cfRule type="containsText" dxfId="126" priority="179" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K246 I246">
+    <cfRule type="containsBlanks" dxfId="125" priority="178">
+      <formula>LEN(TRIM(I246))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K246 I246 R246">
+    <cfRule type="containsText" dxfId="124" priority="177" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E246">
+    <cfRule type="containsBlanks" dxfId="123" priority="176">
+      <formula>LEN(TRIM(E246))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E246">
+    <cfRule type="containsText" dxfId="122" priority="175" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245:F245">
+    <cfRule type="containsBlanks" dxfId="121" priority="172">
+      <formula>LEN(TRIM(A245))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245:F245">
+    <cfRule type="containsText" dxfId="120" priority="171" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K245 I245">
+    <cfRule type="containsBlanks" dxfId="119" priority="170">
+      <formula>LEN(TRIM(I245))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K245 I245 R245">
+    <cfRule type="containsText" dxfId="118" priority="169" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E245">
+    <cfRule type="containsBlanks" dxfId="117" priority="168">
+      <formula>LEN(TRIM(E245))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E245">
+    <cfRule type="containsText" dxfId="116" priority="167" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248:F248 I248 A258 A266 A274">
+    <cfRule type="containsBlanks" dxfId="115" priority="164">
+      <formula>LEN(TRIM(A248))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248:F248 I248 A258 A266 A274">
+    <cfRule type="containsText" dxfId="114" priority="163" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K248">
-    <cfRule type="containsBlanks" dxfId="47" priority="60">
+    <cfRule type="containsBlanks" dxfId="113" priority="162">
       <formula>LEN(TRIM(K248))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K248">
-    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="itv">
+  <conditionalFormatting sqref="K248 R248">
+    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",K248)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A249:H250 L249:Q250 E244 J249:J250">
-    <cfRule type="containsBlanks" dxfId="45" priority="56">
-      <formula>LEN(TRIM(A244))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A249:H250 L249:R250 E244 J249:J250">
-    <cfRule type="containsText" dxfId="44" priority="55" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K249:K250">
-    <cfRule type="containsBlanks" dxfId="43" priority="54">
-      <formula>LEN(TRIM(K249))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K249:K250">
-    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",K249)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A251:H251 L251:Q251 J251">
-    <cfRule type="containsBlanks" dxfId="41" priority="50">
-      <formula>LEN(TRIM(A251))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A251:H251 L251:R251 J251">
-    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A251)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E235">
-    <cfRule type="expression" dxfId="39" priority="3140">
-      <formula>COUNTIFS($A:$A,$A223,$B:$B,$B223,$C:$C,$C223,$D:$D,$D223,$E:$E,$E235,$F:$F,$F223)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I235">
-    <cfRule type="containsBlanks" dxfId="38" priority="44">
-      <formula>LEN(TRIM(I235))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I235">
-    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",I235)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A235:H235 J235:Q235">
-    <cfRule type="containsBlanks" dxfId="36" priority="42">
-      <formula>LEN(TRIM(A235))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A235:H235 J235:R235">
-    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A235)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I234">
-    <cfRule type="containsBlanks" dxfId="34" priority="38">
-      <formula>LEN(TRIM(I234))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I234">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",I234)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A234:H234 J234:Q234">
-    <cfRule type="containsBlanks" dxfId="32" priority="36">
-      <formula>LEN(TRIM(A234))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A234:H234 J234:R234">
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A234)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q237">
-    <cfRule type="containsBlanks" dxfId="30" priority="34">
-      <formula>LEN(TRIM(Q237))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q237">
-    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I236">
+  <conditionalFormatting sqref="E248">
+    <cfRule type="containsBlanks" dxfId="111" priority="160">
+      <formula>LEN(TRIM(E248))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248">
+    <cfRule type="containsText" dxfId="110" priority="159" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252:F252 I252:J252 A262 B259 B266 C260 B269 B276 A270">
+    <cfRule type="containsBlanks" dxfId="109" priority="148">
+      <formula>LEN(TRIM(A252))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252:F252 I252:J252 A262 B259 B266 C260 B269 B276 A270">
+    <cfRule type="containsText" dxfId="108" priority="147" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K252 K261 K267 K273">
+    <cfRule type="containsBlanks" dxfId="107" priority="146">
+      <formula>LEN(TRIM(K252))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K252 R252 K261 K267 K273">
+    <cfRule type="containsText" dxfId="106" priority="145" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",K252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E252">
+    <cfRule type="containsBlanks" dxfId="105" priority="144">
+      <formula>LEN(TRIM(E252))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E252">
+    <cfRule type="containsText" dxfId="104" priority="143" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256:F256 I256:J256 A266 B263 C264 I261 I266 B273 C270 I268 I275 I273">
+    <cfRule type="containsBlanks" dxfId="103" priority="140">
+      <formula>LEN(TRIM(A256))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256:F256 I256:J256 A266 B263 C264 I261 I266 B273 C270 I268 I275 I273">
+    <cfRule type="containsText" dxfId="102" priority="139" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A256)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K256 K265 K271">
+    <cfRule type="containsBlanks" dxfId="101" priority="138">
+      <formula>LEN(TRIM(K256))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K256 R256 K265 K271">
+    <cfRule type="containsText" dxfId="100" priority="137" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",K256)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E256">
+    <cfRule type="containsBlanks" dxfId="99" priority="136">
+      <formula>LEN(TRIM(E256))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E256">
+    <cfRule type="containsText" dxfId="98" priority="135" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E256)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259:C263 C267:C269 C273:C275">
+    <cfRule type="containsBlanks" dxfId="97" priority="112">
+      <formula>LEN(TRIM(C259))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259:C263 C267:C269 C273:C275">
+    <cfRule type="containsText" dxfId="96" priority="111" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",C259)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259:F263 D261:D269 B269:B273 C267:C269 C273:C275 A267:A271 A275:A276">
+    <cfRule type="containsBlanks" dxfId="95" priority="108">
+      <formula>LEN(TRIM(A259))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259:F263 R259:R263 D261:D269 B269:B273 C267:C269 C273:C275 A267:A271 A275:A276">
+    <cfRule type="containsText" dxfId="94" priority="107" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A259)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E245:E247">
+    <cfRule type="expression" dxfId="93" priority="5687">
+      <formula>COUNTIFS($A:$A,$A209,$B:$B,$B209,$C:$C,$C209,$D:$D,$D209,$E:$E,$E245,$F:$F,$F209)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248:E250 E252:E254">
+    <cfRule type="expression" dxfId="92" priority="5690">
+      <formula>COUNTIFS($A:$A,$A211,$B:$B,$B211,$C:$C,$C211,$D:$D,$D211,$E:$E,$E248,$F:$F,$F211)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E251">
+    <cfRule type="expression" dxfId="91" priority="5691">
+      <formula>COUNTIFS($A:$A,$A213,$B:$B,$B213,$C:$C,$C213,$D:$D,$D213,$E:$E,$E251,$F:$F,$F213)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E255">
+    <cfRule type="expression" dxfId="90" priority="5995">
+      <formula>COUNTIFS($A:$A,$A214,$B:$B,$B214,$C:$C,$C214,$D:$D,$D214,$E:$E,$E255,$F:$F,$F214)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A253:F253 I253:J253 A263 B260 C261 B270 C267 C273 A271">
+    <cfRule type="containsBlanks" dxfId="89" priority="94">
+      <formula>LEN(TRIM(A253))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A253:F253 I253:J253 A263 B260 C261 B270 C267 C273 A271">
+    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K253 K262 K268 K274">
+    <cfRule type="containsBlanks" dxfId="87" priority="92">
+      <formula>LEN(TRIM(K253))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K253 R253 K262 K268 K274">
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",K253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253">
+    <cfRule type="containsBlanks" dxfId="85" priority="90">
+      <formula>LEN(TRIM(E253))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253">
+    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250:F250 I250:J250 A260 B257 B264 B274 A268 A276">
+    <cfRule type="containsBlanks" dxfId="83" priority="86">
+      <formula>LEN(TRIM(A250))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250:F250 I250:J250 A260 B257 B264 B274 A268 A276">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A250)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K250 K259">
+    <cfRule type="containsBlanks" dxfId="81" priority="84">
+      <formula>LEN(TRIM(K250))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K250 R250 K259">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",K250)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E250">
+    <cfRule type="containsBlanks" dxfId="79" priority="82">
+      <formula>LEN(TRIM(E250))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E250">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E250)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E259:E263 E265:E266">
+    <cfRule type="expression" dxfId="77" priority="6149">
+      <formula>COUNTIFS($A:$A,$A213,$B:$B,$B213,$C:$C,$C213,$D:$D,$D213,$E:$E,$E259,$F:$F,$F213)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258:F258 J258 C266 B268 C272 A266 A274">
+    <cfRule type="containsBlanks" dxfId="76" priority="78">
+      <formula>LEN(TRIM(A258))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R258 A258:F258 J258 C266 B268 C272 A266 A274">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A258)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I258 I263 I270">
+    <cfRule type="containsBlanks" dxfId="74" priority="76">
+      <formula>LEN(TRIM(I258))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I258 I263 I270">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",I258)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K258">
+    <cfRule type="containsBlanks" dxfId="72" priority="74">
+      <formula>LEN(TRIM(K258))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K258">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",K258)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E256">
+    <cfRule type="expression" dxfId="70" priority="6295">
+      <formula>COUNTIFS($A:$A,$A217,$B:$B,$B217,$C:$C,$C217,$D:$D,$D217,$E:$E,$E256,$F:$F,$F217)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E257:E258">
+    <cfRule type="expression" dxfId="69" priority="6298">
+      <formula>COUNTIFS($A:$A,$A215,$B:$B,$B215,$C:$C,$C215,$D:$D,$D215,$E:$E,$E257,$F:$F,$F215)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A254:F254 I254:J254 A264 B261 C262 I259 I264 B271 C268 C274 I271 A272">
+    <cfRule type="containsBlanks" dxfId="68" priority="70">
+      <formula>LEN(TRIM(A254))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A254:F254 I254:J254 A264 B261 C262 I259 I264 B271 C268 C274 I271 A272">
+    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",A254)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K254 K263 K269 K275">
+    <cfRule type="containsBlanks" dxfId="66" priority="68">
+      <formula>LEN(TRIM(K254))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K254 R254 K263 K269 K275">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",K254)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E254">
+    <cfRule type="containsBlanks" dxfId="64" priority="66">
+      <formula>LEN(TRIM(E254))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E254">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E254)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J245">
+    <cfRule type="containsBlanks" dxfId="62" priority="64">
+      <formula>LEN(TRIM(J245))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J245">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J242">
+    <cfRule type="containsBlanks" dxfId="60" priority="62">
+      <formula>LEN(TRIM(J242))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J242">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J242)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J246">
+    <cfRule type="containsBlanks" dxfId="58" priority="60">
+      <formula>LEN(TRIM(J246))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J246">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J248">
+    <cfRule type="containsBlanks" dxfId="56" priority="58">
+      <formula>LEN(TRIM(J248))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J248">
+    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J251">
+    <cfRule type="containsBlanks" dxfId="54" priority="56">
+      <formula>LEN(TRIM(J251))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J251">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J251)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J255">
+    <cfRule type="containsBlanks" dxfId="52" priority="54">
+      <formula>LEN(TRIM(J255))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J255">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J255)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J257">
+    <cfRule type="containsBlanks" dxfId="50" priority="52">
+      <formula>LEN(TRIM(J257))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J257">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J257)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J259:J276">
+    <cfRule type="containsBlanks" dxfId="48" priority="50">
+      <formula>LEN(TRIM(J259))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J259:J276">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",J259)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q241">
+    <cfRule type="containsBlanks" dxfId="46" priority="48">
+      <formula>LEN(TRIM(Q241))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q241">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q242 Q247 Q252 Q257">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
+      <formula>LEN(TRIM(Q242))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q242 Q247 Q252 Q257">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q242)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L243:P243 L248:P248 L253:P253 L258:P258">
+    <cfRule type="containsBlanks" dxfId="42" priority="44">
+      <formula>LEN(TRIM(L243))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L243:P243 L248:P248 L253:P253 L258:P258">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L243)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q243 Q248 Q253 Q258">
+    <cfRule type="containsBlanks" dxfId="40" priority="42">
+      <formula>LEN(TRIM(Q243))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q243 Q248 Q253 Q258">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q243)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L244:P244 L249:P249 L254:P254 L259:P259">
+    <cfRule type="containsBlanks" dxfId="38" priority="40">
+      <formula>LEN(TRIM(L244))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L244:P244 L249:P249 L254:P254 L259:P259">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q244 Q249 Q254 Q259">
+    <cfRule type="containsBlanks" dxfId="36" priority="38">
+      <formula>LEN(TRIM(Q244))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q244 Q249 Q254 Q259">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L245:P245 L250:P250 L255:P255">
+    <cfRule type="containsBlanks" dxfId="34" priority="36">
+      <formula>LEN(TRIM(L245))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L245:P245 L250:P250 L255:P255">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q245 Q250 Q255">
+    <cfRule type="containsBlanks" dxfId="32" priority="34">
+      <formula>LEN(TRIM(Q245))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q245 Q250 Q255">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",Q245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L246:P246 L251:P251 L256:P256">
+    <cfRule type="containsBlanks" dxfId="30" priority="32">
+      <formula>LEN(TRIM(L246))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L246:P246 L251:P251 L256:P256">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q246 Q251 Q256">
     <cfRule type="containsBlanks" dxfId="28" priority="30">
-      <formula>LEN(TRIM(I236))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I236">
+      <formula>LEN(TRIM(Q246))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q246 Q251 Q256">
     <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",I236)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A236:H236 J236:P236 J237:J241">
-    <cfRule type="containsBlanks" dxfId="26" priority="28">
-      <formula>LEN(TRIM(A236))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A236:H236 J236:P236 R236 J237:J241">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A236)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q236">
-    <cfRule type="containsBlanks" dxfId="24" priority="26">
-      <formula>LEN(TRIM(Q236))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q236">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",Q236)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E236:E237">
-    <cfRule type="expression" dxfId="22" priority="3714">
-      <formula>COUNTIFS($A:$A,$A222,$B:$B,$B222,$C:$C,$C222,$D:$D,$D222,$E:$E,$E236,$F:$F,$F222)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E238:E239">
-    <cfRule type="expression" dxfId="21" priority="3715">
-      <formula>COUNTIFS($A:$A,$A221,$B:$B,$B221,$C:$C,$C221,$D:$D,$D221,$E:$E,$E238,$F:$F,$F221)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E242:E250">
-    <cfRule type="expression" dxfId="20" priority="3853">
-      <formula>COUNTIFS($A:$A,$A210,$B:$B,$B210,$C:$C,$C210,$D:$D,$D210,$E:$E,$E242,$F:$F,$F210)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E252:E253">
-    <cfRule type="expression" dxfId="19" priority="3854">
-      <formula>COUNTIFS($A:$A,$A215,$B:$B,$B215,$C:$C,$C215,$D:$D,$D215,$E:$E,$E252,$F:$F,$F215)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E251">
-    <cfRule type="expression" dxfId="17" priority="3997">
-      <formula>COUNTIFS($A:$A,$A218,$B:$B,$B218,$C:$C,$C218,$D:$D,$D218,$E:$E,$E251,$F:$F,$F218)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E254">
-    <cfRule type="expression" dxfId="16" priority="3998">
-      <formula>COUNTIFS($A:$A,$A216,$B:$B,$B216,$C:$C,$C216,$D:$D,$D216,$E:$E,$E254,$F:$F,$F216)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A240:F240">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>COUNTIFS($A:$A,$A240,$B:$B,$B240,$C:$C,$C240,$D:$D,$D240,$E:$E,$E240,$F:$F,$F240)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I240">
-    <cfRule type="containsBlanks" dxfId="14" priority="14">
-      <formula>LEN(TRIM(I240))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I240">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",I240)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K240 A240:H240">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
-      <formula>LEN(TRIM(A240))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K240 A240:H240 R240">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A240)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E240">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>COUNTIFS($A:$A,$A223,$B:$B,$B223,$C:$C,$C223,$D:$D,$D223,$E:$E,$E240,$F:$F,$F223)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A241:F241">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>COUNTIFS($A:$A,$A241,$B:$B,$B241,$C:$C,$C241,$D:$D,$D241,$E:$E,$E241,$F:$F,$F241)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I241">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
-      <formula>LEN(TRIM(I241))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I241">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",I241)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K241 A241:H241">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(A241))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K241 A241:H241 R241">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",A241)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E241">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>COUNTIFS($A:$A,$A224,$B:$B,$B224,$C:$C,$C224,$D:$D,$D224,$E:$E,$E241,$F:$F,$F224)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L240:Q240">
+      <formula>NOT(ISERROR(SEARCH("itv",Q246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E260:E264">
+    <cfRule type="expression" dxfId="26" priority="6608">
+      <formula>COUNTIFS($A:$A,$A213,$B:$B,$B213,$C:$C,$C213,$D:$D,$D213,$E:$E,$E260,$F:$F,$F213)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E263">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
+      <formula>LEN(TRIM(E263))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E263">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E263)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262">
+    <cfRule type="containsBlanks" dxfId="23" priority="24">
+      <formula>LEN(TRIM(E262))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E261">
+    <cfRule type="containsBlanks" dxfId="21" priority="21">
+      <formula>LEN(TRIM(E261))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E261">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E261)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E260">
+    <cfRule type="containsBlanks" dxfId="19" priority="18">
+      <formula>LEN(TRIM(E260))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E260">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",E260)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265:E269">
+    <cfRule type="expression" dxfId="17" priority="6948">
+      <formula>COUNTIFS($A:$A,$A216,$B:$B,$B216,$C:$C,$C216,$D:$D,$D216,$E:$E,$E265,$F:$F,$F216)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L260:Q260">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L260)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L263:Q263">
+    <cfRule type="containsBlanks" dxfId="15" priority="14">
+      <formula>LEN(TRIM(L263))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L263:Q263">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L263)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L262:Q262">
+    <cfRule type="containsBlanks" dxfId="13" priority="12">
+      <formula>LEN(TRIM(L262))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L262:Q262">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L261:Q261">
+    <cfRule type="containsBlanks" dxfId="11" priority="10">
+      <formula>LEN(TRIM(L261))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L261:Q261">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",L261)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L260:Q260">
+    <cfRule type="containsBlanks" dxfId="9" priority="8">
+      <formula>LEN(TRIM(L260))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E270 E272 E274 E268">
+    <cfRule type="expression" dxfId="8" priority="7100">
+      <formula>COUNTIFS($A:$A,$A216,$B:$B,$B216,$C:$C,$C216,$D:$D,$D216,$E:$E,$E268,$F:$F,$F216)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E271:E275 E269">
+    <cfRule type="expression" dxfId="7" priority="7103">
+      <formula>COUNTIFS($A:$A,$A213,$B:$B,$B213,$C:$C,$C213,$D:$D,$D213,$E:$E,$E269,$F:$F,$F213)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E276">
+    <cfRule type="expression" dxfId="6" priority="7259">
+      <formula>COUNTIFS($A:$A,$A216,$B:$B,$B216,$C:$C,$C216,$D:$D,$D216,$E:$E,$E276,$F:$F,$F216)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D274">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(D274))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D274">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="itv">
+      <formula>NOT(ISERROR(SEARCH("itv",D274)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D272:D273">
     <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(L240))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L240:Q240">
+      <formula>LEN(TRIM(D272))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D272:D273">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L240)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L241:Q241">
+      <formula>NOT(ISERROR(SEARCH("itv",D272)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L270:Q270">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(L241))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L241:Q241">
+      <formula>LEN(TRIM(L270))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L270:Q270">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="itv">
-      <formula>NOT(ISERROR(SEARCH("itv",L241)))</formula>
+      <formula>NOT(ISERROR(SEARCH("itv",L270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/AAR_matrix_2.xlsx
+++ b/Database/AAR_matrix_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejwes\Documents\DC\Project_AAR\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05DF721-B88A-46BA-AAE8-979C697A935B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05657AC9-1ACF-4338-A67A-0B38DD206B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tankers" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eva Westerhout</author>
+    <author>tc={78D6601E-5482-4BDB-9295-8C3425D60468}</author>
+    <author>tc={AEF05919-A59B-4E60-B3AE-4CE839181828}</author>
   </authors>
   <commentList>
     <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -336,6 +338,25 @@
 KIAS
 </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="L328" authorId="1" shapeId="0" xr:uid="{78D6601E-5482-4BDB-9295-8C3425D60468}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Alle orange zeroes are N/A</t>
+      </text>
+    </comment>
+    <comment ref="L330" authorId="2" shapeId="0" xr:uid="{AEF05919-A59B-4E60-B3AE-4CE839181828}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In te vullen
+Reply:
+    Voor alle oranje nullen
+</t>
       </text>
     </comment>
   </commentList>
@@ -2777,7 +2798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="197">
   <si>
     <t>C-17</t>
   </si>
@@ -3115,15 +3136,6 @@
     <t>July 2025</t>
   </si>
   <si>
-    <t>1500 ft AGL</t>
-  </si>
-  <si>
-    <t>mininimum altitude in feet above ground level</t>
-  </si>
-  <si>
-    <t>mininimum altitude in feet  above ground level</t>
-  </si>
-  <si>
     <t>December 2025</t>
   </si>
   <si>
@@ -3370,6 +3382,15 @@
   <si>
     <t>max_as_m</t>
   </si>
+  <si>
+    <t>mininimum altitude 1500 feet  above ground level</t>
+  </si>
+  <si>
+    <t>mininimum altitude 1500 feet above ground level</t>
+  </si>
+  <si>
+    <t>boom_pod_bda</t>
+  </si>
 </sst>
 </file>
 
@@ -3439,12 +3460,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3459,7 +3492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3467,6 +3500,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4269,6 +4304,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Eva Westerhout" id="{C169EB40-5088-4FD8-A6FA-3449A227978E}" userId="S::ewesterhout@tudelft.nl::8f58d092-19b4-452a-8d2c-78bf17a910ce" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -4584,6 +4625,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L328" dT="2026-01-14T12:21:25.42" personId="{C169EB40-5088-4FD8-A6FA-3449A227978E}" id="{78D6601E-5482-4BDB-9295-8C3425D60468}">
+    <text>Alle orange zeroes are N/A</text>
+  </threadedComment>
+  <threadedComment ref="L330" dT="2026-01-14T12:20:19.70" personId="{C169EB40-5088-4FD8-A6FA-3449A227978E}" id="{AEF05919-A59B-4E60-B3AE-4CE839181828}">
+    <text>In te vullen</text>
+  </threadedComment>
+  <threadedComment ref="L330" dT="2026-01-14T12:20:33.11" personId="{C169EB40-5088-4FD8-A6FA-3449A227978E}" id="{40856A16-CF9D-4CBC-9A96-90DD3D93DBF4}" parentId="{AEF05919-A59B-4E60-B3AE-4CE839181828}">
+    <text xml:space="preserve">Voor alle oranje nullen
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
@@ -4790,13 +4846,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -4808,10 +4864,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -4966,13 +5022,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -4984,10 +5040,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -11025,13 +11081,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -11043,10 +11099,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -11519,13 +11575,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -11537,10 +11593,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -11594,13 +11650,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -11612,10 +11668,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -11929,13 +11985,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -11947,10 +12003,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -12370,13 +12426,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -12388,10 +12444,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -12811,13 +12867,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -12829,10 +12885,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -12886,13 +12942,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -12904,10 +12960,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -12961,13 +13017,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -12979,10 +13035,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -13913,13 +13969,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -13931,10 +13987,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -14060,7 +14116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8367841-0DCD-42F5-905D-3D9926320E1C}">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
+    <sheetView zoomScale="46" workbookViewId="0">
       <selection activeCell="AI36" sqref="AI36"/>
     </sheetView>
   </sheetViews>
@@ -14089,13 +14145,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -14107,10 +14163,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -18020,20 +18076,20 @@
       <c r="J75" t="str">
         <v>B</v>
       </c>
-      <c r="K75" t="str">
-        <v>itv</v>
-      </c>
-      <c r="L75" t="str">
-        <v>itv</v>
-      </c>
-      <c r="M75" t="str">
-        <v>itv</v>
-      </c>
-      <c r="N75" t="str">
-        <v>itv</v>
-      </c>
-      <c r="O75" t="str">
-        <v>itv</v>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
       </c>
       <c r="P75">
         <v>3400</v>
@@ -18126,20 +18182,20 @@
       <c r="J77" t="str">
         <v>B</v>
       </c>
-      <c r="K77" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="L77" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="M77" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N77" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O77" t="str">
-        <v>N/A</v>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
       </c>
       <c r="P77">
         <v>3400</v>
@@ -18179,20 +18235,20 @@
       <c r="J78" t="str">
         <v>B</v>
       </c>
-      <c r="K78" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="L78" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="M78" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N78" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O78" t="str">
-        <v>N/A</v>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
       </c>
       <c r="P78">
         <v>3400</v>
@@ -18232,20 +18288,20 @@
       <c r="J79" t="str">
         <v>B</v>
       </c>
-      <c r="K79" t="str">
-        <v>itv</v>
-      </c>
-      <c r="L79" t="str">
-        <v>itv</v>
-      </c>
-      <c r="M79" t="str">
-        <v>itv</v>
-      </c>
-      <c r="N79" t="str">
-        <v>itv</v>
-      </c>
-      <c r="O79" t="str">
-        <v>itv</v>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
       </c>
       <c r="P79">
         <v>3400</v>
@@ -18285,20 +18341,20 @@
       <c r="J80" t="str">
         <v>B</v>
       </c>
-      <c r="K80" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="L80" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="M80" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N80" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O80" t="str">
-        <v>N/A</v>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
       </c>
       <c r="P80">
         <v>3400</v>
@@ -18960,8 +19016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R343"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="B1:R1"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19001,13 +19057,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -19019,10 +19075,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -19173,8 +19229,8 @@
       <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
-        <v>112</v>
+      <c r="L4">
+        <v>15</v>
       </c>
       <c r="M4">
         <v>350</v>
@@ -19193,7 +19249,7 @@
         <v>2645.5439999999999</v>
       </c>
       <c r="R4" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -19230,8 +19286,8 @@
       <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
-        <v>112</v>
+      <c r="L5">
+        <v>15</v>
       </c>
       <c r="M5">
         <v>350</v>
@@ -19250,7 +19306,7 @@
         <v>2645.5439999999999</v>
       </c>
       <c r="R5" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -22071,7 +22127,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
         <v>73</v>
@@ -22341,7 +22397,7 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -22989,7 +23045,7 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s">
         <v>80</v>
@@ -23043,7 +23099,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E76" t="s">
         <v>80</v>
@@ -23151,7 +23207,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E78" t="s">
         <v>84</v>
@@ -23520,7 +23576,7 @@
         <v>3</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>111</v>
@@ -23911,7 +23967,7 @@
         <v>3</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>111</v>
@@ -23964,7 +24020,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>111</v>
@@ -24070,7 +24126,7 @@
         <v>3</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>111</v>
@@ -24770,7 +24826,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>111</v>
@@ -24799,7 +24855,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -25035,7 +25091,7 @@
         <v>3</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>111</v>
@@ -25064,7 +25120,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -25147,7 +25203,7 @@
         <v>111</v>
       </c>
       <c r="K117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L117">
         <v>100</v>
@@ -25194,7 +25250,7 @@
         <v>111</v>
       </c>
       <c r="K118" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L118">
         <v>50</v>
@@ -25241,7 +25297,7 @@
         <v>111</v>
       </c>
       <c r="K119" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L119">
         <v>100</v>
@@ -25288,7 +25344,7 @@
         <v>111</v>
       </c>
       <c r="K120" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L120">
         <v>100</v>
@@ -25335,7 +25391,7 @@
         <v>111</v>
       </c>
       <c r="K121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L121">
         <v>100</v>
@@ -25570,7 +25626,7 @@
         <v>111</v>
       </c>
       <c r="K126" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L126">
         <v>100</v>
@@ -25617,7 +25673,7 @@
         <v>111</v>
       </c>
       <c r="K127" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L127">
         <v>50</v>
@@ -25664,7 +25720,7 @@
         <v>111</v>
       </c>
       <c r="K128" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L128">
         <v>100</v>
@@ -25711,7 +25767,7 @@
         <v>111</v>
       </c>
       <c r="K129" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L129">
         <v>100</v>
@@ -25758,7 +25814,7 @@
         <v>111</v>
       </c>
       <c r="K130" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L130">
         <v>100</v>
@@ -25993,7 +26049,7 @@
         <v>111</v>
       </c>
       <c r="K135" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L135">
         <v>50</v>
@@ -26040,7 +26096,7 @@
         <v>111</v>
       </c>
       <c r="K136" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L136">
         <v>50</v>
@@ -26181,7 +26237,7 @@
         <v>111</v>
       </c>
       <c r="K139" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L139">
         <v>50</v>
@@ -26231,7 +26287,7 @@
         <v>111</v>
       </c>
       <c r="K140" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L140">
         <v>50</v>
@@ -26281,7 +26337,7 @@
         <v>111</v>
       </c>
       <c r="K141" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L141">
         <v>150</v>
@@ -26331,7 +26387,7 @@
         <v>111</v>
       </c>
       <c r="K142" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L142">
         <v>150</v>
@@ -26672,7 +26728,7 @@
         <v>3</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>111</v>
@@ -27257,13 +27313,13 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>111</v>
@@ -27467,7 +27523,7 @@
         <v>3</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>111</v>
@@ -27755,7 +27811,7 @@
         <v>35</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>35</v>
@@ -27808,10 +27864,10 @@
         <v>35</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K172" t="s">
         <v>22</v>
@@ -27846,7 +27902,7 @@
         <v>92</v>
       </c>
       <c r="D173" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -27861,7 +27917,7 @@
         <v>35</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>35</v>
@@ -27888,7 +27944,7 @@
         <v>3000</v>
       </c>
       <c r="R173" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.3">
@@ -27917,7 +27973,7 @@
         <v>35</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>35</v>
@@ -27944,7 +28000,7 @@
         <v>3000</v>
       </c>
       <c r="R174" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.3">
@@ -27958,7 +28014,7 @@
         <v>92</v>
       </c>
       <c r="D175" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E175" t="s">
         <v>30</v>
@@ -27973,7 +28029,7 @@
         <v>35</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>35</v>
@@ -28000,7 +28056,7 @@
         <v>3000</v>
       </c>
       <c r="R175" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.3">
@@ -28029,7 +28085,7 @@
         <v>35</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>35</v>
@@ -28056,7 +28112,7 @@
         <v>3000</v>
       </c>
       <c r="R176" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.3">
@@ -28070,7 +28126,7 @@
         <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
@@ -28085,7 +28141,7 @@
         <v>35</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>35</v>
@@ -28112,7 +28168,7 @@
         <v>3000</v>
       </c>
       <c r="R177" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.3">
@@ -28126,7 +28182,7 @@
         <v>92</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -28141,7 +28197,7 @@
         <v>35</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>35</v>
@@ -28168,7 +28224,7 @@
         <v>3000</v>
       </c>
       <c r="R178" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.3">
@@ -28182,7 +28238,7 @@
         <v>92</v>
       </c>
       <c r="D179" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
@@ -28197,7 +28253,7 @@
         <v>35</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>35</v>
@@ -28224,7 +28280,7 @@
         <v>3000</v>
       </c>
       <c r="R179" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.3">
@@ -28238,7 +28294,7 @@
         <v>92</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E180" t="s">
         <v>30</v>
@@ -28253,7 +28309,7 @@
         <v>35</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>35</v>
@@ -28280,7 +28336,7 @@
         <v>3000</v>
       </c>
       <c r="R180" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.3">
@@ -28294,7 +28350,7 @@
         <v>92</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E181" t="s">
         <v>30</v>
@@ -28309,7 +28365,7 @@
         <v>35</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>35</v>
@@ -28336,7 +28392,7 @@
         <v>3000</v>
       </c>
       <c r="R181" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.3">
@@ -28350,7 +28406,7 @@
         <v>92</v>
       </c>
       <c r="D182" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E182" t="s">
         <v>30</v>
@@ -28365,7 +28421,7 @@
         <v>35</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J182" s="4" t="s">
         <v>35</v>
@@ -28392,7 +28448,7 @@
         <v>3000</v>
       </c>
       <c r="R182" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.3">
@@ -28406,7 +28462,7 @@
         <v>92</v>
       </c>
       <c r="D183" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E183" t="s">
         <v>30</v>
@@ -28421,7 +28477,7 @@
         <v>35</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>35</v>
@@ -28448,7 +28504,7 @@
         <v>3000</v>
       </c>
       <c r="R183" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.3">
@@ -28462,7 +28518,7 @@
         <v>92</v>
       </c>
       <c r="D184" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E184" t="s">
         <v>30</v>
@@ -28477,7 +28533,7 @@
         <v>35</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J184" s="4" t="s">
         <v>35</v>
@@ -28504,7 +28560,7 @@
         <v>3000</v>
       </c>
       <c r="R184" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.3">
@@ -28518,7 +28574,7 @@
         <v>92</v>
       </c>
       <c r="D185" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E185" t="s">
         <v>30</v>
@@ -28533,7 +28589,7 @@
         <v>35</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J185" s="4" t="s">
         <v>35</v>
@@ -28560,7 +28616,7 @@
         <v>3000</v>
       </c>
       <c r="R185" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.3">
@@ -28574,7 +28630,7 @@
         <v>92</v>
       </c>
       <c r="D186" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E186" t="s">
         <v>30</v>
@@ -28589,7 +28645,7 @@
         <v>35</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J186" s="4" t="s">
         <v>35</v>
@@ -28616,7 +28672,7 @@
         <v>3000</v>
       </c>
       <c r="R186" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.3">
@@ -28630,7 +28686,7 @@
         <v>92</v>
       </c>
       <c r="D187" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E187" t="s">
         <v>30</v>
@@ -28645,7 +28701,7 @@
         <v>35</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>35</v>
@@ -28672,7 +28728,7 @@
         <v>3000</v>
       </c>
       <c r="R187" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.3">
@@ -28686,7 +28742,7 @@
         <v>92</v>
       </c>
       <c r="D188" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E188" t="s">
         <v>30</v>
@@ -28701,7 +28757,7 @@
         <v>35</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J188" s="4" t="s">
         <v>35</v>
@@ -28728,7 +28784,7 @@
         <v>3000</v>
       </c>
       <c r="R188" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.3">
@@ -28742,7 +28798,7 @@
         <v>92</v>
       </c>
       <c r="D189" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E189" t="s">
         <v>30</v>
@@ -28757,7 +28813,7 @@
         <v>35</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>35</v>
@@ -28784,7 +28840,7 @@
         <v>3000</v>
       </c>
       <c r="R189" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.3">
@@ -28813,7 +28869,7 @@
         <v>35</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>35</v>
@@ -28840,7 +28896,7 @@
         <v>3000</v>
       </c>
       <c r="R190" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.3">
@@ -28854,7 +28910,7 @@
         <v>92</v>
       </c>
       <c r="D191" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E191" t="s">
         <v>30</v>
@@ -28869,7 +28925,7 @@
         <v>35</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J191" s="4" t="s">
         <v>35</v>
@@ -28896,7 +28952,7 @@
         <v>3000</v>
       </c>
       <c r="R191" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.3">
@@ -28925,7 +28981,7 @@
         <v>35</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>35</v>
@@ -28952,7 +29008,7 @@
         <v>3000</v>
       </c>
       <c r="R192" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.3">
@@ -28966,7 +29022,7 @@
         <v>92</v>
       </c>
       <c r="D193" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E193" t="s">
         <v>30</v>
@@ -28981,7 +29037,7 @@
         <v>35</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>35</v>
@@ -29008,7 +29064,7 @@
         <v>3000</v>
       </c>
       <c r="R193" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.3">
@@ -29037,7 +29093,7 @@
         <v>35</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>35</v>
@@ -29064,7 +29120,7 @@
         <v>3000</v>
       </c>
       <c r="R194" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.3">
@@ -29078,7 +29134,7 @@
         <v>92</v>
       </c>
       <c r="D195" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E195" t="s">
         <v>30</v>
@@ -29093,7 +29149,7 @@
         <v>35</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>35</v>
@@ -29120,7 +29176,7 @@
         <v>3000</v>
       </c>
       <c r="R195" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.3">
@@ -29134,7 +29190,7 @@
         <v>92</v>
       </c>
       <c r="D196" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
@@ -29149,7 +29205,7 @@
         <v>35</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J196" s="4" t="s">
         <v>35</v>
@@ -29176,7 +29232,7 @@
         <v>3000</v>
       </c>
       <c r="R196" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.3">
@@ -29205,7 +29261,7 @@
         <v>35</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>35</v>
@@ -29232,7 +29288,7 @@
         <v>3000</v>
       </c>
       <c r="R197" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.3">
@@ -29261,7 +29317,7 @@
         <v>35</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>35</v>
@@ -29288,7 +29344,7 @@
         <v>3000</v>
       </c>
       <c r="R198" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.3">
@@ -29317,7 +29373,7 @@
         <v>35</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>35</v>
@@ -29344,7 +29400,7 @@
         <v>3000</v>
       </c>
       <c r="R199" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.3">
@@ -29358,7 +29414,7 @@
         <v>92</v>
       </c>
       <c r="D200" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
@@ -29373,7 +29429,7 @@
         <v>35</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J200" s="4" t="s">
         <v>35</v>
@@ -29400,7 +29456,7 @@
         <v>3000</v>
       </c>
       <c r="R200" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.3">
@@ -29414,7 +29470,7 @@
         <v>92</v>
       </c>
       <c r="D201" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E201" t="s">
         <v>30</v>
@@ -29429,7 +29485,7 @@
         <v>35</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J201" s="4" t="s">
         <v>35</v>
@@ -29456,7 +29512,7 @@
         <v>3000</v>
       </c>
       <c r="R201" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.3">
@@ -29470,7 +29526,7 @@
         <v>92</v>
       </c>
       <c r="D202" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E202" t="s">
         <v>30</v>
@@ -29485,7 +29541,7 @@
         <v>35</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>35</v>
@@ -29512,7 +29568,7 @@
         <v>3000</v>
       </c>
       <c r="R202" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.3">
@@ -29541,7 +29597,7 @@
         <v>35</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J203" s="4" t="s">
         <v>35</v>
@@ -29568,7 +29624,7 @@
         <v>3000</v>
       </c>
       <c r="R203" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.3">
@@ -29582,7 +29638,7 @@
         <v>92</v>
       </c>
       <c r="D204" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E204" t="s">
         <v>30</v>
@@ -29597,7 +29653,7 @@
         <v>35</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>35</v>
@@ -29624,7 +29680,7 @@
         <v>3000</v>
       </c>
       <c r="R204" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.3">
@@ -29653,7 +29709,7 @@
         <v>35</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J205" s="4" t="s">
         <v>35</v>
@@ -29680,7 +29736,7 @@
         <v>3000</v>
       </c>
       <c r="R205" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.3">
@@ -29694,7 +29750,7 @@
         <v>92</v>
       </c>
       <c r="D206" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -29709,7 +29765,7 @@
         <v>35</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J206" s="4" t="s">
         <v>35</v>
@@ -29736,7 +29792,7 @@
         <v>3000</v>
       </c>
       <c r="R206" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
@@ -29765,7 +29821,7 @@
         <v>35</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>35</v>
@@ -29792,7 +29848,7 @@
         <v>3000</v>
       </c>
       <c r="R207" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.3">
@@ -29821,7 +29877,7 @@
         <v>35</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>35</v>
@@ -29874,7 +29930,7 @@
         <v>35</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>35</v>
@@ -29927,7 +29983,7 @@
         <v>35</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>35</v>
@@ -29980,7 +30036,7 @@
         <v>35</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>35</v>
@@ -30018,7 +30074,7 @@
         <v>92</v>
       </c>
       <c r="D212" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E212" t="s">
         <v>21</v>
@@ -30033,7 +30089,7 @@
         <v>35</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>35</v>
@@ -30086,7 +30142,7 @@
         <v>35</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>35</v>
@@ -30139,7 +30195,7 @@
         <v>35</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>35</v>
@@ -30177,7 +30233,7 @@
         <v>92</v>
       </c>
       <c r="D215" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E215" t="s">
         <v>21</v>
@@ -30192,7 +30248,7 @@
         <v>35</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>35</v>
@@ -30245,10 +30301,10 @@
         <v>35</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K216" t="s">
         <v>59</v>
@@ -30298,10 +30354,10 @@
         <v>35</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K217" t="s">
         <v>59</v>
@@ -30351,10 +30407,10 @@
         <v>35</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K218" t="s">
         <v>22</v>
@@ -30404,10 +30460,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K219" t="s">
         <v>22</v>
@@ -30457,7 +30513,7 @@
         <v>35</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J220" s="4" t="s">
         <v>35</v>
@@ -30510,7 +30566,7 @@
         <v>35</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J221" s="4" t="s">
         <v>35</v>
@@ -30548,7 +30604,7 @@
         <v>92</v>
       </c>
       <c r="D222" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E222" t="s">
         <v>0</v>
@@ -30563,7 +30619,7 @@
         <v>35</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J222" s="4" t="s">
         <v>35</v>
@@ -30601,7 +30657,7 @@
         <v>92</v>
       </c>
       <c r="D223" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E223" t="s">
         <v>0</v>
@@ -30616,7 +30672,7 @@
         <v>35</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J223" s="4" t="s">
         <v>35</v>
@@ -30669,10 +30725,10 @@
         <v>2</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K224" t="s">
         <v>22</v>
@@ -30722,10 +30778,10 @@
         <v>2</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K225" t="s">
         <v>22</v>
@@ -30763,7 +30819,7 @@
         <v>34</v>
       </c>
       <c r="E226" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F226" t="s">
         <v>39</v>
@@ -30772,13 +30828,13 @@
         <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K226" t="s">
         <v>22</v>
@@ -30813,7 +30869,7 @@
         <v>92</v>
       </c>
       <c r="D227" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E227" t="s">
         <v>33</v>
@@ -30828,7 +30884,7 @@
         <v>35</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J227" s="4" t="s">
         <v>35</v>
@@ -30881,7 +30937,7 @@
         <v>35</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J228" s="4" t="s">
         <v>35</v>
@@ -30919,7 +30975,7 @@
         <v>92</v>
       </c>
       <c r="D229" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E229" t="s">
         <v>33</v>
@@ -30934,7 +30990,7 @@
         <v>35</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J229" s="4" t="s">
         <v>35</v>
@@ -30972,7 +31028,7 @@
         <v>92</v>
       </c>
       <c r="D230" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E230" t="s">
         <v>33</v>
@@ -30987,7 +31043,7 @@
         <v>35</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J230" s="4" t="s">
         <v>35</v>
@@ -31040,10 +31096,10 @@
         <v>3</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K231" t="s">
         <v>22</v>
@@ -31078,7 +31134,7 @@
         <v>92</v>
       </c>
       <c r="D232" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E232" t="s">
         <v>19</v>
@@ -31093,7 +31149,7 @@
         <v>35</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J232" s="4" t="s">
         <v>35</v>
@@ -31134,7 +31190,7 @@
         <v>103</v>
       </c>
       <c r="E233" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F233" t="s">
         <v>22</v>
@@ -31146,7 +31202,7 @@
         <v>35</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J233" s="4" t="s">
         <v>35</v>
@@ -31188,7 +31244,7 @@
         <v>68</v>
       </c>
       <c r="E234" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F234" t="s">
         <v>22</v>
@@ -31200,10 +31256,10 @@
         <v>2</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K234" t="s">
         <v>59</v>
@@ -31242,7 +31298,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F235" t="s">
         <v>22</v>
@@ -31254,10 +31310,10 @@
         <v>3</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K235" t="s">
         <v>59</v>
@@ -31296,10 +31352,10 @@
         <v>75</v>
       </c>
       <c r="E236" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F236" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -31308,7 +31364,7 @@
         <v>35</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J236" s="4" t="s">
         <v>35</v>
@@ -31350,10 +31406,10 @@
         <v>75</v>
       </c>
       <c r="E237" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F237" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G237">
         <v>3</v>
@@ -31362,7 +31418,7 @@
         <v>35</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J237" s="4" t="s">
         <v>35</v>
@@ -31407,7 +31463,7 @@
         <v>73</v>
       </c>
       <c r="F238" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G238">
         <v>3</v>
@@ -31416,7 +31472,7 @@
         <v>35</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J238" s="4" t="s">
         <v>35</v>
@@ -31461,7 +31517,7 @@
         <v>73</v>
       </c>
       <c r="F239" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G239">
         <v>3</v>
@@ -31470,7 +31526,7 @@
         <v>35</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J239" s="4" t="s">
         <v>35</v>
@@ -31515,7 +31571,7 @@
         <v>73</v>
       </c>
       <c r="F240" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -31524,7 +31580,7 @@
         <v>35</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>35</v>
@@ -31563,13 +31619,13 @@
         <v>92</v>
       </c>
       <c r="D241" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E241" t="s">
         <v>73</v>
       </c>
       <c r="F241" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G241">
         <v>3</v>
@@ -31578,7 +31634,7 @@
         <v>35</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J241" s="4" t="s">
         <v>35</v>
@@ -31632,10 +31688,10 @@
         <v>3</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K242" t="s">
         <v>59</v>
@@ -31686,10 +31742,10 @@
         <v>3</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K243" t="s">
         <v>59</v>
@@ -31728,7 +31784,7 @@
         <v>65</v>
       </c>
       <c r="E244" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F244" t="s">
         <v>39</v>
@@ -31740,10 +31796,10 @@
         <v>3</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K244" t="s">
         <v>59</v>
@@ -31782,7 +31838,7 @@
         <v>65</v>
       </c>
       <c r="E245" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F245" t="s">
         <v>22</v>
@@ -31794,10 +31850,10 @@
         <v>3</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K245" t="s">
         <v>59</v>
@@ -31848,10 +31904,10 @@
         <v>3</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K246" t="s">
         <v>59</v>
@@ -31902,10 +31958,10 @@
         <v>3</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K247" t="s">
         <v>59</v>
@@ -31956,10 +32012,10 @@
         <v>3</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K248" t="s">
         <v>59</v>
@@ -31995,7 +32051,7 @@
         <v>92</v>
       </c>
       <c r="D249" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E249" t="s">
         <v>32</v>
@@ -32010,7 +32066,7 @@
         <v>3</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>35</v>
@@ -32064,7 +32120,7 @@
         <v>3</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J250" s="4" t="s">
         <v>35</v>
@@ -32118,10 +32174,10 @@
         <v>3</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K251" t="s">
         <v>59</v>
@@ -32157,7 +32213,7 @@
         <v>92</v>
       </c>
       <c r="D252" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E252" t="s">
         <v>32</v>
@@ -32172,7 +32228,7 @@
         <v>3</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J252" s="4" t="s">
         <v>35</v>
@@ -32226,7 +32282,7 @@
         <v>3</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J253" s="4" t="s">
         <v>35</v>
@@ -32280,7 +32336,7 @@
         <v>3</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J254" s="4" t="s">
         <v>35</v>
@@ -32334,10 +32390,10 @@
         <v>3</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K255" t="s">
         <v>59</v>
@@ -32373,7 +32429,7 @@
         <v>92</v>
       </c>
       <c r="D256" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E256" t="s">
         <v>32</v>
@@ -32388,7 +32444,7 @@
         <v>3</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J256" s="4" t="s">
         <v>35</v>
@@ -32442,10 +32498,10 @@
         <v>3</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K257" t="s">
         <v>59</v>
@@ -32481,7 +32537,7 @@
         <v>92</v>
       </c>
       <c r="D258" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E258" t="s">
         <v>32</v>
@@ -32496,7 +32552,7 @@
         <v>3</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J258" s="4" t="s">
         <v>35</v>
@@ -32550,10 +32606,10 @@
         <v>3</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K259" t="s">
         <v>59</v>
@@ -32592,7 +32648,7 @@
         <v>79</v>
       </c>
       <c r="E260" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F260" t="s">
         <v>22</v>
@@ -32604,10 +32660,10 @@
         <v>3</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K260" t="s">
         <v>59</v>
@@ -32646,7 +32702,7 @@
         <v>79</v>
       </c>
       <c r="E261" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F261" t="s">
         <v>41</v>
@@ -32658,10 +32714,10 @@
         <v>3</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K261" t="s">
         <v>59</v>
@@ -32700,7 +32756,7 @@
         <v>79</v>
       </c>
       <c r="E262" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F262" t="s">
         <v>23</v>
@@ -32712,10 +32768,10 @@
         <v>3</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K262" t="s">
         <v>59</v>
@@ -32754,10 +32810,10 @@
         <v>79</v>
       </c>
       <c r="E263" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F263" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -32766,10 +32822,10 @@
         <v>3</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K263" t="s">
         <v>59</v>
@@ -32808,10 +32864,10 @@
         <v>79</v>
       </c>
       <c r="E264" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F264" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -32820,10 +32876,10 @@
         <v>3</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K264" t="s">
         <v>59</v>
@@ -32874,10 +32930,10 @@
         <v>3</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K265" t="s">
         <v>59</v>
@@ -32928,10 +32984,10 @@
         <v>3</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K266" t="s">
         <v>59</v>
@@ -32982,10 +33038,10 @@
         <v>3</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K267" t="s">
         <v>59</v>
@@ -33021,10 +33077,10 @@
         <v>92</v>
       </c>
       <c r="D268" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E268" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F268" t="s">
         <v>41</v>
@@ -33033,10 +33089,10 @@
         <v>3</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J268" s="4" t="s">
         <v>35</v>
@@ -33075,10 +33131,10 @@
         <v>92</v>
       </c>
       <c r="D269" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E269" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F269" t="s">
         <v>41</v>
@@ -33087,13 +33143,13 @@
         <v>3</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K269" t="s">
         <v>59</v>
@@ -33132,7 +33188,7 @@
         <v>77</v>
       </c>
       <c r="E270" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F270" t="s">
         <v>41</v>
@@ -33141,10 +33197,10 @@
         <v>3</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>35</v>
@@ -33186,7 +33242,7 @@
         <v>55</v>
       </c>
       <c r="E271" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F271" t="s">
         <v>41</v>
@@ -33195,10 +33251,10 @@
         <v>3</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>35</v>
@@ -33237,10 +33293,10 @@
         <v>92</v>
       </c>
       <c r="D272" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E272" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F272" t="s">
         <v>23</v>
@@ -33249,10 +33305,10 @@
         <v>3</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>35</v>
@@ -33291,10 +33347,10 @@
         <v>92</v>
       </c>
       <c r="D273" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E273" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F273" t="s">
         <v>23</v>
@@ -33303,13 +33359,13 @@
         <v>3</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K273" t="s">
         <v>59</v>
@@ -33348,7 +33404,7 @@
         <v>77</v>
       </c>
       <c r="E274" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F274" t="s">
         <v>23</v>
@@ -33357,10 +33413,10 @@
         <v>3</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J274" s="4" t="s">
         <v>35</v>
@@ -33402,7 +33458,7 @@
         <v>55</v>
       </c>
       <c r="E275" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F275" t="s">
         <v>23</v>
@@ -33411,10 +33467,10 @@
         <v>3</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J275" s="4" t="s">
         <v>35</v>
@@ -33453,7 +33509,7 @@
         <v>92</v>
       </c>
       <c r="D276" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E276" t="s">
         <v>84</v>
@@ -33468,7 +33524,7 @@
         <v>35</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J276" s="4" t="s">
         <v>35</v>
@@ -33519,13 +33575,13 @@
         <v>3</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K277" t="s">
         <v>22</v>
@@ -33572,13 +33628,13 @@
         <v>3</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J278" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K278" t="s">
         <v>22</v>
@@ -33625,13 +33681,13 @@
         <v>3</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K279" t="s">
         <v>22</v>
@@ -33678,13 +33734,13 @@
         <v>3</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K280" t="s">
         <v>22</v>
@@ -33731,13 +33787,13 @@
         <v>3</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K281" t="s">
         <v>22</v>
@@ -33775,7 +33831,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F282" t="s">
         <v>81</v>
@@ -33784,13 +33840,13 @@
         <v>3</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K282" t="s">
         <v>22</v>
@@ -33837,13 +33893,13 @@
         <v>3</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K283" t="s">
         <v>22</v>
@@ -33881,7 +33937,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F284" t="s">
         <v>22</v>
@@ -33890,13 +33946,13 @@
         <v>3</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K284" t="s">
         <v>22</v>
@@ -33934,7 +33990,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F285" t="s">
         <v>69</v>
@@ -33943,13 +33999,13 @@
         <v>3</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K285" t="s">
         <v>22</v>
@@ -33987,7 +34043,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F286" t="s">
         <v>60</v>
@@ -33996,13 +34052,13 @@
         <v>3</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K286" t="s">
         <v>22</v>
@@ -34040,7 +34096,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F287" t="s">
         <v>59</v>
@@ -34049,13 +34105,13 @@
         <v>3</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K287" t="s">
         <v>22</v>
@@ -34093,22 +34149,22 @@
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F288" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G288">
         <v>3</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K288" t="s">
         <v>22</v>
@@ -34146,7 +34202,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F289" t="s">
         <v>42</v>
@@ -34155,13 +34211,13 @@
         <v>3</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K289" t="s">
         <v>22</v>
@@ -34199,7 +34255,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F290" t="s">
         <v>42</v>
@@ -34208,13 +34264,13 @@
         <v>3</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K290" t="s">
         <v>22</v>
@@ -34252,7 +34308,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F291" t="s">
         <v>42</v>
@@ -34261,13 +34317,13 @@
         <v>3</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K291" t="s">
         <v>22</v>
@@ -34305,7 +34361,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F292" t="s">
         <v>42</v>
@@ -34314,13 +34370,13 @@
         <v>3</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K292" t="s">
         <v>22</v>
@@ -34367,13 +34423,13 @@
         <v>3</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K293" t="s">
         <v>22</v>
@@ -34420,13 +34476,13 @@
         <v>3</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I294" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K294" t="s">
         <v>22</v>
@@ -34464,7 +34520,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F295" t="s">
         <v>22</v>
@@ -34473,13 +34529,13 @@
         <v>3</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K295" t="s">
         <v>22</v>
@@ -34517,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F296" t="s">
         <v>22</v>
@@ -34526,13 +34582,13 @@
         <v>3</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I296" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K296" t="s">
         <v>22</v>
@@ -34570,22 +34626,22 @@
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F297" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G297">
         <v>3</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J297" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K297" t="s">
         <v>22</v>
@@ -34623,22 +34679,22 @@
         <v>1</v>
       </c>
       <c r="E298" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F298" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G298">
         <v>3</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I298" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J298" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K298" t="s">
         <v>22</v>
@@ -34676,22 +34732,22 @@
         <v>1</v>
       </c>
       <c r="E299" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F299" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G299">
         <v>3</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I299" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J299" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K299" t="s">
         <v>22</v>
@@ -34729,22 +34785,22 @@
         <v>1</v>
       </c>
       <c r="E300" t="s">
+        <v>142</v>
+      </c>
+      <c r="F300" t="s">
         <v>145</v>
       </c>
-      <c r="F300" t="s">
-        <v>148</v>
-      </c>
       <c r="G300">
         <v>3</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I300" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J300" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K300" t="s">
         <v>22</v>
@@ -34782,22 +34838,22 @@
         <v>1</v>
       </c>
       <c r="E301" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F301" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G301">
         <v>3</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I301" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K301" t="s">
         <v>22</v>
@@ -34835,22 +34891,22 @@
         <v>1</v>
       </c>
       <c r="E302" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F302" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G302">
         <v>3</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I302" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J302" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K302" t="s">
         <v>22</v>
@@ -34888,7 +34944,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F303" t="s">
         <v>95</v>
@@ -34897,13 +34953,13 @@
         <v>3</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I303" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J303" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K303" t="s">
         <v>22</v>
@@ -34941,7 +34997,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F304" t="s">
         <v>39</v>
@@ -34950,13 +35006,13 @@
         <v>3</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J304" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K304" t="s">
         <v>22</v>
@@ -34994,7 +35050,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F305" t="s">
         <v>22</v>
@@ -35003,13 +35059,13 @@
         <v>3</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K305" t="s">
         <v>22</v>
@@ -35047,7 +35103,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F306" t="s">
         <v>41</v>
@@ -35056,13 +35112,13 @@
         <v>3</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J306" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K306" t="s">
         <v>22</v>
@@ -35100,7 +35156,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F307" t="s">
         <v>23</v>
@@ -35109,13 +35165,13 @@
         <v>3</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I307" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K307" t="s">
         <v>22</v>
@@ -35153,7 +35209,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F308" t="s">
         <v>70</v>
@@ -35162,13 +35218,13 @@
         <v>3</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I308" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J308" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K308" t="s">
         <v>22</v>
@@ -35206,7 +35262,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F309" t="s">
         <v>40</v>
@@ -35215,13 +35271,13 @@
         <v>3</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I309" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K309" t="s">
         <v>22</v>
@@ -35259,7 +35315,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F310" t="s">
         <v>22</v>
@@ -35268,13 +35324,13 @@
         <v>3</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I310" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J310" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K310" t="s">
         <v>22</v>
@@ -35312,7 +35368,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F311" t="s">
         <v>39</v>
@@ -35321,13 +35377,13 @@
         <v>3</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I311" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K311" t="s">
         <v>22</v>
@@ -35365,7 +35421,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F312" t="s">
         <v>41</v>
@@ -35374,13 +35430,13 @@
         <v>3</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J312" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K312" t="s">
         <v>22</v>
@@ -35418,7 +35474,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F313" t="s">
         <v>22</v>
@@ -35427,13 +35483,13 @@
         <v>3</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I313" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K313" t="s">
         <v>22</v>
@@ -35471,7 +35527,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F314" t="s">
         <v>39</v>
@@ -35480,13 +35536,13 @@
         <v>3</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I314" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J314" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K314" t="s">
         <v>22</v>
@@ -35521,7 +35577,7 @@
         <v>95</v>
       </c>
       <c r="D315" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E315" t="s">
         <v>19</v>
@@ -35533,13 +35589,13 @@
         <v>3</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I315" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J315" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K315" t="s">
         <v>22</v>
@@ -35586,13 +35642,13 @@
         <v>3</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I316" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J316" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K316" t="s">
         <v>22</v>
@@ -35639,13 +35695,13 @@
         <v>3</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I317" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J317" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K317" t="s">
         <v>22</v>
@@ -35692,13 +35748,13 @@
         <v>3</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I318" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J318" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K318" t="s">
         <v>22</v>
@@ -35745,13 +35801,13 @@
         <v>3</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J319" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K319" t="s">
         <v>22</v>
@@ -35798,13 +35854,13 @@
         <v>3</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J320" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K320" t="s">
         <v>22</v>
@@ -35851,13 +35907,13 @@
         <v>3</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J321" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K321" t="s">
         <v>22</v>
@@ -35904,13 +35960,13 @@
         <v>3</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J322" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K322" t="s">
         <v>22</v>
@@ -35951,19 +36007,19 @@
         <v>36</v>
       </c>
       <c r="F323" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G323">
         <v>3</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J323" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K323" t="s">
         <v>22</v>
@@ -35998,25 +36054,25 @@
         <v>95</v>
       </c>
       <c r="D324" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E324" t="s">
         <v>36</v>
       </c>
       <c r="F324" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G324">
         <v>3</v>
       </c>
       <c r="H324" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J324" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K324" t="s">
         <v>22</v>
@@ -36063,13 +36119,13 @@
         <v>3</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K325" t="s">
         <v>22</v>
@@ -36104,22 +36160,22 @@
         <v>95</v>
       </c>
       <c r="D326" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E326" t="s">
         <v>36</v>
       </c>
       <c r="F326" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G326">
         <v>3</v>
       </c>
       <c r="H326" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J326" s="4" t="s">
         <v>35</v>
@@ -36127,20 +36183,20 @@
       <c r="K326" t="s">
         <v>22</v>
       </c>
-      <c r="L326" t="s">
-        <v>35</v>
-      </c>
-      <c r="M326" t="s">
-        <v>35</v>
-      </c>
-      <c r="N326" t="s">
-        <v>35</v>
-      </c>
-      <c r="O326" t="s">
-        <v>35</v>
-      </c>
-      <c r="P326" t="s">
-        <v>35</v>
+      <c r="L326" s="7">
+        <v>0</v>
+      </c>
+      <c r="M326" s="7">
+        <v>0</v>
+      </c>
+      <c r="N326" s="7">
+        <v>0</v>
+      </c>
+      <c r="O326" s="7">
+        <v>0</v>
+      </c>
+      <c r="P326" s="7">
+        <v>0</v>
       </c>
       <c r="Q326">
         <v>3400</v>
@@ -36169,13 +36225,13 @@
         <v>3</v>
       </c>
       <c r="H327" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I327" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J327" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K327" t="s">
         <v>22</v>
@@ -36210,43 +36266,43 @@
         <v>95</v>
       </c>
       <c r="D328" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E328" t="s">
         <v>36</v>
       </c>
       <c r="F328" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G328">
         <v>3</v>
       </c>
       <c r="H328" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I328" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J328" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K328" t="s">
         <v>22</v>
       </c>
-      <c r="L328" t="s">
-        <v>116</v>
-      </c>
-      <c r="M328" t="s">
-        <v>116</v>
-      </c>
-      <c r="N328" t="s">
-        <v>116</v>
-      </c>
-      <c r="O328" t="s">
-        <v>116</v>
-      </c>
-      <c r="P328" t="s">
-        <v>116</v>
+      <c r="L328" s="8">
+        <v>0</v>
+      </c>
+      <c r="M328" s="8">
+        <v>0</v>
+      </c>
+      <c r="N328" s="8">
+        <v>0</v>
+      </c>
+      <c r="O328" s="8">
+        <v>0</v>
+      </c>
+      <c r="P328" s="8">
+        <v>0</v>
       </c>
       <c r="Q328">
         <v>3400</v>
@@ -36263,43 +36319,43 @@
         <v>95</v>
       </c>
       <c r="D329" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E329" t="s">
         <v>36</v>
       </c>
       <c r="F329" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G329">
         <v>3</v>
       </c>
       <c r="H329" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I329" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J329" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K329" t="s">
         <v>22</v>
       </c>
-      <c r="L329" t="s">
-        <v>116</v>
-      </c>
-      <c r="M329" t="s">
-        <v>116</v>
-      </c>
-      <c r="N329" t="s">
-        <v>116</v>
-      </c>
-      <c r="O329" t="s">
-        <v>116</v>
-      </c>
-      <c r="P329" t="s">
-        <v>116</v>
+      <c r="L329" s="8">
+        <v>0</v>
+      </c>
+      <c r="M329" s="8">
+        <v>0</v>
+      </c>
+      <c r="N329" s="8">
+        <v>0</v>
+      </c>
+      <c r="O329" s="8">
+        <v>0</v>
+      </c>
+      <c r="P329" s="8">
+        <v>0</v>
       </c>
       <c r="Q329">
         <v>3400</v>
@@ -36328,10 +36384,10 @@
         <v>3</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I330" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J330" s="4" t="s">
         <v>35</v>
@@ -36339,20 +36395,20 @@
       <c r="K330" t="s">
         <v>22</v>
       </c>
-      <c r="L330" t="s">
-        <v>35</v>
-      </c>
-      <c r="M330" t="s">
-        <v>35</v>
-      </c>
-      <c r="N330" t="s">
-        <v>35</v>
-      </c>
-      <c r="O330" t="s">
-        <v>35</v>
-      </c>
-      <c r="P330" t="s">
-        <v>35</v>
+      <c r="L330" s="7">
+        <v>0</v>
+      </c>
+      <c r="M330" s="7">
+        <v>0</v>
+      </c>
+      <c r="N330" s="7">
+        <v>0</v>
+      </c>
+      <c r="O330" s="7">
+        <v>0</v>
+      </c>
+      <c r="P330" s="7">
+        <v>0</v>
       </c>
       <c r="Q330">
         <v>3400</v>
@@ -36369,43 +36425,43 @@
         <v>95</v>
       </c>
       <c r="D331" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E331" t="s">
         <v>36</v>
       </c>
       <c r="F331" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G331">
         <v>3</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I331" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J331" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K331" t="s">
         <v>22</v>
       </c>
-      <c r="L331" t="s">
-        <v>116</v>
-      </c>
-      <c r="M331" t="s">
-        <v>116</v>
-      </c>
-      <c r="N331" t="s">
-        <v>116</v>
-      </c>
-      <c r="O331" t="s">
-        <v>116</v>
-      </c>
-      <c r="P331" t="s">
-        <v>116</v>
+      <c r="L331" s="8">
+        <v>0</v>
+      </c>
+      <c r="M331" s="8">
+        <v>0</v>
+      </c>
+      <c r="N331" s="8">
+        <v>0</v>
+      </c>
+      <c r="O331" s="8">
+        <v>0</v>
+      </c>
+      <c r="P331" s="8">
+        <v>0</v>
       </c>
       <c r="Q331">
         <v>3400</v>
@@ -36434,13 +36490,13 @@
         <v>3</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I332" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K332" t="s">
         <v>22</v>
@@ -36464,7 +36520,7 @@
         <v>2000</v>
       </c>
       <c r="R332" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.3">
@@ -36490,13 +36546,13 @@
         <v>3</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K333" t="s">
         <v>22</v>
@@ -36520,7 +36576,7 @@
         <v>2000</v>
       </c>
       <c r="R333" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.3">
@@ -36546,13 +36602,13 @@
         <v>3</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I334" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J334" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K334" t="s">
         <v>22</v>
@@ -36576,7 +36632,7 @@
         <v>2000</v>
       </c>
       <c r="R334" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.3">
@@ -36602,13 +36658,13 @@
         <v>3</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I335" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J335" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K335" t="s">
         <v>22</v>
@@ -36632,7 +36688,7 @@
         <v>2000</v>
       </c>
       <c r="R335" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
@@ -36646,7 +36702,7 @@
         <v>95</v>
       </c>
       <c r="D336" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E336" t="s">
         <v>30</v>
@@ -36658,13 +36714,13 @@
         <v>3</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I336" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J336" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K336" t="s">
         <v>22</v>
@@ -36688,7 +36744,7 @@
         <v>2000</v>
       </c>
       <c r="R336" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.3">
@@ -36702,7 +36758,7 @@
         <v>95</v>
       </c>
       <c r="D337" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E337" t="s">
         <v>30</v>
@@ -36714,13 +36770,13 @@
         <v>3</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I337" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J337" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K337" t="s">
         <v>22</v>
@@ -36744,7 +36800,7 @@
         <v>2000</v>
       </c>
       <c r="R337" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.3">
@@ -36758,25 +36814,25 @@
         <v>95</v>
       </c>
       <c r="D338" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E338" t="s">
         <v>30</v>
       </c>
       <c r="F338" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G338">
         <v>3</v>
       </c>
       <c r="H338" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I338" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J338" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K338" t="s">
         <v>22</v>
@@ -36800,7 +36856,7 @@
         <v>2000</v>
       </c>
       <c r="R338" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.3">
@@ -36826,13 +36882,13 @@
         <v>3</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I339" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J339" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K339" t="s">
         <v>22</v>
@@ -36879,13 +36935,13 @@
         <v>3</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I340" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J340" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K340" t="s">
         <v>22</v>
@@ -36923,7 +36979,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F341" t="s">
         <v>39</v>
@@ -36932,13 +36988,13 @@
         <v>3</v>
       </c>
       <c r="H341" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I341" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J341" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K341" t="s">
         <v>22</v>
@@ -36985,13 +37041,13 @@
         <v>3</v>
       </c>
       <c r="H342" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I342" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J342" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K342" t="s">
         <v>22</v>
@@ -37015,7 +37071,7 @@
         <v>4500</v>
       </c>
       <c r="R342" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.3">
@@ -37041,13 +37097,13 @@
         <v>3</v>
       </c>
       <c r="H343" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I343" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K343" t="s">
         <v>22</v>
@@ -37600,6 +37656,11 @@
       <formula>NOT(ISERROR(SEARCH("itv",K240)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Numbers" prompt="All values in these cells should be integers, otherwise the program won't recognize the number and get stuck!" sqref="L2:Q345" xr:uid="{DF9D0DFF-E67F-4465-8AF7-5D9569DA4234}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -37639,13 +37700,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -37657,10 +37718,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -37807,8 +37868,8 @@
       <c r="J4" t="str">
         <v>P</v>
       </c>
-      <c r="K4" t="str">
-        <v>1500 ft AGL</v>
+      <c r="K4">
+        <v>15</v>
       </c>
       <c r="L4">
         <v>350</v>
@@ -37826,7 +37887,7 @@
         <v>2645.5439999999999</v>
       </c>
       <c r="Q4" t="str">
-        <v>mininimum altitude in feet  above ground level</v>
+        <v>mininimum altitude 1500 feet  above ground level</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -37860,8 +37921,8 @@
       <c r="J5" t="str">
         <v>P</v>
       </c>
-      <c r="K5" t="str">
-        <v>1500 ft AGL</v>
+      <c r="K5">
+        <v>15</v>
       </c>
       <c r="L5">
         <v>350</v>
@@ -37879,7 +37940,7 @@
         <v>2645.5439999999999</v>
       </c>
       <c r="Q5" t="str">
-        <v>mininimum altitude in feet above ground level</v>
+        <v>mininimum altitude 1500 feet above ground level</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -41737,13 +41798,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -41755,10 +41816,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -41913,13 +41974,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -41931,10 +41992,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -42937,13 +42998,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -42955,10 +43016,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -43012,13 +43073,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -43030,10 +43091,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -43453,13 +43514,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -43471,10 +43532,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
